--- a/data/hotels_by_city/Denver/Denver_shard_87.xlsx
+++ b/data/hotels_by_city/Denver/Denver_shard_87.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="review_info" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="review_info" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="616">
   <si>
     <t>STR#</t>
   </si>
@@ -63,6 +63,15 @@
     <t>https://www.tripadvisor.com/Hotel_Review-g29144-d120075-Reviews-Fairfield_Inn_Suites_Denver_Aurora_Medical_Center-Aurora_Colorado.html</t>
   </si>
   <si>
+    <t>143</t>
+  </si>
+  <si>
+    <t>16</t>
+  </si>
+  <si>
+    <t>147</t>
+  </si>
+  <si>
     <t>https://www.orbitz.com/Denver-Hotels-Fairfield-Inn-Suites-Denver-AuroraMedical-Center.h202373.Hotel-Information</t>
   </si>
   <si>
@@ -139,6 +148,1750 @@
   </si>
   <si>
     <t>response_text</t>
+  </si>
+  <si>
+    <t>08/02/2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29144-d120075-r588372969-Fairfield_Inn_Suites_Denver_Aurora_Medical_Center-Aurora_Colorado.html</t>
+  </si>
+  <si>
+    <t>29144</t>
+  </si>
+  <si>
+    <t>120075</t>
+  </si>
+  <si>
+    <t>588372969</t>
+  </si>
+  <si>
+    <t>06/18/2018</t>
+  </si>
+  <si>
+    <t>Warning!! Warning!!</t>
+  </si>
+  <si>
+    <t>Was a nightmare because the hotel was under construction and we didn’t know that when we book 3 months ago the breakfast area was so dirty and dusty because of construction. Our room was in first floor next to the pool and there’s a lot of noise, and the worst experience there was the BEDBUGS that bit me all over my body. Thank god that they only bit me and not my children. And yes I went to the front office and I informed the lady about the bedbugs and the only thing she said was, “Okay, are you checking out?” Please look at the results of sleeping in Fairfield Inn &amp; Suites Denver Aurora/Medical Center.MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with family</t>
+  </si>
+  <si>
+    <t>Justin W, Manager at Fairfield Inn &amp; Suites Denver Aurora/Medical Center, responded to this reviewResponded June 20, 2018</t>
+  </si>
+  <si>
+    <t>Responded June 20, 2018</t>
+  </si>
+  <si>
+    <t>Was a nightmare because the hotel was under construction and we didn’t know that when we book 3 months ago the breakfast area was so dirty and dusty because of construction. Our room was in first floor next to the pool and there’s a lot of noise, and the worst experience there was the BEDBUGS that bit me all over my body. Thank god that they only bit me and not my children. And yes I went to the front office and I informed the lady about the bedbugs and the only thing she said was, “Okay, are you checking out?” Please look at the results of sleeping in Fairfield Inn &amp; Suites Denver Aurora/Medical Center.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29144-d120075-r572127143-Fairfield_Inn_Suites_Denver_Aurora_Medical_Center-Aurora_Colorado.html</t>
+  </si>
+  <si>
+    <t>572127143</t>
+  </si>
+  <si>
+    <t>04/09/2018</t>
+  </si>
+  <si>
+    <t>1 night stay near airport</t>
+  </si>
+  <si>
+    <t>Hotel is under construction, it did not really affect our stay, im sure when its all complete it will be more pleasing and comfortablein the common areas, staff friendly beds comfortable rate reasonable, great location near airport, without airport ratesMoreShow less</t>
+  </si>
+  <si>
+    <t>Justin W, Front Office Manager at Fairfield Inn &amp; Suites Denver Aurora/Medical Center, responded to this reviewResponded April 9, 2018</t>
+  </si>
+  <si>
+    <t>Responded April 9, 2018</t>
+  </si>
+  <si>
+    <t>Hotel is under construction, it did not really affect our stay, im sure when its all complete it will be more pleasing and comfortablein the common areas, staff friendly beds comfortable rate reasonable, great location near airport, without airport ratesMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29144-d120075-r568187995-Fairfield_Inn_Suites_Denver_Aurora_Medical_Center-Aurora_Colorado.html</t>
+  </si>
+  <si>
+    <t>568187995</t>
+  </si>
+  <si>
+    <t>03/22/2018</t>
+  </si>
+  <si>
+    <t>Great value, nice room and breakfast—we’ll be back</t>
+  </si>
+  <si>
+    <t>My wife and I were visiting family in Denver and needed a place to stay. We usually like the Marriott family of hotels, and this particular one was very reasonably priced. We didn’t have overly high expectations, having had a less enjoyable experience at the Towneplace Suites in Denver (at a much higher price), but we were pleasantly surprised in every way.
+First, we were pleased at how spacious the room was. It was very up-to-date, including ongoing remodeling of all the hotel’s facilities. This was our first time in a Fairfield Inn, and if this is representative of that chain, then we are now big fans. 
+The bed was very comfortable with a good selection of different pillows. The shower was excellent, and we appreciated the Paul Mitchell bathroom products. Internet speed was some of the best I’ve had in any hotel. 
+We found the breakfast selection to be quite good:  omelette, ham, sausage, oatmeal, make-your-own waffles (chocolate chip or regular), various breads and cereals, yogurt and fruits. 
+The staff was very friendly and helpful, even offering to put us on the side of the hotel away from the freeway, to minimize noise, and offered us bottled water for our room. 
+We will definitely be back again. Also the location is extremely convenient—near a number of restaurants and shops, even a Sam’s Club (with the best priced gas around). Although it’s right by the freeway and might have some...My wife and I were visiting family in Denver and needed a place to stay. We usually like the Marriott family of hotels, and this particular one was very reasonably priced. We didn’t have overly high expectations, having had a less enjoyable experience at the Towneplace Suites in Denver (at a much higher price), but we were pleasantly surprised in every way.First, we were pleased at how spacious the room was. It was very up-to-date, including ongoing remodeling of all the hotel’s facilities. This was our first time in a Fairfield Inn, and if this is representative of that chain, then we are now big fans. The bed was very comfortable with a good selection of different pillows. The shower was excellent, and we appreciated the Paul Mitchell bathroom products. Internet speed was some of the best I’ve had in any hotel. We found the breakfast selection to be quite good:  omelette, ham, sausage, oatmeal, make-your-own waffles (chocolate chip or regular), various breads and cereals, yogurt and fruits. The staff was very friendly and helpful, even offering to put us on the side of the hotel away from the freeway, to minimize noise, and offered us bottled water for our room. We will definitely be back again. Also the location is extremely convenient—near a number of restaurants and shops, even a Sam’s Club (with the best priced gas around). Although it’s right by the freeway and might have some noisy rooms, we like the convenience of easy freeway access. With family now living in Denver, we will be back fairly frequently and look forward to our next stay at this hotel. We would definitely recommend this place to anyone. MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2018</t>
+  </si>
+  <si>
+    <t>My wife and I were visiting family in Denver and needed a place to stay. We usually like the Marriott family of hotels, and this particular one was very reasonably priced. We didn’t have overly high expectations, having had a less enjoyable experience at the Towneplace Suites in Denver (at a much higher price), but we were pleasantly surprised in every way.
+First, we were pleased at how spacious the room was. It was very up-to-date, including ongoing remodeling of all the hotel’s facilities. This was our first time in a Fairfield Inn, and if this is representative of that chain, then we are now big fans. 
+The bed was very comfortable with a good selection of different pillows. The shower was excellent, and we appreciated the Paul Mitchell bathroom products. Internet speed was some of the best I’ve had in any hotel. 
+We found the breakfast selection to be quite good:  omelette, ham, sausage, oatmeal, make-your-own waffles (chocolate chip or regular), various breads and cereals, yogurt and fruits. 
+The staff was very friendly and helpful, even offering to put us on the side of the hotel away from the freeway, to minimize noise, and offered us bottled water for our room. 
+We will definitely be back again. Also the location is extremely convenient—near a number of restaurants and shops, even a Sam’s Club (with the best priced gas around). Although it’s right by the freeway and might have some...My wife and I were visiting family in Denver and needed a place to stay. We usually like the Marriott family of hotels, and this particular one was very reasonably priced. We didn’t have overly high expectations, having had a less enjoyable experience at the Towneplace Suites in Denver (at a much higher price), but we were pleasantly surprised in every way.First, we were pleased at how spacious the room was. It was very up-to-date, including ongoing remodeling of all the hotel’s facilities. This was our first time in a Fairfield Inn, and if this is representative of that chain, then we are now big fans. The bed was very comfortable with a good selection of different pillows. The shower was excellent, and we appreciated the Paul Mitchell bathroom products. Internet speed was some of the best I’ve had in any hotel. We found the breakfast selection to be quite good:  omelette, ham, sausage, oatmeal, make-your-own waffles (chocolate chip or regular), various breads and cereals, yogurt and fruits. The staff was very friendly and helpful, even offering to put us on the side of the hotel away from the freeway, to minimize noise, and offered us bottled water for our room. We will definitely be back again. Also the location is extremely convenient—near a number of restaurants and shops, even a Sam’s Club (with the best priced gas around). Although it’s right by the freeway and might have some noisy rooms, we like the convenience of easy freeway access. With family now living in Denver, we will be back fairly frequently and look forward to our next stay at this hotel. We would definitely recommend this place to anyone. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29144-d120075-r537661853-Fairfield_Inn_Suites_Denver_Aurora_Medical_Center-Aurora_Colorado.html</t>
+  </si>
+  <si>
+    <t>537661853</t>
+  </si>
+  <si>
+    <t>11/01/2017</t>
+  </si>
+  <si>
+    <t>Supermax concrete beds are more plush</t>
+  </si>
+  <si>
+    <t>I stay at a lot of Marriott properties, in fact probably more Fairfields than any other in the family of Marriott properties.  This was a pretty standard property.  We were checked in promptly using the mobile app.  Front desk folks were friendly and helpful.  What differentiated this property from others was how uncomfortable the beds in room 209 were.  You woke up (both my wife and I) felt like we had just slept on the Red Rocks monument instead of a bed.  We stayed 2 nights and each morning we woke up feeling the same way.  I don't think we really would have needed an ironing board in the room, we could have just ironed items on the bed.  During our stay the phones were down, other amenities were down.  Breakfast was standard for a Fairfield.  Location was good.MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled as a couple</t>
+  </si>
+  <si>
+    <t>Justin W, Front Office Manager at Fairfield Inn &amp; Suites Denver Aurora/Medical Center, responded to this reviewResponded November 2, 2017</t>
+  </si>
+  <si>
+    <t>Responded November 2, 2017</t>
+  </si>
+  <si>
+    <t>I stay at a lot of Marriott properties, in fact probably more Fairfields than any other in the family of Marriott properties.  This was a pretty standard property.  We were checked in promptly using the mobile app.  Front desk folks were friendly and helpful.  What differentiated this property from others was how uncomfortable the beds in room 209 were.  You woke up (both my wife and I) felt like we had just slept on the Red Rocks monument instead of a bed.  We stayed 2 nights and each morning we woke up feeling the same way.  I don't think we really would have needed an ironing board in the room, we could have just ironed items on the bed.  During our stay the phones were down, other amenities were down.  Breakfast was standard for a Fairfield.  Location was good.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29144-d120075-r537283379-Fairfield_Inn_Suites_Denver_Aurora_Medical_Center-Aurora_Colorado.html</t>
+  </si>
+  <si>
+    <t>537283379</t>
+  </si>
+  <si>
+    <t>10/30/2017</t>
+  </si>
+  <si>
+    <t>Another great stay</t>
+  </si>
+  <si>
+    <t>The room had been totally remodeled, bath was good.  Bed was good, quiet location near to Denver but without the hassle. Internet was fast and reliable.   We would probably stay here again, desk staff was helpful.</t>
+  </si>
+  <si>
+    <t>September 2017</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29144-d120075-r535154887-Fairfield_Inn_Suites_Denver_Aurora_Medical_Center-Aurora_Colorado.html</t>
+  </si>
+  <si>
+    <t>535154887</t>
+  </si>
+  <si>
+    <t>10/22/2017</t>
+  </si>
+  <si>
+    <t>Clean &amp; Quiet, but Housekeeping &amp; Locks/Keys need some Attention</t>
+  </si>
+  <si>
+    <t>Good location, close to nearby shopping center. Mostly clean, and fairly quiet.A couple matters made our stay a little less than a "10".Our key cards did not work in the side doors at both the breakfast area and elevator area. People including us were using stones as door stops, to keep the door open and ease moving luggage in and out, but defeating security. I advised the folks at the front desk twice and heard two other guests advising the front desk reps on two other occasions. No fix was made during our three night stay.In addition, housekeeping did not clean or make up our room the first night of our stay. I brought the omission to the attention of an assistant mgr. at the front desk and advised him that it would be no problem if he simply wanted to credit points to my Marriott Rewards account for each day of my stay that housekeeping did not clean our room. Housekeeping also missed our room the second day of our three night stay. I advised the person at the front desk, and the waste baskets were emptied and the towels exchanged before the third night, but points for the first two nights have not yet been added to my Rewards Account.MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2017</t>
+  </si>
+  <si>
+    <t>Justin W, Front Office Manager at Fairfield Inn &amp; Suites Denver Aurora/Medical Center, responded to this reviewResponded October 23, 2017</t>
+  </si>
+  <si>
+    <t>Responded October 23, 2017</t>
+  </si>
+  <si>
+    <t>Good location, close to nearby shopping center. Mostly clean, and fairly quiet.A couple matters made our stay a little less than a "10".Our key cards did not work in the side doors at both the breakfast area and elevator area. People including us were using stones as door stops, to keep the door open and ease moving luggage in and out, but defeating security. I advised the folks at the front desk twice and heard two other guests advising the front desk reps on two other occasions. No fix was made during our three night stay.In addition, housekeeping did not clean or make up our room the first night of our stay. I brought the omission to the attention of an assistant mgr. at the front desk and advised him that it would be no problem if he simply wanted to credit points to my Marriott Rewards account for each day of my stay that housekeeping did not clean our room. Housekeeping also missed our room the second day of our three night stay. I advised the person at the front desk, and the waste baskets were emptied and the towels exchanged before the third night, but points for the first two nights have not yet been added to my Rewards Account.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29144-d120075-r522681321-Fairfield_Inn_Suites_Denver_Aurora_Medical_Center-Aurora_Colorado.html</t>
+  </si>
+  <si>
+    <t>522681321</t>
+  </si>
+  <si>
+    <t>09/08/2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Only ok, not Marriott property standards </t>
+  </si>
+  <si>
+    <t>I travel all over the country and stay at Marriott hotels in all 4 corners of America. This hotel is not bad but not good either.  The staff spends more time eating at the continental breakfast than working.  I have never seen staff at any Marriott eating durning the morning rush.  Every time I come in the door there is never anyone at the desk and if they are they are on their phone playing.  When I checked in ,after making reservations over a week ago, I was greeted by a lady with the quote " I have no clue if I even have a room for you right now". This was before checking the computer or anything.  Quite unsettling.  If I was the owner of this hotel and seen the reviews and the reoccurring concerns I believe I would address them better.  After a week here I had room service come in and clean and they did not even give me clean sheets or anything. Just made the dirty bed. Out if the entire staff I have only met 2 male workers and they have both been very nice " still not at the desk ever" but very nice.  Between myself and my business partner we will spend near 20 nights at this hotel and I can say that I will most likely go to a different hotel.  MoreShow less</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled on business</t>
+  </si>
+  <si>
+    <t>I travel all over the country and stay at Marriott hotels in all 4 corners of America. This hotel is not bad but not good either.  The staff spends more time eating at the continental breakfast than working.  I have never seen staff at any Marriott eating durning the morning rush.  Every time I come in the door there is never anyone at the desk and if they are they are on their phone playing.  When I checked in ,after making reservations over a week ago, I was greeted by a lady with the quote " I have no clue if I even have a room for you right now". This was before checking the computer or anything.  Quite unsettling.  If I was the owner of this hotel and seen the reviews and the reoccurring concerns I believe I would address them better.  After a week here I had room service come in and clean and they did not even give me clean sheets or anything. Just made the dirty bed. Out if the entire staff I have only met 2 male workers and they have both been very nice " still not at the desk ever" but very nice.  Between myself and my business partner we will spend near 20 nights at this hotel and I can say that I will most likely go to a different hotel.  More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29144-d120075-r516279932-Fairfield_Inn_Suites_Denver_Aurora_Medical_Center-Aurora_Colorado.html</t>
+  </si>
+  <si>
+    <t>516279932</t>
+  </si>
+  <si>
+    <t>08/22/2017</t>
+  </si>
+  <si>
+    <t>Nice hotel but not Marriott standards</t>
+  </si>
+  <si>
+    <t>Room was very nice and clean.  No complaints there at all.  What was weird was the staff and some of the things we saw.  First, front-desk folks not wearing name tags.  Front-desk people not there.  Front desk people going up to rooms on the 3rd floor.  Not sure what was going on in there but that was very strange.  After breakfast, all the staff came into the lunch room and ate.  Guests had to walk around them to get to the coffee.   Odd to see the staff in there eating.   Breakfast food was mostly cold event though there was still 30 minutes left.  Overall, the room was great.  The staff behavior was a bit suspect.MoreShow less</t>
+  </si>
+  <si>
+    <t>Room was very nice and clean.  No complaints there at all.  What was weird was the staff and some of the things we saw.  First, front-desk folks not wearing name tags.  Front-desk people not there.  Front desk people going up to rooms on the 3rd floor.  Not sure what was going on in there but that was very strange.  After breakfast, all the staff came into the lunch room and ate.  Guests had to walk around them to get to the coffee.   Odd to see the staff in there eating.   Breakfast food was mostly cold event though there was still 30 minutes left.  Overall, the room was great.  The staff behavior was a bit suspect.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29144-d120075-r514853895-Fairfield_Inn_Suites_Denver_Aurora_Medical_Center-Aurora_Colorado.html</t>
+  </si>
+  <si>
+    <t>514853895</t>
+  </si>
+  <si>
+    <t>08/18/2017</t>
+  </si>
+  <si>
+    <t>Staff was honest, kind, thoughtful, and very competent!</t>
+  </si>
+  <si>
+    <t>We stayed at this hotel one night, en route to a family wedding. I foolishly left a small handbag at the hotel.  This bag contained my ATM card, several credit cards, a significant amount of cash and some important medical papers.  A very kind and impressively sharp young woman on the staff called me the day we left.  By the time I got the call, we were hundreds of miles away, on the road, and I had just begun to miss the bag.  She said they'd found the bag and asked what I wanted them to do with it.  I asked her to mail it to our home, and they did  -- by U.S. PRIORITY MAIL!  She must have mailed it that day.  I was so grateful and appreciative to promptly receive all my missing items.The hotel was extremely clean and comfortable, too.  We'll definitely stay there again.MoreShow less</t>
+  </si>
+  <si>
+    <t>We stayed at this hotel one night, en route to a family wedding. I foolishly left a small handbag at the hotel.  This bag contained my ATM card, several credit cards, a significant amount of cash and some important medical papers.  A very kind and impressively sharp young woman on the staff called me the day we left.  By the time I got the call, we were hundreds of miles away, on the road, and I had just begun to miss the bag.  She said they'd found the bag and asked what I wanted them to do with it.  I asked her to mail it to our home, and they did  -- by U.S. PRIORITY MAIL!  She must have mailed it that day.  I was so grateful and appreciative to promptly receive all my missing items.The hotel was extremely clean and comfortable, too.  We'll definitely stay there again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29144-d120075-r489642200-Fairfield_Inn_Suites_Denver_Aurora_Medical_Center-Aurora_Colorado.html</t>
+  </si>
+  <si>
+    <t>489642200</t>
+  </si>
+  <si>
+    <t>06/01/2017</t>
+  </si>
+  <si>
+    <t>Disappointing stay</t>
+  </si>
+  <si>
+    <t>The only positive would really be the location.  There are lots of restaurants nearby and it's easy on and off the Interstate.  Overall the staff seems to be overwhelmed (although with the exception of one woman at the front desk they are friendly) and not able to handle things when the hotel is full.  We arrived at 9 pm.  The gentleman at the front desk wasn't sure if the room was ready yet so he had to run up and check himself if it was ready.  What if it hadn't been ready?  Was he going to do housekeeping on it himself?  Housekeeping was obviously gone because he was passing out towels to guests left and right just in the little time that we were standing there checking in.  
+We get to our room and the toilet won't flush and their are small ants on the bed and on the desk.  We go back down because we need to eat and tell the front desk.  He goes up later and fixes the toilet but nothing was ever done about the ants.  What could be done I guess but it's gross.  We would have checked out but we were with a soccer team.
+Which brings us to the next BIG problem.  Breakfast.  One poor attendant was trying feverishly to keep up with a very busy breakfast crowd.  A friend called me 90 minutes before breakfast was suppose to be over to tell...The only positive would really be the location.  There are lots of restaurants nearby and it's easy on and off the Interstate.  Overall the staff seems to be overwhelmed (although with the exception of one woman at the front desk they are friendly) and not able to handle things when the hotel is full.  We arrived at 9 pm.  The gentleman at the front desk wasn't sure if the room was ready yet so he had to run up and check himself if it was ready.  What if it hadn't been ready?  Was he going to do housekeeping on it himself?  Housekeeping was obviously gone because he was passing out towels to guests left and right just in the little time that we were standing there checking in.  We get to our room and the toilet won't flush and their are small ants on the bed and on the desk.  We go back down because we need to eat and tell the front desk.  He goes up later and fixes the toilet but nothing was ever done about the ants.  What could be done I guess but it's gross.  We would have checked out but we were with a soccer team.Which brings us to the next BIG problem.  Breakfast.  One poor attendant was trying feverishly to keep up with a very busy breakfast crowd.  A friend called me 90 minutes before breakfast was suppose to be over to tell me to hurry down because everything was going to be gone.  Sure enough they were wiped out although the poor attendant was trying to make more eggs (disgustingly watery), more sausage (vegetarian, so nasty), and restock the milk, etc.  All was pretty much not edible.  So maybe some toast or a bagel?  No, none left.  Yogurt? gone.  There were waffles which we made but no syrup left and it took him 20 min to get around to refilling.  It was seriously a nightmare.  The last day not even any cream for the coffee.  If you know you are booked get another breakfast attendant.  We stay at a lot of hotels both with the team and on our own and this was one of the poorest breakfasts I've ever had.  And lastly, as we were leaving my son noticed that the red fire alarm was just a shell.  The outer part was not on it.  We told the front desk that it was that way (and showed pictures) and obviously should not be inhabited.  She said "Sorry, the construction people must have messed that up."  One other issue was that we parked on the back side one night and decided to see if we could get in with our key instead of going around.  But the back door was open at 10:30 at night and no key was needed to enter.  Definitely a safety concern.MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2017</t>
+  </si>
+  <si>
+    <t>Management response:Responded June 2, 2017</t>
+  </si>
+  <si>
+    <t>Responded June 2, 2017</t>
+  </si>
+  <si>
+    <t>The only positive would really be the location.  There are lots of restaurants nearby and it's easy on and off the Interstate.  Overall the staff seems to be overwhelmed (although with the exception of one woman at the front desk they are friendly) and not able to handle things when the hotel is full.  We arrived at 9 pm.  The gentleman at the front desk wasn't sure if the room was ready yet so he had to run up and check himself if it was ready.  What if it hadn't been ready?  Was he going to do housekeeping on it himself?  Housekeeping was obviously gone because he was passing out towels to guests left and right just in the little time that we were standing there checking in.  
+We get to our room and the toilet won't flush and their are small ants on the bed and on the desk.  We go back down because we need to eat and tell the front desk.  He goes up later and fixes the toilet but nothing was ever done about the ants.  What could be done I guess but it's gross.  We would have checked out but we were with a soccer team.
+Which brings us to the next BIG problem.  Breakfast.  One poor attendant was trying feverishly to keep up with a very busy breakfast crowd.  A friend called me 90 minutes before breakfast was suppose to be over to tell...The only positive would really be the location.  There are lots of restaurants nearby and it's easy on and off the Interstate.  Overall the staff seems to be overwhelmed (although with the exception of one woman at the front desk they are friendly) and not able to handle things when the hotel is full.  We arrived at 9 pm.  The gentleman at the front desk wasn't sure if the room was ready yet so he had to run up and check himself if it was ready.  What if it hadn't been ready?  Was he going to do housekeeping on it himself?  Housekeeping was obviously gone because he was passing out towels to guests left and right just in the little time that we were standing there checking in.  We get to our room and the toilet won't flush and their are small ants on the bed and on the desk.  We go back down because we need to eat and tell the front desk.  He goes up later and fixes the toilet but nothing was ever done about the ants.  What could be done I guess but it's gross.  We would have checked out but we were with a soccer team.Which brings us to the next BIG problem.  Breakfast.  One poor attendant was trying feverishly to keep up with a very busy breakfast crowd.  A friend called me 90 minutes before breakfast was suppose to be over to tell me to hurry down because everything was going to be gone.  Sure enough they were wiped out although the poor attendant was trying to make more eggs (disgustingly watery), more sausage (vegetarian, so nasty), and restock the milk, etc.  All was pretty much not edible.  So maybe some toast or a bagel?  No, none left.  Yogurt? gone.  There were waffles which we made but no syrup left and it took him 20 min to get around to refilling.  It was seriously a nightmare.  The last day not even any cream for the coffee.  If you know you are booked get another breakfast attendant.  We stay at a lot of hotels both with the team and on our own and this was one of the poorest breakfasts I've ever had.  And lastly, as we were leaving my son noticed that the red fire alarm was just a shell.  The outer part was not on it.  We told the front desk that it was that way (and showed pictures) and obviously should not be inhabited.  She said "Sorry, the construction people must have messed that up."  One other issue was that we parked on the back side one night and decided to see if we could get in with our key instead of going around.  But the back door was open at 10:30 at night and no key was needed to enter.  Definitely a safety concern.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29144-d120075-r483537938-Fairfield_Inn_Suites_Denver_Aurora_Medical_Center-Aurora_Colorado.html</t>
+  </si>
+  <si>
+    <t>483537938</t>
+  </si>
+  <si>
+    <t>05/11/2017</t>
+  </si>
+  <si>
+    <t>No two stays are the same</t>
+  </si>
+  <si>
+    <t>Good service is lacking.  There was no one at the counter upon my arrival. The room was ok but nothing spectacular.  The spa was not working properly.  Only good thing - proximity to 470, airport (better priced), shopping, restaurants and movie theater.  Hotel is not that old, it started out as another brand and turned I to a Fairfield. I have stayed here a few times and it is 'hit and miss'. MoreShow less</t>
+  </si>
+  <si>
+    <t>Management response:Responded May 12, 2017</t>
+  </si>
+  <si>
+    <t>Responded May 12, 2017</t>
+  </si>
+  <si>
+    <t>Good service is lacking.  There was no one at the counter upon my arrival. The room was ok but nothing spectacular.  The spa was not working properly.  Only good thing - proximity to 470, airport (better priced), shopping, restaurants and movie theater.  Hotel is not that old, it started out as another brand and turned I to a Fairfield. I have stayed here a few times and it is 'hit and miss'. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29144-d120075-r478644798-Fairfield_Inn_Suites_Denver_Aurora_Medical_Center-Aurora_Colorado.html</t>
+  </si>
+  <si>
+    <t>478644798</t>
+  </si>
+  <si>
+    <t>04/24/2017</t>
+  </si>
+  <si>
+    <t>Recent upgrade to the new Fairfield style</t>
+  </si>
+  <si>
+    <t>If you know the Fairfield by Marriott brand, you know that they're in the midst of refreshing to a really nice decor and layout.  This property is no different and as of April 20, they're right in the middle of doing the remodel.My room was one of the ones that was recently completed, nice, clean, comfortable.  They should be done with the entire property in the next couple of weeks.  But don't let the construction deter you unless you're sleeping during the day, you won't notice any noise.Staff was wonderful, breakfast hot and fresh.As a Marriott Platinum, my wifi was free.MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled solo</t>
+  </si>
+  <si>
+    <t>If you know the Fairfield by Marriott brand, you know that they're in the midst of refreshing to a really nice decor and layout.  This property is no different and as of April 20, they're right in the middle of doing the remodel.My room was one of the ones that was recently completed, nice, clean, comfortable.  They should be done with the entire property in the next couple of weeks.  But don't let the construction deter you unless you're sleeping during the day, you won't notice any noise.Staff was wonderful, breakfast hot and fresh.As a Marriott Platinum, my wifi was free.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29144-d120075-r430885691-Fairfield_Inn_Suites_Denver_Aurora_Medical_Center-Aurora_Colorado.html</t>
+  </si>
+  <si>
+    <t>430885691</t>
+  </si>
+  <si>
+    <t>10/23/2016</t>
+  </si>
+  <si>
+    <t>Are you kidding me with this "hotel"?</t>
+  </si>
+  <si>
+    <t>My daughter was being seen at the Anschutz Cancer Center at University of Colorado and recovering from surgery.   We continually stay at Marriott properties because of her condition as an elite rewards member so have a good idea of how things should be.    We arrived to this hotel and the overpowering (odor covering) chemical fragrances were even drifting out the door.   The room was similarly overwhelming only with a different fragrance, the public bathroom smelled like pine oil of 30,000 pines in a very small room.   Because of the strong smells to cover up who knows what, both my daughter and I started coughing which lasted through the night into the next day.  
+Since we drove 7 hours to get to the hotel, we wanted to relax.   When we ran the water in our sink or our bathtub, it smelled like sewer coming out of the drain.  That filled the room, now we understood why the fragrances were so strong. The over-the-top problem was that there was dirty underwear behind the dresser right where we had to plug in the coffee maker.  We were disgusted and notified the front desk.  We had to go to the hospital and while there we expected that they would take care of the smell of the drains and the bonus panties like they promised.   When we returned 4 hours later, our room was like we left it, so we went out to eat lunch....My daughter was being seen at the Anschutz Cancer Center at University of Colorado and recovering from surgery.   We continually stay at Marriott properties because of her condition as an elite rewards member so have a good idea of how things should be.    We arrived to this hotel and the overpowering (odor covering) chemical fragrances were even drifting out the door.   The room was similarly overwhelming only with a different fragrance, the public bathroom smelled like pine oil of 30,000 pines in a very small room.   Because of the strong smells to cover up who knows what, both my daughter and I started coughing which lasted through the night into the next day.  Since we drove 7 hours to get to the hotel, we wanted to relax.   When we ran the water in our sink or our bathtub, it smelled like sewer coming out of the drain.  That filled the room, now we understood why the fragrances were so strong. The over-the-top problem was that there was dirty underwear behind the dresser right where we had to plug in the coffee maker.  We were disgusted and notified the front desk.  We had to go to the hospital and while there we expected that they would take care of the smell of the drains and the bonus panties like they promised.   When we returned 4 hours later, our room was like we left it, so we went out to eat lunch.   Two hours later returned and the housekeeping had been in, however, had only partially pulled up our bedspreads, that was it.   Panty check...yes still there.  Sink stink?  Yes.  We went to the desk and she said that housekeeping just hadn't gotten to the room yet.   Ummm maam yes, they had.   I questioned how housekeeping would be taking care of the drains, since that seemed to be a plumbing issue.    I was told that I could maybe move rooms but they had nothing right then, we'd have to wait and see.   What would have been satisfactory is for the clerk to come to the room with housekeeping and see for herself what the problem was and get it fixed.   She said, "I don't blame you if you want to find another place!"   Seriously?  We did just that and she saw us struggling in the hall with the suitcase cart, "did you find something else," and I informed her we were leaving.    Today I checked the bank and they had charged us for an additional three days.   The hotel manager is out and no one knows when they will be back in.  Unreal.  Do not stay here.  Dirty, smelly and well... all of this above.MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2016</t>
+  </si>
+  <si>
+    <t>Management response:Responded November 4, 2016</t>
+  </si>
+  <si>
+    <t>Responded November 4, 2016</t>
+  </si>
+  <si>
+    <t>My daughter was being seen at the Anschutz Cancer Center at University of Colorado and recovering from surgery.   We continually stay at Marriott properties because of her condition as an elite rewards member so have a good idea of how things should be.    We arrived to this hotel and the overpowering (odor covering) chemical fragrances were even drifting out the door.   The room was similarly overwhelming only with a different fragrance, the public bathroom smelled like pine oil of 30,000 pines in a very small room.   Because of the strong smells to cover up who knows what, both my daughter and I started coughing which lasted through the night into the next day.  
+Since we drove 7 hours to get to the hotel, we wanted to relax.   When we ran the water in our sink or our bathtub, it smelled like sewer coming out of the drain.  That filled the room, now we understood why the fragrances were so strong. The over-the-top problem was that there was dirty underwear behind the dresser right where we had to plug in the coffee maker.  We were disgusted and notified the front desk.  We had to go to the hospital and while there we expected that they would take care of the smell of the drains and the bonus panties like they promised.   When we returned 4 hours later, our room was like we left it, so we went out to eat lunch....My daughter was being seen at the Anschutz Cancer Center at University of Colorado and recovering from surgery.   We continually stay at Marriott properties because of her condition as an elite rewards member so have a good idea of how things should be.    We arrived to this hotel and the overpowering (odor covering) chemical fragrances were even drifting out the door.   The room was similarly overwhelming only with a different fragrance, the public bathroom smelled like pine oil of 30,000 pines in a very small room.   Because of the strong smells to cover up who knows what, both my daughter and I started coughing which lasted through the night into the next day.  Since we drove 7 hours to get to the hotel, we wanted to relax.   When we ran the water in our sink or our bathtub, it smelled like sewer coming out of the drain.  That filled the room, now we understood why the fragrances were so strong. The over-the-top problem was that there was dirty underwear behind the dresser right where we had to plug in the coffee maker.  We were disgusted and notified the front desk.  We had to go to the hospital and while there we expected that they would take care of the smell of the drains and the bonus panties like they promised.   When we returned 4 hours later, our room was like we left it, so we went out to eat lunch.   Two hours later returned and the housekeeping had been in, however, had only partially pulled up our bedspreads, that was it.   Panty check...yes still there.  Sink stink?  Yes.  We went to the desk and she said that housekeeping just hadn't gotten to the room yet.   Ummm maam yes, they had.   I questioned how housekeeping would be taking care of the drains, since that seemed to be a plumbing issue.    I was told that I could maybe move rooms but they had nothing right then, we'd have to wait and see.   What would have been satisfactory is for the clerk to come to the room with housekeeping and see for herself what the problem was and get it fixed.   She said, "I don't blame you if you want to find another place!"   Seriously?  We did just that and she saw us struggling in the hall with the suitcase cart, "did you find something else," and I informed her we were leaving.    Today I checked the bank and they had charged us for an additional three days.   The hotel manager is out and no one knows when they will be back in.  Unreal.  Do not stay here.  Dirty, smelly and well... all of this above.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29144-d120075-r424454429-Fairfield_Inn_Suites_Denver_Aurora_Medical_Center-Aurora_Colorado.html</t>
+  </si>
+  <si>
+    <t>424454429</t>
+  </si>
+  <si>
+    <t>10/02/2016</t>
+  </si>
+  <si>
+    <t>Birthday fun</t>
+  </si>
+  <si>
+    <t xml:space="preserve">This hotel is very clean comfortable and conveniently located, Michael check us in and was very friendly and informative. The rooms are very ample and most importantly clean. Our stay was for 4 days and we had no problems. The breakfast was a pleasant surprise, many great choices. Thank you for a perfect stay </t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29144-d120075-r414574315-Fairfield_Inn_Suites_Denver_Aurora_Medical_Center-Aurora_Colorado.html</t>
+  </si>
+  <si>
+    <t>414574315</t>
+  </si>
+  <si>
+    <t>09/04/2016</t>
+  </si>
+  <si>
+    <t>Needs attention</t>
+  </si>
+  <si>
+    <t>The room needed lots of maintenance. The two main issues for us was the TV not functioning and the air conditioner in the room wasn't working very well. The breakfast buffet was good and  the pool was fun for the kids.MoreShow less</t>
+  </si>
+  <si>
+    <t>Shaun H, General Manager at Fairfield Inn &amp; Suites Denver Aurora/Medical Center, responded to this reviewResponded September 22, 2016</t>
+  </si>
+  <si>
+    <t>Responded September 22, 2016</t>
+  </si>
+  <si>
+    <t>The room needed lots of maintenance. The two main issues for us was the TV not functioning and the air conditioner in the room wasn't working very well. The breakfast buffet was good and  the pool was fun for the kids.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29144-d120075-r355088036-Fairfield_Inn_Suites_Denver_Aurora_Medical_Center-Aurora_Colorado.html</t>
+  </si>
+  <si>
+    <t>355088036</t>
+  </si>
+  <si>
+    <t>03/13/2016</t>
+  </si>
+  <si>
+    <t>Weekend visit</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Room was decent, however there was constantly a Marijuana smell in hallways. Our keys did not work 3 times and we had to come down to the lobby from the 3rd floor for a reset. 2nd day/night we had no Kleenex or coffee. Breakfast had no eggs available both days when going. </t>
+  </si>
+  <si>
+    <t>March 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29144-d120075-r345987530-Fairfield_Inn_Suites_Denver_Aurora_Medical_Center-Aurora_Colorado.html</t>
+  </si>
+  <si>
+    <t>345987530</t>
+  </si>
+  <si>
+    <t>02/08/2016</t>
+  </si>
+  <si>
+    <t>Airport pre flight stay</t>
+  </si>
+  <si>
+    <t>This was my second stay at this hotel as a stop before the early flight from Denver Airport back home. I was upgraded to a suite which was nice. Tried out the hot tub which was a good temperature. Complementary breakfast was good.</t>
+  </si>
+  <si>
+    <t>February 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29144-d120075-r342189392-Fairfield_Inn_Suites_Denver_Aurora_Medical_Center-Aurora_Colorado.html</t>
+  </si>
+  <si>
+    <t>342189392</t>
+  </si>
+  <si>
+    <t>01/23/2016</t>
+  </si>
+  <si>
+    <t>clean hotel with nice staff</t>
+  </si>
+  <si>
+    <t>We stayed here at the last minute but found a good rate on their website.  The head cleaning lady was so nice.  When mgr had trouble getting us room we wanted she was right there and showed us the one she thought would suit us.  She was great - an asset to this hotel.  Room was quiet, clean, and bed was comfortable.  Bathroom was a little small but it worked!  Breakfast and free wifi were included.  Breakfast was adequate and well stocked.  Reasonable for this area.  ac and fridge were a little noisy so we unplugged it.</t>
+  </si>
+  <si>
+    <t>January 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29144-d120075-r333768381-Fairfield_Inn_Suites_Denver_Aurora_Medical_Center-Aurora_Colorado.html</t>
+  </si>
+  <si>
+    <t>333768381</t>
+  </si>
+  <si>
+    <t>12/18/2015</t>
+  </si>
+  <si>
+    <t>Nice hotel in good lacation</t>
+  </si>
+  <si>
+    <t>I stayed two nights at the Fairfield Inn and Suites Denver/Aurora.  The front desk staff were friendly and helpful.  The lobby is clean and new.  The room was bigger then I expected, nothing special but certainly clean and comfortable. Bed was comfortable and temperature controls worked properly.  Parking is all around the hotel and easy to park.  The morning breakfast was very nice with eggs and sausage as well as pastries, cereal, yogurt, etc.  Some rude guests were present cutting in the way and being pushy, no fault of hotel though.  Maybe the best aspect of this hotel is its location.  It is around 15 minutes from Denver International airport.  It is located in a mall called Southlands with tons of food and shopping very close by.  At least a dozen restaurants/fast food are in the mall area.  I would definitely stay here again. MoreShow less</t>
+  </si>
+  <si>
+    <t>November 2015</t>
+  </si>
+  <si>
+    <t>I stayed two nights at the Fairfield Inn and Suites Denver/Aurora.  The front desk staff were friendly and helpful.  The lobby is clean and new.  The room was bigger then I expected, nothing special but certainly clean and comfortable. Bed was comfortable and temperature controls worked properly.  Parking is all around the hotel and easy to park.  The morning breakfast was very nice with eggs and sausage as well as pastries, cereal, yogurt, etc.  Some rude guests were present cutting in the way and being pushy, no fault of hotel though.  Maybe the best aspect of this hotel is its location.  It is around 15 minutes from Denver International airport.  It is located in a mall called Southlands with tons of food and shopping very close by.  At least a dozen restaurants/fast food are in the mall area.  I would definitely stay here again. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29144-d120075-r327706256-Fairfield_Inn_Suites_Denver_Aurora_Medical_Center-Aurora_Colorado.html</t>
+  </si>
+  <si>
+    <t>327706256</t>
+  </si>
+  <si>
+    <t>11/18/2015</t>
+  </si>
+  <si>
+    <t>Nice Hotel!</t>
+  </si>
+  <si>
+    <t>I was on vacation in Aurora for about a week in December into January just a small nice getaway from Arkansas. I loved the location of the hotel and how it looked very nice and up to date. We had arrived super late since we had been driving and got their in the wee mornings and check in was an easy process. The only concern I had was on the last day of our stay I had grabbed a luggage cart to bring all my belongings down to pack the car it had just begun to start snowing so I postponed bringing the luggage down since we had about 6 suitcases and 4 shoulder bags because we had 6 people for three rooms and dragging a luggage cart through snow by myself would've taken a longer process. As I was coming down the next morning I was approached by what might have been the maintenance man who was very rude and told me that I had inconvenienced some guest that morning since I had kept the luggage cart I apologized immediately and he kept going on with it saying that he had to carrying luggage for guest because I had taken one. When we had came in that night there was 3 if I can remember correctly by the door and I had already said sorry and he just kept saying that I better not do it again. I apologized...I was on vacation in Aurora for about a week in December into January just a small nice getaway from Arkansas. I loved the location of the hotel and how it looked very nice and up to date. We had arrived super late since we had been driving and got their in the wee mornings and check in was an easy process. The only concern I had was on the last day of our stay I had grabbed a luggage cart to bring all my belongings down to pack the car it had just begun to start snowing so I postponed bringing the luggage down since we had about 6 suitcases and 4 shoulder bags because we had 6 people for three rooms and dragging a luggage cart through snow by myself would've taken a longer process. As I was coming down the next morning I was approached by what might have been the maintenance man who was very rude and told me that I had inconvenienced some guest that morning since I had kept the luggage cart I apologized immediately and he kept going on with it saying that he had to carrying luggage for guest because I had taken one. When we had came in that night there was 3 if I can remember correctly by the door and I had already said sorry and he just kept saying that I better not do it again. I apologized for inconveniencing him repeatedly but it wasn't good enough. I explained that I as well am a paying guest and had multiple rooms but never explained that I was a Marriott Employee. Employee or not there is no reason he should've been that upset and rude with me for keeping one luggage cart.MoreShow less</t>
+  </si>
+  <si>
+    <t>January 2015</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with friends</t>
+  </si>
+  <si>
+    <t>I was on vacation in Aurora for about a week in December into January just a small nice getaway from Arkansas. I loved the location of the hotel and how it looked very nice and up to date. We had arrived super late since we had been driving and got their in the wee mornings and check in was an easy process. The only concern I had was on the last day of our stay I had grabbed a luggage cart to bring all my belongings down to pack the car it had just begun to start snowing so I postponed bringing the luggage down since we had about 6 suitcases and 4 shoulder bags because we had 6 people for three rooms and dragging a luggage cart through snow by myself would've taken a longer process. As I was coming down the next morning I was approached by what might have been the maintenance man who was very rude and told me that I had inconvenienced some guest that morning since I had kept the luggage cart I apologized immediately and he kept going on with it saying that he had to carrying luggage for guest because I had taken one. When we had came in that night there was 3 if I can remember correctly by the door and I had already said sorry and he just kept saying that I better not do it again. I apologized...I was on vacation in Aurora for about a week in December into January just a small nice getaway from Arkansas. I loved the location of the hotel and how it looked very nice and up to date. We had arrived super late since we had been driving and got their in the wee mornings and check in was an easy process. The only concern I had was on the last day of our stay I had grabbed a luggage cart to bring all my belongings down to pack the car it had just begun to start snowing so I postponed bringing the luggage down since we had about 6 suitcases and 4 shoulder bags because we had 6 people for three rooms and dragging a luggage cart through snow by myself would've taken a longer process. As I was coming down the next morning I was approached by what might have been the maintenance man who was very rude and told me that I had inconvenienced some guest that morning since I had kept the luggage cart I apologized immediately and he kept going on with it saying that he had to carrying luggage for guest because I had taken one. When we had came in that night there was 3 if I can remember correctly by the door and I had already said sorry and he just kept saying that I better not do it again. I apologized for inconveniencing him repeatedly but it wasn't good enough. I explained that I as well am a paying guest and had multiple rooms but never explained that I was a Marriott Employee. Employee or not there is no reason he should've been that upset and rude with me for keeping one luggage cart.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29144-d120075-r326284043-Fairfield_Inn_Suites_Denver_Aurora_Medical_Center-Aurora_Colorado.html</t>
+  </si>
+  <si>
+    <t>326284043</t>
+  </si>
+  <si>
+    <t>11/12/2015</t>
+  </si>
+  <si>
+    <t>OK place when passing through</t>
+  </si>
+  <si>
+    <t>After a late flight, got in around 1am for check-in.  The staff was a little awkward when attempting to change my room from a King to two queens, but I finally got it.  They were very nice in providing toothbrush, toothpaste, shavers, etc. the next day.  Other than that, not too inspiring.  The drive from the airport was long, but this is not a Marriott problem, appears to be more related to the Denver airport.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29144-d120075-r312413152-Fairfield_Inn_Suites_Denver_Aurora_Medical_Center-Aurora_Colorado.html</t>
+  </si>
+  <si>
+    <t>312413152</t>
+  </si>
+  <si>
+    <t>09/21/2015</t>
+  </si>
+  <si>
+    <t>Ok, not as good as last time.</t>
+  </si>
+  <si>
+    <t>We stayed here again as our last stay was good, this one was just OK.The air conditioner was loud and didn't always cool the room, we woke up too hot many times in the night.  After we would adjust it, it would work for a while.The toilet didn't always flush and there were a few spots of black 'whatever' in the corners of the bathroom floor.The elevator was jumpy while stopping at a floor, kind of un-nerving not knowing what it was going to do.The last time we stayed here, the breakfast was very good, this time it was just average.The TV channel selection was good, DirecTV channel guide makes it easy to find something to watch.  The staff was nice and helpful.It would have been nice if someone had told us that the street was under construction, it took us a while to find a way in to the hotel.MoreShow less</t>
+  </si>
+  <si>
+    <t>September 2015</t>
+  </si>
+  <si>
+    <t>We stayed here again as our last stay was good, this one was just OK.The air conditioner was loud and didn't always cool the room, we woke up too hot many times in the night.  After we would adjust it, it would work for a while.The toilet didn't always flush and there were a few spots of black 'whatever' in the corners of the bathroom floor.The elevator was jumpy while stopping at a floor, kind of un-nerving not knowing what it was going to do.The last time we stayed here, the breakfast was very good, this time it was just average.The TV channel selection was good, DirecTV channel guide makes it easy to find something to watch.  The staff was nice and helpful.It would have been nice if someone had told us that the street was under construction, it took us a while to find a way in to the hotel.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29144-d120075-r310269512-Fairfield_Inn_Suites_Denver_Aurora_Medical_Center-Aurora_Colorado.html</t>
+  </si>
+  <si>
+    <t>310269512</t>
+  </si>
+  <si>
+    <t>09/14/2015</t>
+  </si>
+  <si>
+    <t>Very clean, very efficient and friendly staff.</t>
+  </si>
+  <si>
+    <t>A very nice budget hotel in Aurora, Colorado.  The front desk staff was very friendly and very efficient.  Everything was good as expected from a Marriott property.  Room was a decent size and very clean.  Free parking is always welcome as well.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29144-d120075-r298896023-Fairfield_Inn_Suites_Denver_Aurora_Medical_Center-Aurora_Colorado.html</t>
+  </si>
+  <si>
+    <t>298896023</t>
+  </si>
+  <si>
+    <t>08/13/2015</t>
+  </si>
+  <si>
+    <t>Get out of your chair and welcome your guest</t>
+  </si>
+  <si>
+    <t>This hotel was good and clean but I must say i've never been greeted walking into a hotel from someone sitting in a chair, Different person same chair when I checked out. I stay over a 150 nights a year in hotels. If I would have been there more than a night I would've talk to the GM.If he/she needs to remove the chair!!!!!!!!! It's makes your staff seem lazy and unwelcoming. ( both staff members where nice and helpful ) poor 1st impression</t>
+  </si>
+  <si>
+    <t>August 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29144-d120075-r296572261-Fairfield_Inn_Suites_Denver_Aurora_Medical_Center-Aurora_Colorado.html</t>
+  </si>
+  <si>
+    <t>296572261</t>
+  </si>
+  <si>
+    <t>08/07/2015</t>
+  </si>
+  <si>
+    <t>Disappointingly Dirty</t>
+  </si>
+  <si>
+    <t>First, the reservation &amp; confirmation was for a single king bed room. Only provided a 2 bed room. Second, the front desk staff was unfriendly, almost surly. Third, the room was not spotlessly clean with dirt in the corners of the tiled bathroom. Fourth, the chairs in the continental breakfast room were worn out partially due to buying pretty rather than functional. Lastly, as usual a single elevator is one of the dumbest ideas ever for properties of this size. Location was great as in about 6 blocks from an Aunt we were visiting.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29144-d120075-r289603052-Fairfield_Inn_Suites_Denver_Aurora_Medical_Center-Aurora_Colorado.html</t>
+  </si>
+  <si>
+    <t>289603052</t>
+  </si>
+  <si>
+    <t>07/16/2015</t>
+  </si>
+  <si>
+    <t>Worst ever Marriott Property</t>
+  </si>
+  <si>
+    <t>Stayed here on a recent visit close direct route to Airport and plenty of food outlets close by, well we arrived a little early and had made our reservation over 3 weeks prior and used our rewards points for a free nights stay! My wife had requested an end room top floor, well we got in about 1 pm and were told they had no clean rooms yet and to come back at 3pm so we went to eat and grab a few things and come back a little after 3pm. We were told that there were no 3rd floor rooms left and we were given a room on 2nd floor in the middle which we were fine with, got on elevator and was disgusted with how filthy dirty the carpet and walls inside were, we got to our room and it was clean ! We decided to go swimming and relax a little the hot tub had way to much chlorine and the pool had wads of hair floating in it, let the front desk know! The room above ours sounded  like elephants it was beyond noisy and lasted most of the afternoon! The other thing that was disgusting were the employees smoking right outside front door and the amount of trash in parking lot and some guy dressed in baggy jeans and a black like sports jersey talking on a cell phone walking in and out of front...Stayed here on a recent visit close direct route to Airport and plenty of food outlets close by, well we arrived a little early and had made our reservation over 3 weeks prior and used our rewards points for a free nights stay! My wife had requested an end room top floor, well we got in about 1 pm and were told they had no clean rooms yet and to come back at 3pm so we went to eat and grab a few things and come back a little after 3pm. We were told that there were no 3rd floor rooms left and we were given a room on 2nd floor in the middle which we were fine with, got on elevator and was disgusted with how filthy dirty the carpet and walls inside were, we got to our room and it was clean ! We decided to go swimming and relax a little the hot tub had way to much chlorine and the pool had wads of hair floating in it, let the front desk know! The room above ours sounded  like elephants it was beyond noisy and lasted most of the afternoon! The other thing that was disgusting were the employees smoking right outside front door and the amount of trash in parking lot and some guy dressed in baggy jeans and a black like sports jersey talking on a cell phone walking in and out of front doors and going in and out of what looked to be the managers office, the next morning there was hardly anything left for their free hot breakfast! We rarely ever have issues with Marriott and this property is a far cry from the others we have stayed at! The room was fine and beds comfortable but not impressed with employees or cleanliness of the rest of the establishment!MoreShow less</t>
+  </si>
+  <si>
+    <t>Stayed here on a recent visit close direct route to Airport and plenty of food outlets close by, well we arrived a little early and had made our reservation over 3 weeks prior and used our rewards points for a free nights stay! My wife had requested an end room top floor, well we got in about 1 pm and were told they had no clean rooms yet and to come back at 3pm so we went to eat and grab a few things and come back a little after 3pm. We were told that there were no 3rd floor rooms left and we were given a room on 2nd floor in the middle which we were fine with, got on elevator and was disgusted with how filthy dirty the carpet and walls inside were, we got to our room and it was clean ! We decided to go swimming and relax a little the hot tub had way to much chlorine and the pool had wads of hair floating in it, let the front desk know! The room above ours sounded  like elephants it was beyond noisy and lasted most of the afternoon! The other thing that was disgusting were the employees smoking right outside front door and the amount of trash in parking lot and some guy dressed in baggy jeans and a black like sports jersey talking on a cell phone walking in and out of front...Stayed here on a recent visit close direct route to Airport and plenty of food outlets close by, well we arrived a little early and had made our reservation over 3 weeks prior and used our rewards points for a free nights stay! My wife had requested an end room top floor, well we got in about 1 pm and were told they had no clean rooms yet and to come back at 3pm so we went to eat and grab a few things and come back a little after 3pm. We were told that there were no 3rd floor rooms left and we were given a room on 2nd floor in the middle which we were fine with, got on elevator and was disgusted with how filthy dirty the carpet and walls inside were, we got to our room and it was clean ! We decided to go swimming and relax a little the hot tub had way to much chlorine and the pool had wads of hair floating in it, let the front desk know! The room above ours sounded  like elephants it was beyond noisy and lasted most of the afternoon! The other thing that was disgusting were the employees smoking right outside front door and the amount of trash in parking lot and some guy dressed in baggy jeans and a black like sports jersey talking on a cell phone walking in and out of front doors and going in and out of what looked to be the managers office, the next morning there was hardly anything left for their free hot breakfast! We rarely ever have issues with Marriott and this property is a far cry from the others we have stayed at! The room was fine and beds comfortable but not impressed with employees or cleanliness of the rest of the establishment!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29144-d120075-r289576110-Fairfield_Inn_Suites_Denver_Aurora_Medical_Center-Aurora_Colorado.html</t>
+  </si>
+  <si>
+    <t>289576110</t>
+  </si>
+  <si>
+    <t>Not a nice place</t>
+  </si>
+  <si>
+    <t>The dead flowers in the planter up at the main entrance should have been our first clue!  Not just dead flowers, but dead flowers still in cell packs which never got planted, just thrown onto the planter.  What is it?  Two minutes to dig a hole.  The staff passed by this everyday...everyday and watched the flowers die.  Everything else was just about the same level of disgusting.  Some of the staff were very nice, very nice.  But, some were really indifferent and even face to face in a hall did not acknowledge us or say good morning as usual.  Anyway, not a great experience.</t>
+  </si>
+  <si>
+    <t>June 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29144-d120075-r281593914-Fairfield_Inn_Suites_Denver_Aurora_Medical_Center-Aurora_Colorado.html</t>
+  </si>
+  <si>
+    <t>281593914</t>
+  </si>
+  <si>
+    <t>06/20/2015</t>
+  </si>
+  <si>
+    <t>Overnight stay</t>
+  </si>
+  <si>
+    <t>Stayed the night enroute to vail. Not as good as most mariott properties. Room would not lock, had to move to another room, by morning those keys quit working. Staff smoking right outside the entrance.... Just not on par for a mariott properties</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29144-d120075-r281320474-Fairfield_Inn_Suites_Denver_Aurora_Medical_Center-Aurora_Colorado.html</t>
+  </si>
+  <si>
+    <t>281320474</t>
+  </si>
+  <si>
+    <t>06/19/2015</t>
+  </si>
+  <si>
+    <t>Good location sub par stay</t>
+  </si>
+  <si>
+    <t>I stay at many Fairfield Inns and this one needs some work. Room was clean however beds were too soft, sheets will fitting, and the pillows uncomfortable. Hot breakfast was not ready when dining room opened. Check in was fast and friendly and the entire staff is friendly and welcoming.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29144-d120075-r274191974-Fairfield_Inn_Suites_Denver_Aurora_Medical_Center-Aurora_Colorado.html</t>
+  </si>
+  <si>
+    <t>274191974</t>
+  </si>
+  <si>
+    <t>05/24/2015</t>
+  </si>
+  <si>
+    <t>Worst run Fairfield Inn I've ever slept in!</t>
+  </si>
+  <si>
+    <t>As a Marriott platinum member, I've stayed in a bunch of Fairfield Inns all over the country.  This is the worst run inn I've found yet.  I walked past the front dest 4 times and each time, a woman with a "housekeeping" badge was sitting in a chair behind the front desk.  Nothing to do?  The room was typical, except for a bit of mold on the tile grout in the bathroom.  The bed was solid, if a bit bouncy.  Breakfast was a disaster.  When I showed up at 8:30, the eggs were gone, the sausage gone.  Someone else had to ask for more food.  They had 2 people taking care of the small area.  In Laramie, the previous night, one woman took care of it all and nothing ran out or was in short supply.  organization skills here are lacking.  Very disappointing stay here.MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2015</t>
+  </si>
+  <si>
+    <t>As a Marriott platinum member, I've stayed in a bunch of Fairfield Inns all over the country.  This is the worst run inn I've found yet.  I walked past the front dest 4 times and each time, a woman with a "housekeeping" badge was sitting in a chair behind the front desk.  Nothing to do?  The room was typical, except for a bit of mold on the tile grout in the bathroom.  The bed was solid, if a bit bouncy.  Breakfast was a disaster.  When I showed up at 8:30, the eggs were gone, the sausage gone.  Someone else had to ask for more food.  They had 2 people taking care of the small area.  In Laramie, the previous night, one woman took care of it all and nothing ran out or was in short supply.  organization skills here are lacking.  Very disappointing stay here.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29144-d120075-r251720075-Fairfield_Inn_Suites_Denver_Aurora_Medical_Center-Aurora_Colorado.html</t>
+  </si>
+  <si>
+    <t>251720075</t>
+  </si>
+  <si>
+    <t>01/29/2015</t>
+  </si>
+  <si>
+    <t>Comfortable stay at a fair price</t>
+  </si>
+  <si>
+    <t>I like the Fairfield chain and use it regularly.  This one has spartan surroundings, but is convenient to where I need to go and provided good value for a business stay - I probably would not take my family here.  Joe's crab shack is about a mile away for the sea food lovers and is pretty good although pricey.  The internet was good, the room was clean and quiet, and breakfast was a pleasant surprise for the price I paid - greek yogurt, western omlettes, and a good tea selection for the non-coffee drinkers.  l'll be back.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29144-d120075-r250353284-Fairfield_Inn_Suites_Denver_Aurora_Medical_Center-Aurora_Colorado.html</t>
+  </si>
+  <si>
+    <t>250353284</t>
+  </si>
+  <si>
+    <t>01/21/2015</t>
+  </si>
+  <si>
+    <t>Great Front Desk Service. Comfortable Rooms</t>
+  </si>
+  <si>
+    <t>Stayed at this hotel for four nights during a business trip.  Our front desk representative, Christine, was very friendly and very willing to accommodate our stay.  She gave us a free upgrades to King room suites.  I had forgotten my toothpaste and she was more than willing to give me a free small tube. The rooms were clean and well stocked with a refrigerator, a microwave, a sitting room with a tv and comfortable couch and another room that contained a very comfortable king sized bed.  The continental breakfast had hot food such as eggs, breakfast meats and a make your own waffle.  Additionally, there was yogurt, pastries, coffee and juices.  It was enough to satisfy all of the travelers.  The gym equipment looked new and well maintained.  My only real complaint is the lack of reachable outlets.  In the bedroom I had to move the night stand to plug in my phone.  In the sitting room, the only reachable outlet was behind the lamp.  Way on the other side of the desk meant for working at. Additionally, the phone in the sitting room didn't work but the one in the bedroom did.  My business partner said the tv in his bedroom didn't sync with the cable, but the one in the sitting room did.  Minor annoyances but worth mentioning.MoreShow less</t>
+  </si>
+  <si>
+    <t>stacyrs, Manager at Fairfield Inn &amp; Suites Denver Aurora/Medical Center, responded to this reviewResponded January 22, 2015</t>
+  </si>
+  <si>
+    <t>Responded January 22, 2015</t>
+  </si>
+  <si>
+    <t>Stayed at this hotel for four nights during a business trip.  Our front desk representative, Christine, was very friendly and very willing to accommodate our stay.  She gave us a free upgrades to King room suites.  I had forgotten my toothpaste and she was more than willing to give me a free small tube. The rooms were clean and well stocked with a refrigerator, a microwave, a sitting room with a tv and comfortable couch and another room that contained a very comfortable king sized bed.  The continental breakfast had hot food such as eggs, breakfast meats and a make your own waffle.  Additionally, there was yogurt, pastries, coffee and juices.  It was enough to satisfy all of the travelers.  The gym equipment looked new and well maintained.  My only real complaint is the lack of reachable outlets.  In the bedroom I had to move the night stand to plug in my phone.  In the sitting room, the only reachable outlet was behind the lamp.  Way on the other side of the desk meant for working at. Additionally, the phone in the sitting room didn't work but the one in the bedroom did.  My business partner said the tv in his bedroom didn't sync with the cable, but the one in the sitting room did.  Minor annoyances but worth mentioning.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29144-d120075-r250102878-Fairfield_Inn_Suites_Denver_Aurora_Medical_Center-Aurora_Colorado.html</t>
+  </si>
+  <si>
+    <t>250102878</t>
+  </si>
+  <si>
+    <t>01/19/2015</t>
+  </si>
+  <si>
+    <t>Satisfactory stay</t>
+  </si>
+  <si>
+    <t>This is a budget hotel but for the price we paid it had everything we needed. Our two nights stay while on business in Aurora was completely satisfactory. The hotel staff and housekeepers were helpful, attentive and friendly. If you are the sort that demands you be pampered than you will probably want to stay elsewhere. But if all you need is a clean bed, clean shower, WiFi, and a very adequate continental breakfast than you won't be disappointed with the Fairfield Inn. We would stay here again when in Aurora.MoreShow less</t>
+  </si>
+  <si>
+    <t>stacyrs, General Manager at Fairfield Inn &amp; Suites Denver Aurora/Medical Center, responded to this reviewResponded January 22, 2015</t>
+  </si>
+  <si>
+    <t>This is a budget hotel but for the price we paid it had everything we needed. Our two nights stay while on business in Aurora was completely satisfactory. The hotel staff and housekeepers were helpful, attentive and friendly. If you are the sort that demands you be pampered than you will probably want to stay elsewhere. But if all you need is a clean bed, clean shower, WiFi, and a very adequate continental breakfast than you won't be disappointed with the Fairfield Inn. We would stay here again when in Aurora.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29144-d120075-r238026049-Fairfield_Inn_Suites_Denver_Aurora_Medical_Center-Aurora_Colorado.html</t>
+  </si>
+  <si>
+    <t>238026049</t>
+  </si>
+  <si>
+    <t>11/04/2014</t>
+  </si>
+  <si>
+    <t>Great hotel</t>
+  </si>
+  <si>
+    <t>Stayed here for 7 days in October, 2014. Breakfast in the morning was great..waffles, eggs, sausage, bacon, cereal, fruit etc..everything you could want! Room very clean and comfortable. Staff friendly. Only down side is that the pool is small but functional and no airport shuttle. Will choose this hotel when we next come to Aurora!</t>
+  </si>
+  <si>
+    <t>October 2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29144-d120075-r227181773-Fairfield_Inn_Suites_Denver_Aurora_Medical_Center-Aurora_Colorado.html</t>
+  </si>
+  <si>
+    <t>227181773</t>
+  </si>
+  <si>
+    <t>09/05/2014</t>
+  </si>
+  <si>
+    <t>This is a great place to stay!!</t>
+  </si>
+  <si>
+    <t>I've stayed twice at this Fairfield. Loved it both times. Staff is friendly, rooms are really nice, continental breakfast is second to none and it is located next to a shopping district that has just about anything you'd need! Like an outside mall! I hope to stay there again sometime!MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2013</t>
+  </si>
+  <si>
+    <t>stacyrs, General Manager at Fairfield Inn &amp; Suites Denver Aurora/Medical Center, responded to this reviewResponded September 8, 2014</t>
+  </si>
+  <si>
+    <t>Responded September 8, 2014</t>
+  </si>
+  <si>
+    <t>I've stayed twice at this Fairfield. Loved it both times. Staff is friendly, rooms are really nice, continental breakfast is second to none and it is located next to a shopping district that has just about anything you'd need! Like an outside mall! I hope to stay there again sometime!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29144-d120075-r223417930-Fairfield_Inn_Suites_Denver_Aurora_Medical_Center-Aurora_Colorado.html</t>
+  </si>
+  <si>
+    <t>223417930</t>
+  </si>
+  <si>
+    <t>08/21/2014</t>
+  </si>
+  <si>
+    <t>So Impressed!</t>
+  </si>
+  <si>
+    <t>There was a group of 4 who stayed at this hotel on business. The breakfast was really good. What impressed me the most is that while there I lost my wedding ring! EVERYONE went beyond the call of duty to find help me find my ring! Margarita in housekeeping was amazing in helping me and asking every time I saw her. The lady in the breakfast area (wish I could remember her name) also helped me search. Praise God I did find it after a day and a half! The staff made a lasting impression on me and the friends I was traveling with! BTW, the beds are comfy, the location is convenient and several places to eat are close to the hotel. THANK YOU, staff!MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2014</t>
+  </si>
+  <si>
+    <t>stacyrs, General Manager at Fairfield Inn &amp; Suites Denver Aurora/Medical Center, responded to this reviewResponded August 25, 2014</t>
+  </si>
+  <si>
+    <t>Responded August 25, 2014</t>
+  </si>
+  <si>
+    <t>There was a group of 4 who stayed at this hotel on business. The breakfast was really good. What impressed me the most is that while there I lost my wedding ring! EVERYONE went beyond the call of duty to find help me find my ring! Margarita in housekeeping was amazing in helping me and asking every time I saw her. The lady in the breakfast area (wish I could remember her name) also helped me search. Praise God I did find it after a day and a half! The staff made a lasting impression on me and the friends I was traveling with! BTW, the beds are comfy, the location is convenient and several places to eat are close to the hotel. THANK YOU, staff!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29144-d120075-r215972431-Fairfield_Inn_Suites_Denver_Aurora_Medical_Center-Aurora_Colorado.html</t>
+  </si>
+  <si>
+    <t>215972431</t>
+  </si>
+  <si>
+    <t>07/17/2014</t>
+  </si>
+  <si>
+    <t>Well maintained Marriott hotel</t>
+  </si>
+  <si>
+    <t xml:space="preserve">This hotel completely met my expectations and surpassed them in many ways.  First, it is a Marriott which is my preference.   Second, staff were excellent and helpful.  Third, hotel was very clean and we'll maintained.  Last, but not least an excellent breakfast that was serviced well.  Highly recommend. </t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29144-d120075-r215094238-Fairfield_Inn_Suites_Denver_Aurora_Medical_Center-Aurora_Colorado.html</t>
+  </si>
+  <si>
+    <t>215094238</t>
+  </si>
+  <si>
+    <t>07/12/2014</t>
+  </si>
+  <si>
+    <t>Restored My Faith in Fairfield Inn</t>
+  </si>
+  <si>
+    <t>I had more or less crossed Fairfield Inns off the list of hotels I'd consider, but my recent stay at this one will make me reconsider. It appeared to be fairly new. They offered fruit water and cookies at check in and had mints on the pillow. My room was quite warm when I first arrived but the AC handled things quickly. The location is VERY near the interstate and the view from my room looked directly out to it and all of the construction. But I will say the room was very quiet overnight. Free wi-fi is always nice and the breakfast had lots of options and friendly staff keeping everything stocked. The location may be convenient if you have business nearby but I would not consider it a good place for tourists - not much around in terms of activities, shopping or good dining.MoreShow less</t>
+  </si>
+  <si>
+    <t>stacyrs, General Manager at Fairfield Inn &amp; Suites Denver Aurora/Medical Center, responded to this reviewResponded July 14, 2014</t>
+  </si>
+  <si>
+    <t>Responded July 14, 2014</t>
+  </si>
+  <si>
+    <t>I had more or less crossed Fairfield Inns off the list of hotels I'd consider, but my recent stay at this one will make me reconsider. It appeared to be fairly new. They offered fruit water and cookies at check in and had mints on the pillow. My room was quite warm when I first arrived but the AC handled things quickly. The location is VERY near the interstate and the view from my room looked directly out to it and all of the construction. But I will say the room was very quiet overnight. Free wi-fi is always nice and the breakfast had lots of options and friendly staff keeping everything stocked. The location may be convenient if you have business nearby but I would not consider it a good place for tourists - not much around in terms of activities, shopping or good dining.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29144-d120075-r213781030-Fairfield_Inn_Suites_Denver_Aurora_Medical_Center-Aurora_Colorado.html</t>
+  </si>
+  <si>
+    <t>213781030</t>
+  </si>
+  <si>
+    <t>07/05/2014</t>
+  </si>
+  <si>
+    <t>Love this hotel...</t>
+  </si>
+  <si>
+    <t>Flew into Denver for our rocky mountain trip and stayed at this hotel for the first and last nights of our trip.  I love Marriott so I was happy to be able to book this hotel twice.  Hotel was spotless, modern, ultra clean and had an ideal location.  The staff was welcoming and very helpful.  Our rooms were very clean and up to date.  Good breakfast in the morning.  Pool was perfect after a hot road trip.MoreShow less</t>
+  </si>
+  <si>
+    <t>stacyrs, General Manager at Fairfield Inn &amp; Suites Denver Aurora/Medical Center, responded to this reviewResponded July 9, 2014</t>
+  </si>
+  <si>
+    <t>Responded July 9, 2014</t>
+  </si>
+  <si>
+    <t>Flew into Denver for our rocky mountain trip and stayed at this hotel for the first and last nights of our trip.  I love Marriott so I was happy to be able to book this hotel twice.  Hotel was spotless, modern, ultra clean and had an ideal location.  The staff was welcoming and very helpful.  Our rooms were very clean and up to date.  Good breakfast in the morning.  Pool was perfect after a hot road trip.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29144-d120075-r207039609-Fairfield_Inn_Suites_Denver_Aurora_Medical_Center-Aurora_Colorado.html</t>
+  </si>
+  <si>
+    <t>207039609</t>
+  </si>
+  <si>
+    <t>05/25/2014</t>
+  </si>
+  <si>
+    <t>Just minutes outside Downtown Denver</t>
+  </si>
+  <si>
+    <t>I was travelling with a business group, and this Fairfield Inn was easy to find, but the road construction around the hotel made it difficult to access (see) at night where to enter. We had a business meeting at the hotel, utilizing one of their conference rooms. The hotel staff was cooperative and helpful, but they could not get the air conditioning to work in the room. This made us have to open the window to road noise, and leave the Conference room door open to hotel noise for air flow.This was unfortunate to an otherwise, perfect stay.</t>
+  </si>
+  <si>
+    <t>May 2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29144-d120075-r206822349-Fairfield_Inn_Suites_Denver_Aurora_Medical_Center-Aurora_Colorado.html</t>
+  </si>
+  <si>
+    <t>206822349</t>
+  </si>
+  <si>
+    <t>05/24/2014</t>
+  </si>
+  <si>
+    <t>Great service</t>
+  </si>
+  <si>
+    <t>Here for graduation. Super friendly staff, goes out of their way to help- all of them and all times of day n night- and the place is very busy this weekend. Has indoor pool, hot tub, gym and free breakfast. Facility feels little old but it's kept very clean. Location is right off 225 w easy access to major interstate arteries but for now bit trapped in midst of construction. Stayed in many places around the world from tents in Himalayas to ecolodges in Patagonia to lush in Tahiti but I'm really appreciating the homey n modest w great service w hot cookies n free wifi, if not the feather pillows n down blankets:-). MoreShow less</t>
+  </si>
+  <si>
+    <t>Here for graduation. Super friendly staff, goes out of their way to help- all of them and all times of day n night- and the place is very busy this weekend. Has indoor pool, hot tub, gym and free breakfast. Facility feels little old but it's kept very clean. Location is right off 225 w easy access to major interstate arteries but for now bit trapped in midst of construction. Stayed in many places around the world from tents in Himalayas to ecolodges in Patagonia to lush in Tahiti but I'm really appreciating the homey n modest w great service w hot cookies n free wifi, if not the feather pillows n down blankets:-). More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29144-d120075-r204887800-Fairfield_Inn_Suites_Denver_Aurora_Medical_Center-Aurora_Colorado.html</t>
+  </si>
+  <si>
+    <t>204887800</t>
+  </si>
+  <si>
+    <t>05/09/2014</t>
+  </si>
+  <si>
+    <t>Good room, loud air conditioning</t>
+  </si>
+  <si>
+    <t>A good first-floor room was marred by a loud air conditioner that cycled on and off all night.  Breakfast the next morning was very good, and the staff were uniformly helpful. Overall an adequate place to stay.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29144-d120075-r188820820-Fairfield_Inn_Suites_Denver_Aurora_Medical_Center-Aurora_Colorado.html</t>
+  </si>
+  <si>
+    <t>188820820</t>
+  </si>
+  <si>
+    <t>12/28/2013</t>
+  </si>
+  <si>
+    <t>Staff made this worthwhile</t>
+  </si>
+  <si>
+    <t>Spent a week at this Marriott lower-end property while visiting extended family in Denver. Good location for us. Sleeping room okay, but little things made it seem like an economy motel. For example, why not have shower curtains two or three inches longer so they more than just barely touch the tub wall? Why not train housekeeping staff to do things like straighten pictures and fan covers? Why not replace sinks when the fixtures have started to rust? None of these things are show stoppers, but they make the facility seem unnecessarily cheap. The breakfast was typical of these places - okay, but nothing special. We especially liked the rich coffee and the chocolate chip cookies in the evening. The attitude of the staff made a huge difference for us. Every staff person, from check-in to check-out was cordial and helpful. We especially appreciated Katherine at the front desk who was/is a standout! We'd stay here again.MoreShow less</t>
+  </si>
+  <si>
+    <t>December 2013</t>
+  </si>
+  <si>
+    <t>Spent a week at this Marriott lower-end property while visiting extended family in Denver. Good location for us. Sleeping room okay, but little things made it seem like an economy motel. For example, why not have shower curtains two or three inches longer so they more than just barely touch the tub wall? Why not train housekeeping staff to do things like straighten pictures and fan covers? Why not replace sinks when the fixtures have started to rust? None of these things are show stoppers, but they make the facility seem unnecessarily cheap. The breakfast was typical of these places - okay, but nothing special. We especially liked the rich coffee and the chocolate chip cookies in the evening. The attitude of the staff made a huge difference for us. Every staff person, from check-in to check-out was cordial and helpful. We especially appreciated Katherine at the front desk who was/is a standout! We'd stay here again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29144-d120075-r185733447-Fairfield_Inn_Suites_Denver_Aurora_Medical_Center-Aurora_Colorado.html</t>
+  </si>
+  <si>
+    <t>185733447</t>
+  </si>
+  <si>
+    <t>11/24/2013</t>
+  </si>
+  <si>
+    <t>Clean rooms and friendly staff</t>
+  </si>
+  <si>
+    <t>We drove from Oregon to Aurora for a convention and stayed at Fairfield Inn for three days. We arrived to a very busy check in area but the staff were very professional and nice. The young lady took time to offer us all fresh baked cookies and cold water instead of just assuming we would see it. The rooms were very comfortable, clean and had a fridge like we requested. The chocolate sticks on the pillow each day were a hit. The kids loved the pool and the adults enjoyed sitting on the patio watching the lightning in the distance. Overall this was a great place to stay.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29144-d120075-r181425312-Fairfield_Inn_Suites_Denver_Aurora_Medical_Center-Aurora_Colorado.html</t>
+  </si>
+  <si>
+    <t>181425312</t>
+  </si>
+  <si>
+    <t>10/17/2013</t>
+  </si>
+  <si>
+    <t>Great Value for the Area</t>
+  </si>
+  <si>
+    <t>The staff here was very friendly and helpful.  Momma (apparently everyone calls her that!) did a great job with the breakfast area and even washed out my coffee mug - how nice!  The chocolate mints on the beds were also a nice touch.  Nice place to stay with one of the best rates I found in the Denver area.  I'd come back here!</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29144-d120075-r175959643-Fairfield_Inn_Suites_Denver_Aurora_Medical_Center-Aurora_Colorado.html</t>
+  </si>
+  <si>
+    <t>175959643</t>
+  </si>
+  <si>
+    <t>09/05/2013</t>
+  </si>
+  <si>
+    <t>The Basics by the Highway</t>
+  </si>
+  <si>
+    <t>Fairfield Inns are pretty standard. What stands out here is the friendly, helpful staff. We stayed a week and saw a variety of staff in the various areas of the hotel - all we're very friendly and tried to help. The one exception was when asking for running routes, I was told they would get me that info, but never did. I225 is having major construction - and it's so close,it's actually taking up some of the parking lot. So don't try to do anything that requires quiet during the day - you won't have any of that. At night, it's OK if you don't have loud neighbors (not great sound insulation).MoreShow less</t>
+  </si>
+  <si>
+    <t>September 2013</t>
+  </si>
+  <si>
+    <t>Fairfield Inns are pretty standard. What stands out here is the friendly, helpful staff. We stayed a week and saw a variety of staff in the various areas of the hotel - all we're very friendly and tried to help. The one exception was when asking for running routes, I was told they would get me that info, but never did. I225 is having major construction - and it's so close,it's actually taking up some of the parking lot. So don't try to do anything that requires quiet during the day - you won't have any of that. At night, it's OK if you don't have loud neighbors (not great sound insulation).More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29144-d120075-r175553086-Fairfield_Inn_Suites_Denver_Aurora_Medical_Center-Aurora_Colorado.html</t>
+  </si>
+  <si>
+    <t>175553086</t>
+  </si>
+  <si>
+    <t>09/03/2013</t>
+  </si>
+  <si>
+    <t>Comforts of Home!</t>
+  </si>
+  <si>
+    <t>We have stayed at this location several times.  We like where it is located and the ease of getting to restaurants in the evenings.  But our rooms are always so clean and the beds are awesome.  The rooms are also very spacious and we like having a refrigerator.  It is just as comfortable as being at home.  We do not feel like we are in a motel.MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2013</t>
+  </si>
+  <si>
+    <t>stacyrs, General Manager at Fairfield Inn &amp; Suites Denver Aurora/Medical Center, responded to this reviewResponded September 5, 2013</t>
+  </si>
+  <si>
+    <t>Responded September 5, 2013</t>
+  </si>
+  <si>
+    <t>We have stayed at this location several times.  We like where it is located and the ease of getting to restaurants in the evenings.  But our rooms are always so clean and the beds are awesome.  The rooms are also very spacious and we like having a refrigerator.  It is just as comfortable as being at home.  We do not feel like we are in a motel.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29144-d120075-r175109346-Fairfield_Inn_Suites_Denver_Aurora_Medical_Center-Aurora_Colorado.html</t>
+  </si>
+  <si>
+    <t>175109346</t>
+  </si>
+  <si>
+    <t>09/01/2013</t>
+  </si>
+  <si>
+    <t>Quiet Stay</t>
+  </si>
+  <si>
+    <t>Just finishing a 3 day stay. This stay  quiet for me. Hardly saw anyone around except at breakfast. Im thinking this hotel wasn't originally a Fairfield Inn because parts of the hotel seems old such as the lobby,  Breakfast seemed like the normally Fairfield Inn selections. I can't really say to much as  I only had cereal and coffee.  I have to say, the attendants that work the breakfast really hard and keep the areas clean. True as other posters have said,the outside area is torn up but seems like the big equipment wasn't working when I was there. Downtown Denver is an easy drive and the hotel is close to shopping.MoreShow less</t>
+  </si>
+  <si>
+    <t>Just finishing a 3 day stay. This stay  quiet for me. Hardly saw anyone around except at breakfast. Im thinking this hotel wasn't originally a Fairfield Inn because parts of the hotel seems old such as the lobby,  Breakfast seemed like the normally Fairfield Inn selections. I can't really say to much as  I only had cereal and coffee.  I have to say, the attendants that work the breakfast really hard and keep the areas clean. True as other posters have said,the outside area is torn up but seems like the big equipment wasn't working when I was there. Downtown Denver is an easy drive and the hotel is close to shopping.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29144-d120075-r166279709-Fairfield_Inn_Suites_Denver_Aurora_Medical_Center-Aurora_Colorado.html</t>
+  </si>
+  <si>
+    <t>166279709</t>
+  </si>
+  <si>
+    <t>07/04/2013</t>
+  </si>
+  <si>
+    <t>Several stays warrant high rating</t>
+  </si>
+  <si>
+    <t>Most recent stay was in June 2013.  Had multiple stays in 2012.  Facility and staff are great.  Rates are generally OK.  Location is convenient to airport, tech center, medical center, and interstates.  Rooms clean and well kept.  Fitness room has 2 (functional) treadmills, stair climber and multi-use weight machine.  Free breakfast choices and facility are great.</t>
+  </si>
+  <si>
+    <t>June 2013</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29144-d120075-r164854394-Fairfield_Inn_Suites_Denver_Aurora_Medical_Center-Aurora_Colorado.html</t>
+  </si>
+  <si>
+    <t>164854394</t>
+  </si>
+  <si>
+    <t>06/22/2013</t>
+  </si>
+  <si>
+    <t>Great hotel and Joseph is amazing!</t>
+  </si>
+  <si>
+    <t>We stayed here for the 2013 "God's Word Is Truth" Convention of Jehovah's Witnesses. I am so glad that I chose this hotel. The location was tricky to find, but the stay was well worth it. The rooms were clean and cozy, the breakfast offered many options and was delicious, and the dining area was nice. The one individual staff member that stood out from the rest is Joseph, who worked the front desk at night. He was so amazing with my kids. They were pleased with the kindness, courteousness and helpfulness he showed. He made an impression on two teenagers and that takes skill! :) Kudos to you, Joseph! I will definitely stay here again!MoreShow less</t>
+  </si>
+  <si>
+    <t>We stayed here for the 2013 "God's Word Is Truth" Convention of Jehovah's Witnesses. I am so glad that I chose this hotel. The location was tricky to find, but the stay was well worth it. The rooms were clean and cozy, the breakfast offered many options and was delicious, and the dining area was nice. The one individual staff member that stood out from the rest is Joseph, who worked the front desk at night. He was so amazing with my kids. They were pleased with the kindness, courteousness and helpfulness he showed. He made an impression on two teenagers and that takes skill! :) Kudos to you, Joseph! I will definitely stay here again!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29144-d120075-r164731608-Fairfield_Inn_Suites_Denver_Aurora_Medical_Center-Aurora_Colorado.html</t>
+  </si>
+  <si>
+    <t>164731608</t>
+  </si>
+  <si>
+    <t>06/21/2013</t>
+  </si>
+  <si>
+    <t>Poor Service</t>
+  </si>
+  <si>
+    <t>Called the front desk with questions; called three times before someone actually answered after letting it ring indefinitely...  Over charged my credit card $45.30.  Called to question - again, phone rang 19 times before answering and when put on hold for the lady to "check on it", was on hold for nearly 7 minutes.  No explanation for the over charge except to wait "3-5 business days to see if the excess 'drops off' like maybe it was a hold or something."  Comforting.  Room service made the beds and that was all; no bathroom amenities, no coffee and no new towels - but took what was dirty.Will not stay again.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29144-d120075-r160607669-Fairfield_Inn_Suites_Denver_Aurora_Medical_Center-Aurora_Colorado.html</t>
+  </si>
+  <si>
+    <t>160607669</t>
+  </si>
+  <si>
+    <t>05/13/2013</t>
+  </si>
+  <si>
+    <t>Loved staying at this place!</t>
+  </si>
+  <si>
+    <t>Stayed there for a week. Pros: great price, clean room, Elis and Georgia cleaned room every day! Almost all the staff was good except Robert at the desk he was rude and least helpful almost made us choose to leave the hotel. Kitchen staff was good and welcoming. Cons: breakfast was good, variety should be added. Overall excellent experience! Will stay there again.</t>
+  </si>
+  <si>
+    <t>May 2013</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29144-d120075-r157093610-Fairfield_Inn_Suites_Denver_Aurora_Medical_Center-Aurora_Colorado.html</t>
+  </si>
+  <si>
+    <t>157093610</t>
+  </si>
+  <si>
+    <t>04/08/2013</t>
+  </si>
+  <si>
+    <t>small rooms, nice people.</t>
+  </si>
+  <si>
+    <t>good location, restaurants all around.  GM nice, staff nice.Rooms are a bit small, even the "suites"But, bottom line, it is a great small low end Marriott. We are using it for an apt. at University of Denver hospital, about 7 miles away.</t>
+  </si>
+  <si>
+    <t>April 2013</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29144-d120075-r156869942-Fairfield_Inn_Suites_Denver_Aurora_Medical_Center-Aurora_Colorado.html</t>
+  </si>
+  <si>
+    <t>156869942</t>
+  </si>
+  <si>
+    <t>04/07/2013</t>
+  </si>
+  <si>
+    <t>Last minute check in</t>
+  </si>
+  <si>
+    <t>My husband and I had a last minute change of plans in our Colorado Springs itinerary. We found out that we had to be at Buckley the following day at the crack of dawn... and all base lodging was booked. Thank goodness for Priceline, the negotiator hooked us up at a discount rate and it was well worth it. We wanted a queen bed but they only had a double bed room available, it wasn't a big deal we both fit comfortably. We were on the third floor facing I-25 a couple rooms a way from the elevator, we only heard the occasional big rig but with the air on full blast it's hard to hear the outside. The only issue we had was that we had some loud boneheads staying to the right of us, where the headboard lay. They were having loud conversations at 2:30 a.m. that ended waking us up. I really wanted to call downstairs but we decided to sleep the opposite way (foot end) and passed out within minutes... the breakfast made up for it. I haven't had bacon made this well at any hotel!MoreShow less</t>
+  </si>
+  <si>
+    <t>My husband and I had a last minute change of plans in our Colorado Springs itinerary. We found out that we had to be at Buckley the following day at the crack of dawn... and all base lodging was booked. Thank goodness for Priceline, the negotiator hooked us up at a discount rate and it was well worth it. We wanted a queen bed but they only had a double bed room available, it wasn't a big deal we both fit comfortably. We were on the third floor facing I-25 a couple rooms a way from the elevator, we only heard the occasional big rig but with the air on full blast it's hard to hear the outside. The only issue we had was that we had some loud boneheads staying to the right of us, where the headboard lay. They were having loud conversations at 2:30 a.m. that ended waking us up. I really wanted to call downstairs but we decided to sleep the opposite way (foot end) and passed out within minutes... the breakfast made up for it. I haven't had bacon made this well at any hotel!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29144-d120075-r148437383-Fairfield_Inn_Suites_Denver_Aurora_Medical_Center-Aurora_Colorado.html</t>
+  </si>
+  <si>
+    <t>148437383</t>
+  </si>
+  <si>
+    <t>12/31/2012</t>
+  </si>
+  <si>
+    <t>Very Good Rating; Excellent Value!</t>
+  </si>
+  <si>
+    <t>Both our room and the common areas had nice décor and were clean. The staff was pleasant and helpful.We had a small king room which we booked on the Marriott.com web site.  Flat screen TV, mini fridge, mini micro, iron/ironing board all in room and as advertised. Wireless internet worked well. Bed was quite comfy. The facilities were very good for the price. (However, we stayed on Christmas Eve at senior rates so prices were about $20 below the usual "standard" rates.)Breakfast was better than at many hotels. There were more than the usual number of choices, as well as DIY waffles, and a steamer with scrambled eggs and well-cooked bacon (not soggy or underdone). The breakfast room size was ample &amp; it was clean; food was kept well-stocked.We would stay again and would recommend.BTW, the Aurora area has a significant Asian population with lots of good restaurants. We love the Korean restaurants in particular. And, the Asian grocery store, H Mart, on South Parker Rd. is absolutely the best! It is worth going there to shop or just to browse around and see it. Check out Yelp for H Mart reviews.MoreShow less</t>
+  </si>
+  <si>
+    <t>December 2012</t>
+  </si>
+  <si>
+    <t>Both our room and the common areas had nice décor and were clean. The staff was pleasant and helpful.We had a small king room which we booked on the Marriott.com web site.  Flat screen TV, mini fridge, mini micro, iron/ironing board all in room and as advertised. Wireless internet worked well. Bed was quite comfy. The facilities were very good for the price. (However, we stayed on Christmas Eve at senior rates so prices were about $20 below the usual "standard" rates.)Breakfast was better than at many hotels. There were more than the usual number of choices, as well as DIY waffles, and a steamer with scrambled eggs and well-cooked bacon (not soggy or underdone). The breakfast room size was ample &amp; it was clean; food was kept well-stocked.We would stay again and would recommend.BTW, the Aurora area has a significant Asian population with lots of good restaurants. We love the Korean restaurants in particular. And, the Asian grocery store, H Mart, on South Parker Rd. is absolutely the best! It is worth going there to shop or just to browse around and see it. Check out Yelp for H Mart reviews.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29144-d120075-r148356687-Fairfield_Inn_Suites_Denver_Aurora_Medical_Center-Aurora_Colorado.html</t>
+  </si>
+  <si>
+    <t>148356687</t>
+  </si>
+  <si>
+    <t>12/30/2012</t>
+  </si>
+  <si>
+    <t>Excellent family experience.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I recommend with a few minor qualifications. Service excellent, breakfast good and accommodations fine. Negatives appear to be related to inadequate staffing--snow/ice at rear entrance and trash bins overflowing. Also, pool surface is slippery and temperature cold. But I would not hesitate to stay again. </t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29144-d120075-r147407272-Fairfield_Inn_Suites_Denver_Aurora_Medical_Center-Aurora_Colorado.html</t>
+  </si>
+  <si>
+    <t>147407272</t>
+  </si>
+  <si>
+    <t>12/13/2012</t>
+  </si>
+  <si>
+    <t>I LOVE this hotel!</t>
+  </si>
+  <si>
+    <t>This hotel is great! The breakfast is awesome. Seriously they have the best muffins in the Denver metro area! The decor is great and the rooms very clean. The mattress are super comfortable as well. The front desk staff is amazing. The last time I stayed, I left my lime green pen at the desk and the night auditor brought it to my room. That's service! I will definitly stay at this hotel every time I am in the Denver area!</t>
+  </si>
+  <si>
+    <t>May 2012</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29144-d120075-r143605681-Fairfield_Inn_Suites_Denver_Aurora_Medical_Center-Aurora_Colorado.html</t>
+  </si>
+  <si>
+    <t>143605681</t>
+  </si>
+  <si>
+    <t>10/24/2012</t>
+  </si>
+  <si>
+    <t>Great Service, Good Room</t>
+  </si>
+  <si>
+    <t>The staff at this hotel were all exceptionally helpful. Our trip was due to a death in the family. We booked the hotel on short notice and even added an additional room after the initial booking. The front desk was helpful with the additional booking and made special notes in our record to indicate that we wouldn't arrive until 1am. The rooms were clean and comfortable with plenty of room to relax. My only complaint is that the walls seem to be thin. Every night I could hear the people next to us talking. I had ear plugs in so I know it wasn't just thin walls, the people were talking very loudly...or they had a megaphone pressed against the joining wall. Breakfast was fantastic! I love when hotels have more than just pastries. The options included fresh waffles, fruit, muffins, bagels, toast, pre-made french toast, Jimmy Dean sammies, yogurt, milk, OJ, apple juice, coffee, and tea. I can't review the pool or other amenities since we didn't use them. I recommend this hotel and thought what we got was worth the price.MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2012</t>
+  </si>
+  <si>
+    <t>Shawn M, General Manager at Fairfield Inn &amp; Suites Denver Aurora/Medical Center, responded to this reviewResponded November 5, 2012</t>
+  </si>
+  <si>
+    <t>Responded November 5, 2012</t>
+  </si>
+  <si>
+    <t>The staff at this hotel were all exceptionally helpful. Our trip was due to a death in the family. We booked the hotel on short notice and even added an additional room after the initial booking. The front desk was helpful with the additional booking and made special notes in our record to indicate that we wouldn't arrive until 1am. The rooms were clean and comfortable with plenty of room to relax. My only complaint is that the walls seem to be thin. Every night I could hear the people next to us talking. I had ear plugs in so I know it wasn't just thin walls, the people were talking very loudly...or they had a megaphone pressed against the joining wall. Breakfast was fantastic! I love when hotels have more than just pastries. The options included fresh waffles, fruit, muffins, bagels, toast, pre-made french toast, Jimmy Dean sammies, yogurt, milk, OJ, apple juice, coffee, and tea. I can't review the pool or other amenities since we didn't use them. I recommend this hotel and thought what we got was worth the price.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29144-d120075-r143574498-Fairfield_Inn_Suites_Denver_Aurora_Medical_Center-Aurora_Colorado.html</t>
+  </si>
+  <si>
+    <t>143574498</t>
+  </si>
+  <si>
+    <t>10/23/2012</t>
+  </si>
+  <si>
+    <t>Friendly service and nice stay</t>
+  </si>
+  <si>
+    <t>Our family has stayed at this hotel on several occasions and we always get great service.  The staff is friendly, great breakfast in the morning.  Affordable prices and clean rooms.  We actually went out of our way to stay here the last time we were in Colorado.  Thank you to the staff of the Fairfield Inn for your excellent service.MoreShow less</t>
+  </si>
+  <si>
+    <t>Our family has stayed at this hotel on several occasions and we always get great service.  The staff is friendly, great breakfast in the morning.  Affordable prices and clean rooms.  We actually went out of our way to stay here the last time we were in Colorado.  Thank you to the staff of the Fairfield Inn for your excellent service.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29144-d120075-r139703740-Fairfield_Inn_Suites_Denver_Aurora_Medical_Center-Aurora_Colorado.html</t>
+  </si>
+  <si>
+    <t>139703740</t>
+  </si>
+  <si>
+    <t>09/07/2012</t>
+  </si>
+  <si>
+    <t>Nice stay and exceptional service.</t>
+  </si>
+  <si>
+    <t>Struggling to find hotel late at night that would allow us to mail packages before getting to airport early a.m.  We didn't know it was almost next door to a post office!! Wow this helped us tremendously! When I happened to mention our post office dilemma we were having, the staff quickly told us about the location so close. Also they brought out the laundry scales so we could weigh our checked luggage do no surprises would be waiting for us at airport. We greatly appreciate the service!MoreShow less</t>
+  </si>
+  <si>
+    <t>Shawn M, General Manager at Fairfield Inn &amp; Suites Denver Aurora/Medical Center, responded to this reviewResponded October 9, 2012</t>
+  </si>
+  <si>
+    <t>Responded October 9, 2012</t>
+  </si>
+  <si>
+    <t>Struggling to find hotel late at night that would allow us to mail packages before getting to airport early a.m.  We didn't know it was almost next door to a post office!! Wow this helped us tremendously! When I happened to mention our post office dilemma we were having, the staff quickly told us about the location so close. Also they brought out the laundry scales so we could weigh our checked luggage do no surprises would be waiting for us at airport. We greatly appreciate the service!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29144-d120075-r137292101-Fairfield_Inn_Suites_Denver_Aurora_Medical_Center-Aurora_Colorado.html</t>
+  </si>
+  <si>
+    <t>137292101</t>
+  </si>
+  <si>
+    <t>08/15/2012</t>
+  </si>
+  <si>
+    <t>A/C was a little iffy</t>
+  </si>
+  <si>
+    <t>We had a softball tourney in Aurora and ended up needing a room one night. Booking was quick and easy considering I booked a room at 9pm, and the hotel is easy to find right off I-225 with a lot of resturants around that area. The front desk staff was very nice, and as close as the hotel is to I-225, you can't hear alot of traffic noise. When we got to our room though the neighboring room had thier TV up extremely loud, which is normally not a big deal because we just turn the a/c on with the fan and the white noise drowns everything out. I sleep very well with white noise, but not with white noise that turns on and off every 2-3 minutes. Our a/c unit could not decide whether to stay on or off (even thought I set fan mode to high) and ended up being more of a nuisance, than the soothing comfort white noise is normally.  So I ended up sleeping terribly, which normally does not happen to me in a Marriott.MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2012</t>
+  </si>
+  <si>
+    <t>We had a softball tourney in Aurora and ended up needing a room one night. Booking was quick and easy considering I booked a room at 9pm, and the hotel is easy to find right off I-225 with a lot of resturants around that area. The front desk staff was very nice, and as close as the hotel is to I-225, you can't hear alot of traffic noise. When we got to our room though the neighboring room had thier TV up extremely loud, which is normally not a big deal because we just turn the a/c on with the fan and the white noise drowns everything out. I sleep very well with white noise, but not with white noise that turns on and off every 2-3 minutes. Our a/c unit could not decide whether to stay on or off (even thought I set fan mode to high) and ended up being more of a nuisance, than the soothing comfort white noise is normally.  So I ended up sleeping terribly, which normally does not happen to me in a Marriott.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29144-d120075-r136691309-Fairfield_Inn_Suites_Denver_Aurora_Medical_Center-Aurora_Colorado.html</t>
+  </si>
+  <si>
+    <t>136691309</t>
+  </si>
+  <si>
+    <t>08/08/2012</t>
+  </si>
+  <si>
+    <t>Great place!</t>
+  </si>
+  <si>
+    <t>A great hotel with a great staff. Mike Watt at the front desk was very helpfull with directions and recomendations. Very clean and a nice breakfast. Close to highway, and downtown. 2 hours away from rocky mountain parkMoreShow less</t>
+  </si>
+  <si>
+    <t>Shawn M, General Manager at Fairfield Inn &amp; Suites Denver Aurora/Medical Center, responded to this reviewResponded August 13, 2012</t>
+  </si>
+  <si>
+    <t>Responded August 13, 2012</t>
+  </si>
+  <si>
+    <t>A great hotel with a great staff. Mike Watt at the front desk was very helpfull with directions and recomendations. Very clean and a nice breakfast. Close to highway, and downtown. 2 hours away from rocky mountain parkMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29144-d120075-r135293934-Fairfield_Inn_Suites_Denver_Aurora_Medical_Center-Aurora_Colorado.html</t>
+  </si>
+  <si>
+    <t>135293934</t>
+  </si>
+  <si>
+    <t>07/24/2012</t>
+  </si>
+  <si>
+    <t>Worst Hotel Ive Been To.</t>
+  </si>
+  <si>
+    <t>Hot tub almost never works. Its either cold water or the jets dont work.They overcharge your credit card for items not ever purchased or recieved then tell you to email the company to recieve your own money back.Employees are rude and inconsiderate at every shift of the day.The cleaning crew in the morning is very quiet and discreet, however if you need anything from then, hopefully you speak spanish because they dont speak a work of English.Trust me, it is very worth it to spend an extra 20-30 on another hotel than this one people!!!MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2012</t>
+  </si>
+  <si>
+    <t>Hot tub almost never works. Its either cold water or the jets dont work.They overcharge your credit card for items not ever purchased or recieved then tell you to email the company to recieve your own money back.Employees are rude and inconsiderate at every shift of the day.The cleaning crew in the morning is very quiet and discreet, however if you need anything from then, hopefully you speak spanish because they dont speak a work of English.Trust me, it is very worth it to spend an extra 20-30 on another hotel than this one people!!!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29144-d120075-r132616082-Fairfield_Inn_Suites_Denver_Aurora_Medical_Center-Aurora_Colorado.html</t>
+  </si>
+  <si>
+    <t>132616082</t>
+  </si>
+  <si>
+    <t>06/23/2012</t>
+  </si>
+  <si>
+    <t>Great for business. Convinent location.</t>
+  </si>
+  <si>
+    <t>Newly re-modeled hotel, and it's beautiful. Great location. Chris checked us in and despite being busy he was very friendly and helpful. My only complaint would be the air was fairly loud, although it was 100 degrees in Denver when I was there. I would highly recommend this hotel and would definitely stay again.MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2012</t>
+  </si>
+  <si>
+    <t>Management response:Responded June 25, 2012</t>
+  </si>
+  <si>
+    <t>Responded June 25, 2012</t>
+  </si>
+  <si>
+    <t>Newly re-modeled hotel, and it's beautiful. Great location. Chris checked us in and despite being busy he was very friendly and helpful. My only complaint would be the air was fairly loud, although it was 100 degrees in Denver when I was there. I would highly recommend this hotel and would definitely stay again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29144-d120075-r131703018-Fairfield_Inn_Suites_Denver_Aurora_Medical_Center-Aurora_Colorado.html</t>
+  </si>
+  <si>
+    <t>131703018</t>
+  </si>
+  <si>
+    <t>06/10/2012</t>
+  </si>
+  <si>
+    <t>Great overnight for families</t>
+  </si>
+  <si>
+    <t>Quiet area, clean hotel, friendly staff and GREAT breakfast... one of the best we have ever seen with fresh fruit, microwaveable breakfast foods, fresh waffles, etc...Only complaint we had was the dial up speed internet, it was almost useless.other than that super hotel in great area... kids loved the pool and hot tub!Very spacious fitness room with 2 treadmills and a work out area with ball and yoga mats.Very friendly staff at check-in!MoreShow less</t>
+  </si>
+  <si>
+    <t>Shawn M, General Manager at Fairfield Inn &amp; Suites Denver Aurora/Medical Center, responded to this reviewResponded June 12, 2012</t>
+  </si>
+  <si>
+    <t>Responded June 12, 2012</t>
+  </si>
+  <si>
+    <t>Quiet area, clean hotel, friendly staff and GREAT breakfast... one of the best we have ever seen with fresh fruit, microwaveable breakfast foods, fresh waffles, etc...Only complaint we had was the dial up speed internet, it was almost useless.other than that super hotel in great area... kids loved the pool and hot tub!Very spacious fitness room with 2 treadmills and a work out area with ball and yoga mats.Very friendly staff at check-in!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29144-d120075-r131602861-Fairfield_Inn_Suites_Denver_Aurora_Medical_Center-Aurora_Colorado.html</t>
+  </si>
+  <si>
+    <t>131602861</t>
+  </si>
+  <si>
+    <t>06/09/2012</t>
+  </si>
+  <si>
+    <t>My wife and I stayed here at the end of May while visiting family, and loved it. The hotel and grounds are clean, the staff are friendly, the rooms are nice and we both liked the complimentary breakfast (make your own waffles is not for everyone). It is not an expensive hotel, no mini-bar, no restaurant or bar, no room service. The pool is nice and clean, there is complimentary wireless Internet access, and the breakfast room has good coffee. We have stayed at the Doubletree in the past, we will be staying here from now on.MoreShow less</t>
+  </si>
+  <si>
+    <t>My wife and I stayed here at the end of May while visiting family, and loved it. The hotel and grounds are clean, the staff are friendly, the rooms are nice and we both liked the complimentary breakfast (make your own waffles is not for everyone). It is not an expensive hotel, no mini-bar, no restaurant or bar, no room service. The pool is nice and clean, there is complimentary wireless Internet access, and the breakfast room has good coffee. We have stayed at the Doubletree in the past, we will be staying here from now on.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29144-d120075-r122821996-Fairfield_Inn_Suites_Denver_Aurora_Medical_Center-Aurora_Colorado.html</t>
+  </si>
+  <si>
+    <t>122821996</t>
+  </si>
+  <si>
+    <t>01/09/2012</t>
+  </si>
+  <si>
+    <t>Nice stay!</t>
+  </si>
+  <si>
+    <t>We stayed here during the Christmas holiday. The hotel was clean and the staff was very nice. We had no issues. We also requested a roll away bed and he immediately brought one up to us. The breakfast was great with lots of variety to eat.  The children played in the pool, it was cold but they didn't care. We had a nice time here and would visit again.MoreShow less</t>
+  </si>
+  <si>
+    <t>December 2011</t>
+  </si>
+  <si>
+    <t>Kendall B, General Manager at Fairfield Inn &amp; Suites Denver Aurora/Medical Center, responded to this reviewResponded January 17, 2012</t>
+  </si>
+  <si>
+    <t>Responded January 17, 2012</t>
+  </si>
+  <si>
+    <t>We stayed here during the Christmas holiday. The hotel was clean and the staff was very nice. We had no issues. We also requested a roll away bed and he immediately brought one up to us. The breakfast was great with lots of variety to eat.  The children played in the pool, it was cold but they didn't care. We had a nice time here and would visit again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29144-d120075-r120355994-Fairfield_Inn_Suites_Denver_Aurora_Medical_Center-Aurora_Colorado.html</t>
+  </si>
+  <si>
+    <t>120355994</t>
+  </si>
+  <si>
+    <t>11/08/2011</t>
+  </si>
+  <si>
+    <t>Fine room, good price</t>
+  </si>
+  <si>
+    <t>I stayed here with my 5 year old daughter for three nights.  The staff was very friendly, even offering to open the pool after-hours if my daughter couldn't sleep (which fortunately wasn't necessary).  The breakfast selection was pretty good as well. The only negatives were that the pool was rather frigid (took my breath away when I got in) such that my daughter would barely put her feet in, and the supplied shampoo bottle disappeared after the first night. The front parking area is well lit.MoreShow less</t>
+  </si>
+  <si>
+    <t>November 2011</t>
+  </si>
+  <si>
+    <t>I stayed here with my 5 year old daughter for three nights.  The staff was very friendly, even offering to open the pool after-hours if my daughter couldn't sleep (which fortunately wasn't necessary).  The breakfast selection was pretty good as well. The only negatives were that the pool was rather frigid (took my breath away when I got in) such that my daughter would barely put her feet in, and the supplied shampoo bottle disappeared after the first night. The front parking area is well lit.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29144-d120075-r120126586-Fairfield_Inn_Suites_Denver_Aurora_Medical_Center-Aurora_Colorado.html</t>
+  </si>
+  <si>
+    <t>120126586</t>
+  </si>
+  <si>
+    <t>11/03/2011</t>
+  </si>
+  <si>
+    <t>Clean, simple comfort</t>
+  </si>
+  <si>
+    <t>We were looking for a B&amp;B near our son's small house, and we're happy we discovered Fairfield Inn.  It's a small, well-kept hotel.  Not fancy or glamorous, but efficient, clean, and very convenient to eastern and southern Denver, the airport (20 minutes away), and just off Route 225.  The beds are quite new, the linens are fresh, and the rooms are spacious.  The small inside swimming pool and the exercise room are well maintained.  Fairfield Inn is part of the Marriott chain, and while I associate Marriott with more glitzy places, Marriott should be proud to provide such a comfortable bargain.MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2011</t>
+  </si>
+  <si>
+    <t>We were looking for a B&amp;B near our son's small house, and we're happy we discovered Fairfield Inn.  It's a small, well-kept hotel.  Not fancy or glamorous, but efficient, clean, and very convenient to eastern and southern Denver, the airport (20 minutes away), and just off Route 225.  The beds are quite new, the linens are fresh, and the rooms are spacious.  The small inside swimming pool and the exercise room are well maintained.  Fairfield Inn is part of the Marriott chain, and while I associate Marriott with more glitzy places, Marriott should be proud to provide such a comfortable bargain.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29144-d120075-r118904339-Fairfield_Inn_Suites_Denver_Aurora_Medical_Center-Aurora_Colorado.html</t>
+  </si>
+  <si>
+    <t>118904339</t>
+  </si>
+  <si>
+    <t>10/03/2011</t>
+  </si>
+  <si>
+    <t>Great value !</t>
+  </si>
+  <si>
+    <t>We spent a night here with our friends before our trip back home. The location is just off the freeway and is surrounded by good eating places.  We wanted to be within 1/2 hour from the airport. Rooms were very clean with very nice decor furniture. The front desk staff were very friendly and helpful. Breakfast had a good spread that gave us a very good start for our journey home. Even though the room faced the freeway it was not too noisy at night.MoreShow less</t>
+  </si>
+  <si>
+    <t>September 2011</t>
+  </si>
+  <si>
+    <t>ffiaurora, General Manager at Fairfield Inn &amp; Suites Denver Aurora/Medical Center, responded to this reviewResponded October 19, 2011</t>
+  </si>
+  <si>
+    <t>Responded October 19, 2011</t>
+  </si>
+  <si>
+    <t>We spent a night here with our friends before our trip back home. The location is just off the freeway and is surrounded by good eating places.  We wanted to be within 1/2 hour from the airport. Rooms were very clean with very nice decor furniture. The front desk staff were very friendly and helpful. Breakfast had a good spread that gave us a very good start for our journey home. Even though the room faced the freeway it was not too noisy at night.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29144-d120075-r118832436-Fairfield_Inn_Suites_Denver_Aurora_Medical_Center-Aurora_Colorado.html</t>
+  </si>
+  <si>
+    <t>118832436</t>
+  </si>
+  <si>
+    <t>10/01/2011</t>
+  </si>
+  <si>
+    <t>Fairfield Inn &amp; Suites Aurora</t>
+  </si>
+  <si>
+    <t>No problems with the hotel room which was clean and there were no bedbugs - because I checked my room.  The only issue I noticed is that the front desk resources were understaffed on SUN night when we checked-in.  At one point there were about 5-6 people looking for assistance and at the front desk there was a waiting line.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29144-d120075-r118042388-Fairfield_Inn_Suites_Denver_Aurora_Medical_Center-Aurora_Colorado.html</t>
+  </si>
+  <si>
+    <t>118042388</t>
+  </si>
+  <si>
+    <t>09/12/2011</t>
+  </si>
+  <si>
+    <t>A comfortable hotel and friendly staff</t>
+  </si>
+  <si>
+    <t>We stayed here for two nights with our school softball team.  The front desk personnel was excellent-very efficient and personable!  The room was comfortable and clean.  The breakfast staff was very good.  The breakfast items were fresh and well stocked with busy mornings with many people.  Good location.  Would definitely stay again.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29144-d120075-r115294865-Fairfield_Inn_Suites_Denver_Aurora_Medical_Center-Aurora_Colorado.html</t>
+  </si>
+  <si>
+    <t>115294865</t>
+  </si>
+  <si>
+    <t>07/12/2011</t>
+  </si>
+  <si>
+    <t>Nice mini-suites</t>
+  </si>
+  <si>
+    <t>We had a king room with pull out sofa bed.  both were surprisingly comfortable!  Lots of food choices for breakfast, and a nice pool and hot tub (hot tub really HOT - I would have preferred in the 90s so I could stay in longer).The place is hard to find, with three turns off the freeway to get there.  Get good directions!</t>
+  </si>
+  <si>
+    <t>July 2011</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29144-d120075-r114969527-Fairfield_Inn_Suites_Denver_Aurora_Medical_Center-Aurora_Colorado.html</t>
+  </si>
+  <si>
+    <t>114969527</t>
+  </si>
+  <si>
+    <t>07/02/2011</t>
+  </si>
+  <si>
+    <t>Clean, friendly, good value</t>
+  </si>
+  <si>
+    <t>We stayed two night in a King room, with modern furnishings, and a comfortable bed.  The indoor pool was convenient but a little cool.  The hot tub was too hot for our liking, but to others it was good.  The breakfast was typical cereal, waffles, bagels, fruit, served in a good sized, clean room with attentive staff on hand.  We met 3 desk clerks, who were all very helpful and friendly.  Out of 5 hotels, this was the only one willing to honor their travel coupon.  A decent location on the east side of Denver.  One issue---the room walls are not very sound proof, as we could hear people talking and TV's for several hours after dark.  There is a large shopping mall nearby with many restaurants, and easy access to the interstate. This was a very good value for the $59 coupon.MoreShow less</t>
+  </si>
+  <si>
+    <t>We stayed two night in a King room, with modern furnishings, and a comfortable bed.  The indoor pool was convenient but a little cool.  The hot tub was too hot for our liking, but to others it was good.  The breakfast was typical cereal, waffles, bagels, fruit, served in a good sized, clean room with attentive staff on hand.  We met 3 desk clerks, who were all very helpful and friendly.  Out of 5 hotels, this was the only one willing to honor their travel coupon.  A decent location on the east side of Denver.  One issue---the room walls are not very sound proof, as we could hear people talking and TV's for several hours after dark.  There is a large shopping mall nearby with many restaurants, and easy access to the interstate. This was a very good value for the $59 coupon.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29144-d120075-r97046352-Fairfield_Inn_Suites_Denver_Aurora_Medical_Center-Aurora_Colorado.html</t>
+  </si>
+  <si>
+    <t>97046352</t>
+  </si>
+  <si>
+    <t>02/17/2011</t>
+  </si>
+  <si>
+    <t>travel for medical re: 2 small children...staff unbelieviably helpful..exceptional</t>
+  </si>
+  <si>
+    <t>Staff was exceptionallly helpful, rooms were more then adequate space wise, exceptional staffing from across board from maintence to general manager, all shifts...we had to keep two young children up all night they allowed us after hours use to pool to keep them occupied and early entrance to breakfast...which by the way was very good.  The only less then perfect rating would be the bed quality..it was good but not outstanding.  Thank you for making a difficult time ...so much better then it could have been.</t>
+  </si>
+  <si>
+    <t>February 2011</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29144-d120075-r68142664-Fairfield_Inn_Suites_Denver_Aurora_Medical_Center-Aurora_Colorado.html</t>
+  </si>
+  <si>
+    <t>68142664</t>
+  </si>
+  <si>
+    <t>06/20/2010</t>
+  </si>
+  <si>
+    <t>Great stay! (longish review )</t>
+  </si>
+  <si>
+    <t>We stayed at the Fairfield Inn in Aurora last month and we had a great stay. 
+Dawn, the front desk agent who checked us in, was very helpful, friendly and knowledgeable. 
+The hotel is newly renovated and it looks really nice and clean, however, beware that  (as of late May) they still had no floor tile at the front desk, just exposed concrete and that the hotel is RIGHT by the interstate. We had a room on the side facing away from the interstate and had no noise issues.
+The rooms are nice and the decor is very modern. Our room had a king size bed and it was equipped with a microwave and mini fridge, which made our stay that much better.
+The breakfast was good too. They have a continental breakfast with a lot of choices. Also,  the breakfast attendant (her name escapes me right now) was really nice and friendly and always smiling.
+They have and indoor pool and free wifi, which came in handy while planning activities around town to do with my wife and they do have a computer available at the lobby with internet access and a printer. They also have free parking and a fitness room (which we did not use).
+The only bad thing I experienced was the housekeeping manager being rude and condescending to the housekeeper cleaning our floor.  My wife and I speak spanish, so we understood what she was...We stayed at the Fairfield Inn in Aurora last month and we had a great stay. Dawn, the front desk agent who checked us in, was very helpful, friendly and knowledgeable. The hotel is newly renovated and it looks really nice and clean, however, beware that  (as of late May) they still had no floor tile at the front desk, just exposed concrete and that the hotel is RIGHT by the interstate. We had a room on the side facing away from the interstate and had no noise issues.The rooms are nice and the decor is very modern. Our room had a king size bed and it was equipped with a microwave and mini fridge, which made our stay that much better.The breakfast was good too. They have a continental breakfast with a lot of choices. Also,  the breakfast attendant (her name escapes me right now) was really nice and friendly and always smiling.They have and indoor pool and free wifi, which came in handy while planning activities around town to do with my wife and they do have a computer available at the lobby with internet access and a printer. They also have free parking and a fitness room (which we did not use).The only bad thing I experienced was the housekeeping manager being rude and condescending to the housekeeper cleaning our floor.  My wife and I speak spanish, so we understood what she was saying. Not sure what the argument was about but the fact that the houskeeping manager told the housekeeper  "I don't care if you tell on me, you know i'm friends with the manager so he won't fire me" really put me off. But despite of the rude treatment, our housekeeper did an excellent job in our room and readily helped us when we asked for extra towels and extra coffee.All in all we had a great couple of days. The staff was very helpful and friendly (except for that manager) and the hotel was just what we needed. I would definitely recommend it to anyone and I'll definitely stay there whenever I go back to colorado.MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2010</t>
+  </si>
+  <si>
+    <t>ffiaurora, Manager at Fairfield Inn &amp; Suites Denver Aurora/Medical Center, responded to this reviewResponded July 20, 2010</t>
+  </si>
+  <si>
+    <t>Responded July 20, 2010</t>
+  </si>
+  <si>
+    <t>We stayed at the Fairfield Inn in Aurora last month and we had a great stay. 
+Dawn, the front desk agent who checked us in, was very helpful, friendly and knowledgeable. 
+The hotel is newly renovated and it looks really nice and clean, however, beware that  (as of late May) they still had no floor tile at the front desk, just exposed concrete and that the hotel is RIGHT by the interstate. We had a room on the side facing away from the interstate and had no noise issues.
+The rooms are nice and the decor is very modern. Our room had a king size bed and it was equipped with a microwave and mini fridge, which made our stay that much better.
+The breakfast was good too. They have a continental breakfast with a lot of choices. Also,  the breakfast attendant (her name escapes me right now) was really nice and friendly and always smiling.
+They have and indoor pool and free wifi, which came in handy while planning activities around town to do with my wife and they do have a computer available at the lobby with internet access and a printer. They also have free parking and a fitness room (which we did not use).
+The only bad thing I experienced was the housekeeping manager being rude and condescending to the housekeeper cleaning our floor.  My wife and I speak spanish, so we understood what she was...We stayed at the Fairfield Inn in Aurora last month and we had a great stay. Dawn, the front desk agent who checked us in, was very helpful, friendly and knowledgeable. The hotel is newly renovated and it looks really nice and clean, however, beware that  (as of late May) they still had no floor tile at the front desk, just exposed concrete and that the hotel is RIGHT by the interstate. We had a room on the side facing away from the interstate and had no noise issues.The rooms are nice and the decor is very modern. Our room had a king size bed and it was equipped with a microwave and mini fridge, which made our stay that much better.The breakfast was good too. They have a continental breakfast with a lot of choices. Also,  the breakfast attendant (her name escapes me right now) was really nice and friendly and always smiling.They have and indoor pool and free wifi, which came in handy while planning activities around town to do with my wife and they do have a computer available at the lobby with internet access and a printer. They also have free parking and a fitness room (which we did not use).The only bad thing I experienced was the housekeeping manager being rude and condescending to the housekeeper cleaning our floor.  My wife and I speak spanish, so we understood what she was saying. Not sure what the argument was about but the fact that the houskeeping manager told the housekeeper  "I don't care if you tell on me, you know i'm friends with the manager so he won't fire me" really put me off. But despite of the rude treatment, our housekeeper did an excellent job in our room and readily helped us when we asked for extra towels and extra coffee.All in all we had a great couple of days. The staff was very helpful and friendly (except for that manager) and the hotel was just what we needed. I would definitely recommend it to anyone and I'll definitely stay there whenever I go back to colorado.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29144-d120075-r66040773-Fairfield_Inn_Suites_Denver_Aurora_Medical_Center-Aurora_Colorado.html</t>
+  </si>
+  <si>
+    <t>66040773</t>
+  </si>
+  <si>
+    <t>06/01/2010</t>
+  </si>
+  <si>
+    <t>gr8 htl, staff fabolos, and cont. brkfast is sweet</t>
+  </si>
+  <si>
+    <t>dawn the front desk csa was gr8.  she was nice, knowledgable, and efficient.the rm was nice.  hs internet is fast and dependable.  cont. brkfast was stupendous.  really enjoyed the french toast, waffles, &amp; guava juice.  the only thing i didn't like was no mini fridge.  i enjoyed my stay.  will bbak soonttyl,  tonyMoreShow less</t>
+  </si>
+  <si>
+    <t>dawn the front desk csa was gr8.  she was nice, knowledgable, and efficient.the rm was nice.  hs internet is fast and dependable.  cont. brkfast was stupendous.  really enjoyed the french toast, waffles, &amp; guava juice.  the only thing i didn't like was no mini fridge.  i enjoyed my stay.  will bbak soonttyl,  tonyMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29144-d120075-r36233976-Fairfield_Inn_Suites_Denver_Aurora_Medical_Center-Aurora_Colorado.html</t>
+  </si>
+  <si>
+    <t>36233976</t>
+  </si>
+  <si>
+    <t>07/30/2009</t>
+  </si>
+  <si>
+    <t>A Nice Stay</t>
+  </si>
+  <si>
+    <t>The Fairfield Inn in Aurora has a lot to recommend it.  Located just a short hop from I-225, with easy on and off access, its very well-lighted rooms are comfortable though on the small side and its continental breakfast filling if not particularly exciting.  Completely wireless, the inn makes it easy to stay in touch with "the outside world."  The inn is also within an easy drive to numerous restaurants as well as the large Aurora Mall. That having been said, however, there are any number of small but irritating problems.  As others have noted in earlier reviews, the air conditioning units in many of the rooms are noisy  and badly need upgrading. There is neither a refrigerator nor a microwave unit in the rooms, both of which would have been very useful.  Counterspace, especially in the small bathroom alcove is virtiually non-existant and though the king-sized bed my wife and I had in our room was reasonably comfortable, the sheets did not fit properly and constantly pulled loose throughout the night.But would we stay again? Absolutely.  The Fairfield, like of its fellow inns, offers a comfortable night's stay at a reasonable price. It could be better but no one with any reason to be in the Aurora area would go wrong choosing the Fairfield as his or her base of operations.MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2009</t>
+  </si>
+  <si>
+    <t>The Fairfield Inn in Aurora has a lot to recommend it.  Located just a short hop from I-225, with easy on and off access, its very well-lighted rooms are comfortable though on the small side and its continental breakfast filling if not particularly exciting.  Completely wireless, the inn makes it easy to stay in touch with "the outside world."  The inn is also within an easy drive to numerous restaurants as well as the large Aurora Mall. That having been said, however, there are any number of small but irritating problems.  As others have noted in earlier reviews, the air conditioning units in many of the rooms are noisy  and badly need upgrading. There is neither a refrigerator nor a microwave unit in the rooms, both of which would have been very useful.  Counterspace, especially in the small bathroom alcove is virtiually non-existant and though the king-sized bed my wife and I had in our room was reasonably comfortable, the sheets did not fit properly and constantly pulled loose throughout the night.But would we stay again? Absolutely.  The Fairfield, like of its fellow inns, offers a comfortable night's stay at a reasonable price. It could be better but no one with any reason to be in the Aurora area would go wrong choosing the Fairfield as his or her base of operations.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29144-d120075-r18824315-Fairfield_Inn_Suites_Denver_Aurora_Medical_Center-Aurora_Colorado.html</t>
+  </si>
+  <si>
+    <t>18824315</t>
+  </si>
+  <si>
+    <t>08/10/2008</t>
+  </si>
+  <si>
+    <t>Would happily stay here again</t>
+  </si>
+  <si>
+    <t>Just finishing up a two night stay at the Fairfield Inn in Aurora, CO.We enjoyed our stay and would happily return if we ever find ourselves in need of accommodation in this area.Nice big room (king sized bed, sofa, mini fridge and microwave).   Enjoyed all the extra space and the abundance of lamps. Very clean and well maintained.  Bed very comfortable, spotless linens, nice assortment of pillows.Our request for a quiet room not facing the highway was honored at check-in and we were even asked what our floor preference was when we booked online.  Gotta love that!Decent sized bathroom with curved shower rod, good water pressure, shower head with massage settings, and plenty of soft towels.The entire hotel is non smoking, which is always a big plus for us, and it's conveniently located about 15-20 minutes from DIA and about five miles from an off airport rental car depot (saved a ton on airport taxes). The hotel has a decent exercise room, an indoor pool, free internet access in the room as well as a computer in the lobby, a laundromat on the first floor and breakfast is included (coffee, juice, yogurt, fruit, sausage muffins, misc carbs, etc).Front desk staff very friendly and accommodating. Only complaint was that somone had lost the master key to the guest safe deposit boxes, so we were unable to use them during our stay.MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2008</t>
+  </si>
+  <si>
+    <t>Just finishing up a two night stay at the Fairfield Inn in Aurora, CO.We enjoyed our stay and would happily return if we ever find ourselves in need of accommodation in this area.Nice big room (king sized bed, sofa, mini fridge and microwave).   Enjoyed all the extra space and the abundance of lamps. Very clean and well maintained.  Bed very comfortable, spotless linens, nice assortment of pillows.Our request for a quiet room not facing the highway was honored at check-in and we were even asked what our floor preference was when we booked online.  Gotta love that!Decent sized bathroom with curved shower rod, good water pressure, shower head with massage settings, and plenty of soft towels.The entire hotel is non smoking, which is always a big plus for us, and it's conveniently located about 15-20 minutes from DIA and about five miles from an off airport rental car depot (saved a ton on airport taxes). The hotel has a decent exercise room, an indoor pool, free internet access in the room as well as a computer in the lobby, a laundromat on the first floor and breakfast is included (coffee, juice, yogurt, fruit, sausage muffins, misc carbs, etc).Front desk staff very friendly and accommodating. Only complaint was that somone had lost the master key to the guest safe deposit boxes, so we were unable to use them during our stay.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29144-d120075-r17635687-Fairfield_Inn_Suites_Denver_Aurora_Medical_Center-Aurora_Colorado.html</t>
+  </si>
+  <si>
+    <t>17635687</t>
+  </si>
+  <si>
+    <t>07/07/2008</t>
+  </si>
+  <si>
+    <t>Very good from a travel agent</t>
+  </si>
+  <si>
+    <t>I would definitely recommend this accomodation to everybody want to choose an above average property without paying too much. Rooms are very clean and big, wireless connection is perfect, good breakfast. Front desk people are kind and accomodating.</t>
+  </si>
+  <si>
+    <t>July 2007</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29144-d120075-r16840181-Fairfield_Inn_Suites_Denver_Aurora_Medical_Center-Aurora_Colorado.html</t>
+  </si>
+  <si>
+    <t>16840181</t>
+  </si>
+  <si>
+    <t>06/10/2008</t>
+  </si>
+  <si>
+    <t>Nice place to stay</t>
+  </si>
+  <si>
+    <t>This is a nice place to stay. The rooms were clean and comfy. Great breakfast. Friendly staff.</t>
+  </si>
+  <si>
+    <t>June 2008</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29144-d120075-r7667579-Fairfield_Inn_Suites_Denver_Aurora_Medical_Center-Aurora_Colorado.html</t>
+  </si>
+  <si>
+    <t>7667579</t>
+  </si>
+  <si>
+    <t>05/20/2007</t>
+  </si>
+  <si>
+    <t>Loved it</t>
+  </si>
+  <si>
+    <t>After reading the previous review, I was more than concerned.  However, I was extremely surprised!  Our room was clean and it looked like it had just been remodeled.  The beds were VERY comfortable, and the radio and t.v. worked great!  The room was quiet, and more than we had hoped.  The only problem was the room smelled slightly of old cigarette smoke although this is a non-smoking hotel.  The breakfast consisted of french toast, waffles, bagels, muffins, cereal, toast, hard boiled eggs, and egg mcmuffin-type sandwiches.We will definately stay here again!</t>
+  </si>
+  <si>
+    <t>May 2007</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29144-d120075-r7555046-Fairfield_Inn_Suites_Denver_Aurora_Medical_Center-Aurora_Colorado.html</t>
+  </si>
+  <si>
+    <t>7555046</t>
+  </si>
+  <si>
+    <t>05/06/2007</t>
+  </si>
+  <si>
+    <t>Convenient and affordable, but you get what you pay for</t>
+  </si>
+  <si>
+    <t>Have stayed at this Fairfield many times on business related travel and have always had a pleasant experience. The staff is very efficient and friendly and the provided continental breakfast is always ample.This is a fairly new hotel, however it does seem to be getting a little 'tired' and is in need of some freshening up. My room during this last visit had visible stains on the carpet as well as burn marks.Also, the 'health club' facilities are very limited (a universal, a treadmill and a stairmaster).For one night, the hotel is a good value and 'works', though for more than one night - you may 'more scenery'.Food options in the area are good: Rosie's Diner is 1/4 of a mile away; there is a Texas Roadhouse very close and lots of options within a 5 mile drive.MoreShow less</t>
+  </si>
+  <si>
+    <t>Have stayed at this Fairfield many times on business related travel and have always had a pleasant experience. The staff is very efficient and friendly and the provided continental breakfast is always ample.This is a fairly new hotel, however it does seem to be getting a little 'tired' and is in need of some freshening up. My room during this last visit had visible stains on the carpet as well as burn marks.Also, the 'health club' facilities are very limited (a universal, a treadmill and a stairmaster).For one night, the hotel is a good value and 'works', though for more than one night - you may 'more scenery'.Food options in the area are good: Rosie's Diner is 1/4 of a mile away; there is a Texas Roadhouse very close and lots of options within a 5 mile drive.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29144-d120075-r5446694-Fairfield_Inn_Suites_Denver_Aurora_Medical_Center-Aurora_Colorado.html</t>
+  </si>
+  <si>
+    <t>5446694</t>
+  </si>
+  <si>
+    <t>07/09/2006</t>
+  </si>
+  <si>
+    <t>Great Stay in Denver</t>
+  </si>
+  <si>
+    <t>We reserved two rooms for one night.  We arrived in town early and called at 9am to see if we could drop our bags off at the hotel until check-in time.  We were informed that one of the rooms was ready now and we could come and put the bags there.  When we arrived, the other room was now ready....what a great surprise!  The rooms were comfortable and the staff was great.  The breakfast was OK and the wireless internet connection was a bit "on and off."  I would definately stay here again and highly recommend it.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g29144-d120075-r2107305-Fairfield_Inn_Suites_Denver_Aurora_Medical_Center-Aurora_Colorado.html</t>
+  </si>
+  <si>
+    <t>2107305</t>
+  </si>
+  <si>
+    <t>05/21/2004</t>
+  </si>
+  <si>
+    <t>Great hotel!</t>
+  </si>
+  <si>
+    <t>This hotel was great.  Stayed there in July '03, and it was very clean.  The staff was friendly, and the rooms were nice.  The refrigerators were a plus!  Would recommend staying here.</t>
   </si>
 </sst>
 </file>
@@ -532,11 +2285,17 @@
       <c r="F2" t="s">
         <v>14</v>
       </c>
-      <c r="G2" t="s"/>
-      <c r="H2" t="s"/>
-      <c r="I2" t="s"/>
+      <c r="G2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I2" t="s">
+        <v>17</v>
+      </c>
       <c r="J2" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>
@@ -558,79 +2317,5542 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G1" t="s">
+        <v>25</v>
+      </c>
+      <c r="H1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I1" t="s">
+        <v>27</v>
+      </c>
+      <c r="J1" t="s">
+        <v>28</v>
+      </c>
+      <c r="K1" t="s">
+        <v>29</v>
+      </c>
+      <c r="L1" t="s">
+        <v>30</v>
+      </c>
+      <c r="M1" t="s">
+        <v>31</v>
+      </c>
+      <c r="N1" t="s">
+        <v>32</v>
+      </c>
+      <c r="O1" t="s">
+        <v>33</v>
+      </c>
+      <c r="P1" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>35</v>
+      </c>
+      <c r="R1" t="s">
+        <v>36</v>
+      </c>
+      <c r="S1" t="s">
+        <v>37</v>
+      </c>
+      <c r="T1" t="s">
+        <v>38</v>
+      </c>
+      <c r="U1" t="s">
+        <v>39</v>
+      </c>
+      <c r="V1" t="s">
+        <v>40</v>
+      </c>
+      <c r="W1" t="s">
+        <v>41</v>
+      </c>
+      <c r="X1" t="s">
+        <v>42</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>35297</v>
+      </c>
+      <c r="B2" t="s"/>
+      <c r="C2" t="s"/>
+      <c r="D2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G2" t="s">
+        <v>46</v>
+      </c>
+      <c r="H2" t="s">
+        <v>47</v>
+      </c>
+      <c r="I2" t="s">
+        <v>48</v>
+      </c>
+      <c r="J2" t="s">
+        <v>49</v>
+      </c>
+      <c r="K2" t="s">
+        <v>50</v>
+      </c>
+      <c r="L2" t="s">
+        <v>51</v>
+      </c>
+      <c r="M2" t="n">
+        <v>1</v>
+      </c>
+      <c r="N2" t="s">
+        <v>52</v>
+      </c>
+      <c r="O2" t="s">
+        <v>53</v>
+      </c>
+      <c r="P2" t="s"/>
+      <c r="Q2" t="s"/>
+      <c r="R2" t="s"/>
+      <c r="S2" t="s"/>
+      <c r="T2" t="s"/>
+      <c r="U2" t="s"/>
+      <c r="V2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W2" t="s">
+        <v>54</v>
+      </c>
+      <c r="X2" t="s">
+        <v>55</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>35297</v>
+      </c>
+      <c r="B3" t="s"/>
+      <c r="C3" t="s"/>
+      <c r="D3" t="n">
+        <v>2</v>
+      </c>
+      <c r="E3" t="s">
+        <v>44</v>
+      </c>
+      <c r="F3" t="s">
+        <v>57</v>
+      </c>
+      <c r="G3" t="s">
+        <v>46</v>
+      </c>
+      <c r="H3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I3" t="s">
+        <v>58</v>
+      </c>
+      <c r="J3" t="s">
+        <v>59</v>
+      </c>
+      <c r="K3" t="s">
+        <v>60</v>
+      </c>
+      <c r="L3" t="s">
+        <v>61</v>
+      </c>
+      <c r="M3" t="n">
+        <v>3</v>
+      </c>
+      <c r="N3" t="s"/>
+      <c r="O3" t="s"/>
+      <c r="P3" t="s"/>
+      <c r="Q3" t="s"/>
+      <c r="R3" t="s"/>
+      <c r="S3" t="s"/>
+      <c r="T3" t="s"/>
+      <c r="U3" t="s"/>
+      <c r="V3" t="n">
+        <v>0</v>
+      </c>
+      <c r="W3" t="s">
+        <v>62</v>
+      </c>
+      <c r="X3" t="s">
+        <v>63</v>
+      </c>
+      <c r="Y3" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>35297</v>
+      </c>
+      <c r="B4" t="s"/>
+      <c r="C4" t="s"/>
+      <c r="D4" t="n">
+        <v>3</v>
+      </c>
+      <c r="E4" t="s">
+        <v>44</v>
+      </c>
+      <c r="F4" t="s">
+        <v>65</v>
+      </c>
+      <c r="G4" t="s">
+        <v>46</v>
+      </c>
+      <c r="H4" t="s">
+        <v>47</v>
+      </c>
+      <c r="I4" t="s">
+        <v>66</v>
+      </c>
+      <c r="J4" t="s">
+        <v>67</v>
+      </c>
+      <c r="K4" t="s">
+        <v>68</v>
+      </c>
+      <c r="L4" t="s">
+        <v>69</v>
+      </c>
+      <c r="M4" t="n">
+        <v>5</v>
+      </c>
+      <c r="N4" t="s">
+        <v>70</v>
+      </c>
+      <c r="O4" t="s">
+        <v>53</v>
+      </c>
+      <c r="P4" t="s"/>
+      <c r="Q4" t="s"/>
+      <c r="R4" t="s"/>
+      <c r="S4" t="s"/>
+      <c r="T4" t="s"/>
+      <c r="U4" t="s"/>
+      <c r="V4" t="n">
+        <v>0</v>
+      </c>
+      <c r="W4" t="s"/>
+      <c r="X4" t="s"/>
+      <c r="Y4" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>35297</v>
+      </c>
+      <c r="B5" t="s"/>
+      <c r="C5" t="s"/>
+      <c r="D5" t="n">
+        <v>4</v>
+      </c>
+      <c r="E5" t="s">
+        <v>44</v>
+      </c>
+      <c r="F5" t="s">
+        <v>72</v>
+      </c>
+      <c r="G5" t="s">
+        <v>46</v>
+      </c>
+      <c r="H5" t="s">
+        <v>47</v>
+      </c>
+      <c r="I5" t="s">
+        <v>73</v>
+      </c>
+      <c r="J5" t="s">
+        <v>74</v>
+      </c>
+      <c r="K5" t="s">
+        <v>75</v>
+      </c>
+      <c r="L5" t="s">
+        <v>76</v>
+      </c>
+      <c r="M5" t="n">
+        <v>3</v>
+      </c>
+      <c r="N5" t="s">
+        <v>77</v>
+      </c>
+      <c r="O5" t="s">
+        <v>78</v>
+      </c>
+      <c r="P5" t="s"/>
+      <c r="Q5" t="n">
+        <v>3</v>
+      </c>
+      <c r="R5" t="n">
+        <v>5</v>
+      </c>
+      <c r="S5" t="s"/>
+      <c r="T5" t="s"/>
+      <c r="U5" t="n">
+        <v>4</v>
+      </c>
+      <c r="V5" t="n">
+        <v>0</v>
+      </c>
+      <c r="W5" t="s">
+        <v>79</v>
+      </c>
+      <c r="X5" t="s">
+        <v>80</v>
+      </c>
+      <c r="Y5" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>35297</v>
+      </c>
+      <c r="B6" t="s"/>
+      <c r="C6" t="s"/>
+      <c r="D6" t="n">
+        <v>5</v>
+      </c>
+      <c r="E6" t="s">
+        <v>44</v>
+      </c>
+      <c r="F6" t="s">
+        <v>82</v>
+      </c>
+      <c r="G6" t="s">
+        <v>46</v>
+      </c>
+      <c r="H6" t="s">
+        <v>47</v>
+      </c>
+      <c r="I6" t="s">
+        <v>83</v>
+      </c>
+      <c r="J6" t="s">
+        <v>84</v>
+      </c>
+      <c r="K6" t="s">
+        <v>85</v>
+      </c>
+      <c r="L6" t="s">
+        <v>86</v>
+      </c>
+      <c r="M6" t="n">
+        <v>5</v>
+      </c>
+      <c r="N6" t="s">
+        <v>87</v>
+      </c>
+      <c r="O6" t="s">
+        <v>78</v>
+      </c>
+      <c r="P6" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q6" t="s"/>
+      <c r="R6" t="s"/>
+      <c r="S6" t="s"/>
+      <c r="T6" t="s"/>
+      <c r="U6" t="n">
+        <v>4</v>
+      </c>
+      <c r="V6" t="n">
+        <v>0</v>
+      </c>
+      <c r="W6" t="s"/>
+      <c r="X6" t="s"/>
+      <c r="Y6" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>35297</v>
+      </c>
+      <c r="B7" t="s"/>
+      <c r="C7" t="s"/>
+      <c r="D7" t="n">
+        <v>6</v>
+      </c>
+      <c r="E7" t="s">
+        <v>44</v>
+      </c>
+      <c r="F7" t="s">
+        <v>88</v>
+      </c>
+      <c r="G7" t="s">
+        <v>46</v>
+      </c>
+      <c r="H7" t="s">
+        <v>47</v>
+      </c>
+      <c r="I7" t="s">
+        <v>89</v>
+      </c>
+      <c r="J7" t="s">
+        <v>90</v>
+      </c>
+      <c r="K7" t="s">
+        <v>91</v>
+      </c>
+      <c r="L7" t="s">
+        <v>92</v>
+      </c>
+      <c r="M7" t="n">
+        <v>3</v>
+      </c>
+      <c r="N7" t="s">
+        <v>93</v>
+      </c>
+      <c r="O7" t="s">
+        <v>78</v>
+      </c>
+      <c r="P7" t="s"/>
+      <c r="Q7" t="s"/>
+      <c r="R7" t="n">
+        <v>5</v>
+      </c>
+      <c r="S7" t="s"/>
+      <c r="T7" t="s"/>
+      <c r="U7" t="n">
+        <v>2</v>
+      </c>
+      <c r="V7" t="n">
+        <v>0</v>
+      </c>
+      <c r="W7" t="s">
+        <v>94</v>
+      </c>
+      <c r="X7" t="s">
+        <v>95</v>
+      </c>
+      <c r="Y7" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>35297</v>
+      </c>
+      <c r="B8" t="s"/>
+      <c r="C8" t="s"/>
+      <c r="D8" t="n">
+        <v>7</v>
+      </c>
+      <c r="E8" t="s">
+        <v>44</v>
+      </c>
+      <c r="F8" t="s">
+        <v>97</v>
+      </c>
+      <c r="G8" t="s">
+        <v>46</v>
+      </c>
+      <c r="H8" t="s">
+        <v>47</v>
+      </c>
+      <c r="I8" t="s">
+        <v>98</v>
+      </c>
+      <c r="J8" t="s">
+        <v>99</v>
+      </c>
+      <c r="K8" t="s">
+        <v>100</v>
+      </c>
+      <c r="L8" t="s">
+        <v>101</v>
+      </c>
+      <c r="M8" t="n">
+        <v>3</v>
+      </c>
+      <c r="N8" t="s">
+        <v>87</v>
+      </c>
+      <c r="O8" t="s">
+        <v>102</v>
+      </c>
+      <c r="P8" t="s"/>
+      <c r="Q8" t="s"/>
+      <c r="R8" t="s"/>
+      <c r="S8" t="s"/>
+      <c r="T8" t="s"/>
+      <c r="U8" t="s"/>
+      <c r="V8" t="n">
+        <v>0</v>
+      </c>
+      <c r="W8" t="s"/>
+      <c r="X8" t="s"/>
+      <c r="Y8" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>35297</v>
+      </c>
+      <c r="B9" t="s"/>
+      <c r="C9" t="s"/>
+      <c r="D9" t="n">
+        <v>8</v>
+      </c>
+      <c r="E9" t="s">
+        <v>44</v>
+      </c>
+      <c r="F9" t="s">
+        <v>104</v>
+      </c>
+      <c r="G9" t="s">
+        <v>46</v>
+      </c>
+      <c r="H9" t="s">
+        <v>47</v>
+      </c>
+      <c r="I9" t="s">
+        <v>105</v>
+      </c>
+      <c r="J9" t="s">
+        <v>106</v>
+      </c>
+      <c r="K9" t="s">
+        <v>107</v>
+      </c>
+      <c r="L9" t="s">
+        <v>108</v>
+      </c>
+      <c r="M9" t="n">
+        <v>4</v>
+      </c>
+      <c r="N9" t="s">
+        <v>93</v>
+      </c>
+      <c r="O9" t="s">
+        <v>53</v>
+      </c>
+      <c r="P9" t="s"/>
+      <c r="Q9" t="s"/>
+      <c r="R9" t="s"/>
+      <c r="S9" t="n">
+        <v>5</v>
+      </c>
+      <c r="T9" t="s"/>
+      <c r="U9" t="n">
+        <v>3</v>
+      </c>
+      <c r="V9" t="n">
+        <v>0</v>
+      </c>
+      <c r="W9" t="s"/>
+      <c r="X9" t="s"/>
+      <c r="Y9" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>35297</v>
+      </c>
+      <c r="B10" t="s"/>
+      <c r="C10" t="s"/>
+      <c r="D10" t="n">
+        <v>9</v>
+      </c>
+      <c r="E10" t="s">
+        <v>44</v>
+      </c>
+      <c r="F10" t="s">
+        <v>110</v>
+      </c>
+      <c r="G10" t="s">
+        <v>46</v>
+      </c>
+      <c r="H10" t="s">
+        <v>47</v>
+      </c>
+      <c r="I10" t="s">
+        <v>111</v>
+      </c>
+      <c r="J10" t="s">
+        <v>112</v>
+      </c>
+      <c r="K10" t="s">
+        <v>113</v>
+      </c>
+      <c r="L10" t="s">
+        <v>114</v>
+      </c>
+      <c r="M10" t="n">
+        <v>5</v>
+      </c>
+      <c r="N10" t="s">
+        <v>93</v>
+      </c>
+      <c r="O10" t="s">
+        <v>53</v>
+      </c>
+      <c r="P10" t="s"/>
+      <c r="Q10" t="n">
+        <v>5</v>
+      </c>
+      <c r="R10" t="s"/>
+      <c r="S10" t="s"/>
+      <c r="T10" t="s"/>
+      <c r="U10" t="n">
+        <v>5</v>
+      </c>
+      <c r="V10" t="n">
+        <v>0</v>
+      </c>
+      <c r="W10" t="s"/>
+      <c r="X10" t="s"/>
+      <c r="Y10" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>35297</v>
+      </c>
+      <c r="B11" t="s"/>
+      <c r="C11" t="s"/>
+      <c r="D11" t="n">
+        <v>10</v>
+      </c>
+      <c r="E11" t="s">
+        <v>44</v>
+      </c>
+      <c r="F11" t="s">
+        <v>116</v>
+      </c>
+      <c r="G11" t="s">
+        <v>46</v>
+      </c>
+      <c r="H11" t="s">
+        <v>47</v>
+      </c>
+      <c r="I11" t="s">
+        <v>117</v>
+      </c>
+      <c r="J11" t="s">
+        <v>118</v>
+      </c>
+      <c r="K11" t="s">
+        <v>119</v>
+      </c>
+      <c r="L11" t="s">
+        <v>120</v>
+      </c>
+      <c r="M11" t="n">
+        <v>2</v>
+      </c>
+      <c r="N11" t="s">
+        <v>121</v>
+      </c>
+      <c r="O11" t="s">
+        <v>53</v>
+      </c>
+      <c r="P11" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q11" t="s"/>
+      <c r="R11" t="s"/>
+      <c r="S11" t="s"/>
+      <c r="T11" t="s"/>
+      <c r="U11" t="n">
+        <v>2</v>
+      </c>
+      <c r="V11" t="n">
+        <v>0</v>
+      </c>
+      <c r="W11" t="s">
+        <v>122</v>
+      </c>
+      <c r="X11" t="s">
+        <v>123</v>
+      </c>
+      <c r="Y11" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>35297</v>
+      </c>
+      <c r="B12" t="s"/>
+      <c r="C12" t="s"/>
+      <c r="D12" t="n">
+        <v>11</v>
+      </c>
+      <c r="E12" t="s">
+        <v>44</v>
+      </c>
+      <c r="F12" t="s">
+        <v>125</v>
+      </c>
+      <c r="G12" t="s">
+        <v>46</v>
+      </c>
+      <c r="H12" t="s">
+        <v>47</v>
+      </c>
+      <c r="I12" t="s">
+        <v>126</v>
+      </c>
+      <c r="J12" t="s">
+        <v>127</v>
+      </c>
+      <c r="K12" t="s">
+        <v>128</v>
+      </c>
+      <c r="L12" t="s">
+        <v>129</v>
+      </c>
+      <c r="M12" t="n">
+        <v>3</v>
+      </c>
+      <c r="N12" t="s">
+        <v>121</v>
+      </c>
+      <c r="O12" t="s">
+        <v>102</v>
+      </c>
+      <c r="P12" t="s"/>
+      <c r="Q12" t="s"/>
+      <c r="R12" t="s"/>
+      <c r="S12" t="s"/>
+      <c r="T12" t="s"/>
+      <c r="U12" t="s"/>
+      <c r="V12" t="n">
+        <v>0</v>
+      </c>
+      <c r="W12" t="s">
+        <v>130</v>
+      </c>
+      <c r="X12" t="s">
+        <v>131</v>
+      </c>
+      <c r="Y12" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>35297</v>
+      </c>
+      <c r="B13" t="s"/>
+      <c r="C13" t="s"/>
+      <c r="D13" t="n">
+        <v>12</v>
+      </c>
+      <c r="E13" t="s">
+        <v>44</v>
+      </c>
+      <c r="F13" t="s">
+        <v>133</v>
+      </c>
+      <c r="G13" t="s">
+        <v>46</v>
+      </c>
+      <c r="H13" t="s">
+        <v>47</v>
+      </c>
+      <c r="I13" t="s">
+        <v>134</v>
+      </c>
+      <c r="J13" t="s">
+        <v>135</v>
+      </c>
+      <c r="K13" t="s">
+        <v>136</v>
+      </c>
+      <c r="L13" t="s">
+        <v>137</v>
+      </c>
+      <c r="M13" t="n">
+        <v>4</v>
+      </c>
+      <c r="N13" t="s">
+        <v>138</v>
+      </c>
+      <c r="O13" t="s">
+        <v>139</v>
+      </c>
+      <c r="P13" t="s"/>
+      <c r="Q13" t="s"/>
+      <c r="R13" t="n">
+        <v>4</v>
+      </c>
+      <c r="S13" t="s"/>
+      <c r="T13" t="s"/>
+      <c r="U13" t="n">
+        <v>5</v>
+      </c>
+      <c r="V13" t="n">
+        <v>0</v>
+      </c>
+      <c r="W13" t="s">
+        <v>130</v>
+      </c>
+      <c r="X13" t="s">
+        <v>131</v>
+      </c>
+      <c r="Y13" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>35297</v>
+      </c>
+      <c r="B14" t="s"/>
+      <c r="C14" t="s"/>
+      <c r="D14" t="n">
+        <v>13</v>
+      </c>
+      <c r="E14" t="s">
+        <v>44</v>
+      </c>
+      <c r="F14" t="s">
+        <v>141</v>
+      </c>
+      <c r="G14" t="s">
+        <v>46</v>
+      </c>
+      <c r="H14" t="s">
+        <v>47</v>
+      </c>
+      <c r="I14" t="s">
+        <v>142</v>
+      </c>
+      <c r="J14" t="s">
+        <v>143</v>
+      </c>
+      <c r="K14" t="s">
+        <v>144</v>
+      </c>
+      <c r="L14" t="s">
+        <v>145</v>
+      </c>
+      <c r="M14" t="n">
+        <v>1</v>
+      </c>
+      <c r="N14" t="s">
+        <v>146</v>
+      </c>
+      <c r="O14" t="s">
+        <v>102</v>
+      </c>
+      <c r="P14" t="s"/>
+      <c r="Q14" t="n">
+        <v>1</v>
+      </c>
+      <c r="R14" t="n">
+        <v>3</v>
+      </c>
+      <c r="S14" t="s"/>
+      <c r="T14" t="s"/>
+      <c r="U14" t="n">
+        <v>1</v>
+      </c>
+      <c r="V14" t="n">
+        <v>0</v>
+      </c>
+      <c r="W14" t="s">
+        <v>147</v>
+      </c>
+      <c r="X14" t="s">
+        <v>148</v>
+      </c>
+      <c r="Y14" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>35297</v>
+      </c>
+      <c r="B15" t="s"/>
+      <c r="C15" t="s"/>
+      <c r="D15" t="n">
+        <v>14</v>
+      </c>
+      <c r="E15" t="s">
+        <v>44</v>
+      </c>
+      <c r="F15" t="s">
+        <v>150</v>
+      </c>
+      <c r="G15" t="s">
+        <v>46</v>
+      </c>
+      <c r="H15" t="s">
+        <v>47</v>
+      </c>
+      <c r="I15" t="s">
+        <v>151</v>
+      </c>
+      <c r="J15" t="s">
+        <v>152</v>
+      </c>
+      <c r="K15" t="s">
+        <v>153</v>
+      </c>
+      <c r="L15" t="s">
+        <v>154</v>
+      </c>
+      <c r="M15" t="n">
+        <v>5</v>
+      </c>
+      <c r="N15" t="s"/>
+      <c r="O15" t="s"/>
+      <c r="P15" t="s"/>
+      <c r="Q15" t="s"/>
+      <c r="R15" t="s"/>
+      <c r="S15" t="s"/>
+      <c r="T15" t="s"/>
+      <c r="U15" t="s"/>
+      <c r="V15" t="n">
+        <v>0</v>
+      </c>
+      <c r="W15" t="s"/>
+      <c r="X15" t="s"/>
+      <c r="Y15" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>35297</v>
+      </c>
+      <c r="B16" t="s"/>
+      <c r="C16" t="s"/>
+      <c r="D16" t="n">
+        <v>15</v>
+      </c>
+      <c r="E16" t="s">
+        <v>44</v>
+      </c>
+      <c r="F16" t="s">
+        <v>155</v>
+      </c>
+      <c r="G16" t="s">
+        <v>46</v>
+      </c>
+      <c r="H16" t="s">
+        <v>47</v>
+      </c>
+      <c r="I16" t="s">
+        <v>156</v>
+      </c>
+      <c r="J16" t="s">
+        <v>157</v>
+      </c>
+      <c r="K16" t="s">
+        <v>158</v>
+      </c>
+      <c r="L16" t="s">
+        <v>159</v>
+      </c>
+      <c r="M16" t="n">
+        <v>2</v>
+      </c>
+      <c r="N16" t="s"/>
+      <c r="O16" t="s"/>
+      <c r="P16" t="s"/>
+      <c r="Q16" t="s"/>
+      <c r="R16" t="s"/>
+      <c r="S16" t="s"/>
+      <c r="T16" t="s"/>
+      <c r="U16" t="s"/>
+      <c r="V16" t="n">
+        <v>0</v>
+      </c>
+      <c r="W16" t="s">
+        <v>160</v>
+      </c>
+      <c r="X16" t="s">
+        <v>161</v>
+      </c>
+      <c r="Y16" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>35297</v>
+      </c>
+      <c r="B17" t="s"/>
+      <c r="C17" t="s"/>
+      <c r="D17" t="n">
         <v>16</v>
       </c>
-      <c r="B1" t="s">
+      <c r="E17" t="s">
+        <v>44</v>
+      </c>
+      <c r="F17" t="s">
+        <v>163</v>
+      </c>
+      <c r="G17" t="s">
+        <v>46</v>
+      </c>
+      <c r="H17" t="s">
+        <v>47</v>
+      </c>
+      <c r="I17" t="s">
+        <v>164</v>
+      </c>
+      <c r="J17" t="s">
+        <v>165</v>
+      </c>
+      <c r="K17" t="s">
+        <v>166</v>
+      </c>
+      <c r="L17" t="s">
+        <v>167</v>
+      </c>
+      <c r="M17" t="n">
+        <v>2</v>
+      </c>
+      <c r="N17" t="s">
+        <v>168</v>
+      </c>
+      <c r="O17" t="s">
+        <v>78</v>
+      </c>
+      <c r="P17" t="s"/>
+      <c r="Q17" t="s"/>
+      <c r="R17" t="s"/>
+      <c r="S17" t="s"/>
+      <c r="T17" t="s"/>
+      <c r="U17" t="s"/>
+      <c r="V17" t="n">
+        <v>0</v>
+      </c>
+      <c r="W17" t="s"/>
+      <c r="X17" t="s"/>
+      <c r="Y17" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>35297</v>
+      </c>
+      <c r="B18" t="s"/>
+      <c r="C18" t="s"/>
+      <c r="D18" t="n">
         <v>17</v>
       </c>
-      <c r="C1" t="s">
+      <c r="E18" t="s">
+        <v>44</v>
+      </c>
+      <c r="F18" t="s">
+        <v>169</v>
+      </c>
+      <c r="G18" t="s">
+        <v>46</v>
+      </c>
+      <c r="H18" t="s">
+        <v>47</v>
+      </c>
+      <c r="I18" t="s">
+        <v>170</v>
+      </c>
+      <c r="J18" t="s">
+        <v>171</v>
+      </c>
+      <c r="K18" t="s">
+        <v>172</v>
+      </c>
+      <c r="L18" t="s">
+        <v>173</v>
+      </c>
+      <c r="M18" t="n">
+        <v>5</v>
+      </c>
+      <c r="N18" t="s">
+        <v>174</v>
+      </c>
+      <c r="O18" t="s">
+        <v>139</v>
+      </c>
+      <c r="P18" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q18" t="s"/>
+      <c r="R18" t="s"/>
+      <c r="S18" t="n">
+        <v>5</v>
+      </c>
+      <c r="T18" t="s"/>
+      <c r="U18" t="n">
+        <v>5</v>
+      </c>
+      <c r="V18" t="n">
+        <v>0</v>
+      </c>
+      <c r="W18" t="s"/>
+      <c r="X18" t="s"/>
+      <c r="Y18" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>35297</v>
+      </c>
+      <c r="B19" t="s"/>
+      <c r="C19" t="s"/>
+      <c r="D19" t="n">
         <v>18</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E19" t="s">
+        <v>44</v>
+      </c>
+      <c r="F19" t="s">
+        <v>175</v>
+      </c>
+      <c r="G19" t="s">
+        <v>46</v>
+      </c>
+      <c r="H19" t="s">
+        <v>47</v>
+      </c>
+      <c r="I19" t="s">
+        <v>176</v>
+      </c>
+      <c r="J19" t="s">
+        <v>177</v>
+      </c>
+      <c r="K19" t="s">
+        <v>178</v>
+      </c>
+      <c r="L19" t="s">
+        <v>179</v>
+      </c>
+      <c r="M19" t="n">
+        <v>4</v>
+      </c>
+      <c r="N19" t="s">
+        <v>180</v>
+      </c>
+      <c r="O19" t="s">
+        <v>53</v>
+      </c>
+      <c r="P19" t="s"/>
+      <c r="Q19" t="n">
+        <v>4</v>
+      </c>
+      <c r="R19" t="n">
+        <v>4</v>
+      </c>
+      <c r="S19" t="s"/>
+      <c r="T19" t="s"/>
+      <c r="U19" t="n">
+        <v>5</v>
+      </c>
+      <c r="V19" t="n">
+        <v>0</v>
+      </c>
+      <c r="W19" t="s"/>
+      <c r="X19" t="s"/>
+      <c r="Y19" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>35297</v>
+      </c>
+      <c r="B20" t="s"/>
+      <c r="C20" t="s"/>
+      <c r="D20" t="n">
         <v>19</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E20" t="s">
+        <v>44</v>
+      </c>
+      <c r="F20" t="s">
+        <v>181</v>
+      </c>
+      <c r="G20" t="s">
+        <v>46</v>
+      </c>
+      <c r="H20" t="s">
+        <v>47</v>
+      </c>
+      <c r="I20" t="s">
+        <v>182</v>
+      </c>
+      <c r="J20" t="s">
+        <v>183</v>
+      </c>
+      <c r="K20" t="s">
+        <v>184</v>
+      </c>
+      <c r="L20" t="s">
+        <v>185</v>
+      </c>
+      <c r="M20" t="n">
+        <v>4</v>
+      </c>
+      <c r="N20" t="s">
+        <v>186</v>
+      </c>
+      <c r="O20" t="s">
+        <v>102</v>
+      </c>
+      <c r="P20" t="s"/>
+      <c r="Q20" t="s"/>
+      <c r="R20" t="s"/>
+      <c r="S20" t="s"/>
+      <c r="T20" t="s"/>
+      <c r="U20" t="s"/>
+      <c r="V20" t="n">
+        <v>0</v>
+      </c>
+      <c r="W20" t="s"/>
+      <c r="X20" t="s"/>
+      <c r="Y20" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>35297</v>
+      </c>
+      <c r="B21" t="s"/>
+      <c r="C21" t="s"/>
+      <c r="D21" t="n">
         <v>20</v>
       </c>
-      <c r="F1" t="s">
+      <c r="E21" t="s">
+        <v>44</v>
+      </c>
+      <c r="F21" t="s">
+        <v>188</v>
+      </c>
+      <c r="G21" t="s">
+        <v>46</v>
+      </c>
+      <c r="H21" t="s">
+        <v>47</v>
+      </c>
+      <c r="I21" t="s">
+        <v>189</v>
+      </c>
+      <c r="J21" t="s">
+        <v>190</v>
+      </c>
+      <c r="K21" t="s">
+        <v>191</v>
+      </c>
+      <c r="L21" t="s">
+        <v>192</v>
+      </c>
+      <c r="M21" t="n">
+        <v>4</v>
+      </c>
+      <c r="N21" t="s">
+        <v>193</v>
+      </c>
+      <c r="O21" t="s">
+        <v>194</v>
+      </c>
+      <c r="P21" t="s"/>
+      <c r="Q21" t="s"/>
+      <c r="R21" t="n">
+        <v>4</v>
+      </c>
+      <c r="S21" t="s"/>
+      <c r="T21" t="s"/>
+      <c r="U21" t="n">
+        <v>2</v>
+      </c>
+      <c r="V21" t="n">
+        <v>0</v>
+      </c>
+      <c r="W21" t="s"/>
+      <c r="X21" t="s"/>
+      <c r="Y21" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>35297</v>
+      </c>
+      <c r="B22" t="s"/>
+      <c r="C22" t="s"/>
+      <c r="D22" t="n">
         <v>21</v>
       </c>
-      <c r="G1" t="s">
+      <c r="E22" t="s">
+        <v>44</v>
+      </c>
+      <c r="F22" t="s">
+        <v>196</v>
+      </c>
+      <c r="G22" t="s">
+        <v>46</v>
+      </c>
+      <c r="H22" t="s">
+        <v>47</v>
+      </c>
+      <c r="I22" t="s">
+        <v>197</v>
+      </c>
+      <c r="J22" t="s">
+        <v>198</v>
+      </c>
+      <c r="K22" t="s">
+        <v>199</v>
+      </c>
+      <c r="L22" t="s">
+        <v>200</v>
+      </c>
+      <c r="M22" t="n">
+        <v>4</v>
+      </c>
+      <c r="N22" t="s">
+        <v>186</v>
+      </c>
+      <c r="O22" t="s">
+        <v>53</v>
+      </c>
+      <c r="P22" t="s"/>
+      <c r="Q22" t="s"/>
+      <c r="R22" t="n">
+        <v>3</v>
+      </c>
+      <c r="S22" t="n">
+        <v>4</v>
+      </c>
+      <c r="T22" t="s"/>
+      <c r="U22" t="n">
+        <v>4</v>
+      </c>
+      <c r="V22" t="n">
+        <v>0</v>
+      </c>
+      <c r="W22" t="s"/>
+      <c r="X22" t="s"/>
+      <c r="Y22" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>35297</v>
+      </c>
+      <c r="B23" t="s"/>
+      <c r="C23" t="s"/>
+      <c r="D23" t="n">
         <v>22</v>
       </c>
-      <c r="H1" t="s">
+      <c r="E23" t="s">
+        <v>44</v>
+      </c>
+      <c r="F23" t="s">
+        <v>201</v>
+      </c>
+      <c r="G23" t="s">
+        <v>46</v>
+      </c>
+      <c r="H23" t="s">
+        <v>47</v>
+      </c>
+      <c r="I23" t="s">
+        <v>202</v>
+      </c>
+      <c r="J23" t="s">
+        <v>203</v>
+      </c>
+      <c r="K23" t="s">
+        <v>204</v>
+      </c>
+      <c r="L23" t="s">
+        <v>205</v>
+      </c>
+      <c r="M23" t="n">
+        <v>3</v>
+      </c>
+      <c r="N23" t="s">
+        <v>206</v>
+      </c>
+      <c r="O23" t="s">
+        <v>78</v>
+      </c>
+      <c r="P23" t="s"/>
+      <c r="Q23" t="s"/>
+      <c r="R23" t="n">
+        <v>3</v>
+      </c>
+      <c r="S23" t="s"/>
+      <c r="T23" t="s"/>
+      <c r="U23" t="n">
+        <v>4</v>
+      </c>
+      <c r="V23" t="n">
+        <v>0</v>
+      </c>
+      <c r="W23" t="s"/>
+      <c r="X23" t="s"/>
+      <c r="Y23" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>35297</v>
+      </c>
+      <c r="B24" t="s"/>
+      <c r="C24" t="s"/>
+      <c r="D24" t="n">
         <v>23</v>
       </c>
-      <c r="I1" t="s">
+      <c r="E24" t="s">
+        <v>44</v>
+      </c>
+      <c r="F24" t="s">
+        <v>208</v>
+      </c>
+      <c r="G24" t="s">
+        <v>46</v>
+      </c>
+      <c r="H24" t="s">
+        <v>47</v>
+      </c>
+      <c r="I24" t="s">
+        <v>209</v>
+      </c>
+      <c r="J24" t="s">
+        <v>210</v>
+      </c>
+      <c r="K24" t="s">
+        <v>211</v>
+      </c>
+      <c r="L24" t="s">
+        <v>212</v>
+      </c>
+      <c r="M24" t="n">
+        <v>4</v>
+      </c>
+      <c r="N24" t="s">
+        <v>206</v>
+      </c>
+      <c r="O24" t="s">
+        <v>53</v>
+      </c>
+      <c r="P24" t="s"/>
+      <c r="Q24" t="s"/>
+      <c r="R24" t="n">
+        <v>3</v>
+      </c>
+      <c r="S24" t="n">
+        <v>5</v>
+      </c>
+      <c r="T24" t="s"/>
+      <c r="U24" t="n">
+        <v>5</v>
+      </c>
+      <c r="V24" t="n">
+        <v>0</v>
+      </c>
+      <c r="W24" t="s"/>
+      <c r="X24" t="s"/>
+      <c r="Y24" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>35297</v>
+      </c>
+      <c r="B25" t="s"/>
+      <c r="C25" t="s"/>
+      <c r="D25" t="n">
         <v>24</v>
       </c>
-      <c r="J1" t="s">
+      <c r="E25" t="s">
+        <v>44</v>
+      </c>
+      <c r="F25" t="s">
+        <v>213</v>
+      </c>
+      <c r="G25" t="s">
+        <v>46</v>
+      </c>
+      <c r="H25" t="s">
+        <v>47</v>
+      </c>
+      <c r="I25" t="s">
+        <v>214</v>
+      </c>
+      <c r="J25" t="s">
+        <v>215</v>
+      </c>
+      <c r="K25" t="s">
+        <v>216</v>
+      </c>
+      <c r="L25" t="s">
+        <v>217</v>
+      </c>
+      <c r="M25" t="n">
+        <v>2</v>
+      </c>
+      <c r="N25" t="s">
+        <v>218</v>
+      </c>
+      <c r="O25" t="s">
+        <v>102</v>
+      </c>
+      <c r="P25" t="s"/>
+      <c r="Q25" t="s"/>
+      <c r="R25" t="s"/>
+      <c r="S25" t="s"/>
+      <c r="T25" t="s"/>
+      <c r="U25" t="s"/>
+      <c r="V25" t="n">
+        <v>0</v>
+      </c>
+      <c r="W25" t="s"/>
+      <c r="X25" t="s"/>
+      <c r="Y25" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>35297</v>
+      </c>
+      <c r="B26" t="s"/>
+      <c r="C26" t="s"/>
+      <c r="D26" t="n">
         <v>25</v>
       </c>
-      <c r="K1" t="s">
+      <c r="E26" t="s">
+        <v>44</v>
+      </c>
+      <c r="F26" t="s">
+        <v>219</v>
+      </c>
+      <c r="G26" t="s">
+        <v>46</v>
+      </c>
+      <c r="H26" t="s">
+        <v>47</v>
+      </c>
+      <c r="I26" t="s">
+        <v>220</v>
+      </c>
+      <c r="J26" t="s">
+        <v>221</v>
+      </c>
+      <c r="K26" t="s">
+        <v>222</v>
+      </c>
+      <c r="L26" t="s">
+        <v>223</v>
+      </c>
+      <c r="M26" t="n">
+        <v>2</v>
+      </c>
+      <c r="N26" t="s">
+        <v>218</v>
+      </c>
+      <c r="O26" t="s">
+        <v>53</v>
+      </c>
+      <c r="P26" t="s"/>
+      <c r="Q26" t="s"/>
+      <c r="R26" t="n">
+        <v>4</v>
+      </c>
+      <c r="S26" t="s"/>
+      <c r="T26" t="s"/>
+      <c r="U26" t="n">
+        <v>1</v>
+      </c>
+      <c r="V26" t="n">
+        <v>0</v>
+      </c>
+      <c r="W26" t="s"/>
+      <c r="X26" t="s"/>
+      <c r="Y26" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>35297</v>
+      </c>
+      <c r="B27" t="s"/>
+      <c r="C27" t="s"/>
+      <c r="D27" t="n">
         <v>26</v>
       </c>
-      <c r="L1" t="s">
+      <c r="E27" t="s">
+        <v>44</v>
+      </c>
+      <c r="F27" t="s">
+        <v>224</v>
+      </c>
+      <c r="G27" t="s">
+        <v>46</v>
+      </c>
+      <c r="H27" t="s">
+        <v>47</v>
+      </c>
+      <c r="I27" t="s">
+        <v>225</v>
+      </c>
+      <c r="J27" t="s">
+        <v>226</v>
+      </c>
+      <c r="K27" t="s">
+        <v>227</v>
+      </c>
+      <c r="L27" t="s">
+        <v>228</v>
+      </c>
+      <c r="M27" t="n">
+        <v>2</v>
+      </c>
+      <c r="N27" t="s"/>
+      <c r="O27" t="s"/>
+      <c r="P27" t="s"/>
+      <c r="Q27" t="s"/>
+      <c r="R27" t="s"/>
+      <c r="S27" t="s"/>
+      <c r="T27" t="s"/>
+      <c r="U27" t="s"/>
+      <c r="V27" t="n">
+        <v>0</v>
+      </c>
+      <c r="W27" t="s"/>
+      <c r="X27" t="s"/>
+      <c r="Y27" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>35297</v>
+      </c>
+      <c r="B28" t="s"/>
+      <c r="C28" t="s"/>
+      <c r="D28" t="n">
         <v>27</v>
       </c>
-      <c r="M1" t="s">
+      <c r="E28" t="s">
+        <v>44</v>
+      </c>
+      <c r="F28" t="s">
+        <v>230</v>
+      </c>
+      <c r="G28" t="s">
+        <v>46</v>
+      </c>
+      <c r="H28" t="s">
+        <v>47</v>
+      </c>
+      <c r="I28" t="s">
+        <v>231</v>
+      </c>
+      <c r="J28" t="s">
+        <v>226</v>
+      </c>
+      <c r="K28" t="s">
+        <v>232</v>
+      </c>
+      <c r="L28" t="s">
+        <v>233</v>
+      </c>
+      <c r="M28" t="n">
+        <v>1</v>
+      </c>
+      <c r="N28" t="s">
+        <v>234</v>
+      </c>
+      <c r="O28" t="s">
+        <v>53</v>
+      </c>
+      <c r="P28" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q28" t="s"/>
+      <c r="R28" t="s"/>
+      <c r="S28" t="s"/>
+      <c r="T28" t="s"/>
+      <c r="U28" t="n">
+        <v>3</v>
+      </c>
+      <c r="V28" t="n">
+        <v>0</v>
+      </c>
+      <c r="W28" t="s"/>
+      <c r="X28" t="s"/>
+      <c r="Y28" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>35297</v>
+      </c>
+      <c r="B29" t="s"/>
+      <c r="C29" t="s"/>
+      <c r="D29" t="n">
         <v>28</v>
       </c>
-      <c r="N1" t="s">
+      <c r="E29" t="s">
+        <v>44</v>
+      </c>
+      <c r="F29" t="s">
+        <v>235</v>
+      </c>
+      <c r="G29" t="s">
+        <v>46</v>
+      </c>
+      <c r="H29" t="s">
+        <v>47</v>
+      </c>
+      <c r="I29" t="s">
+        <v>236</v>
+      </c>
+      <c r="J29" t="s">
+        <v>237</v>
+      </c>
+      <c r="K29" t="s">
+        <v>238</v>
+      </c>
+      <c r="L29" t="s">
+        <v>239</v>
+      </c>
+      <c r="M29" t="n">
+        <v>2</v>
+      </c>
+      <c r="N29" t="s">
+        <v>234</v>
+      </c>
+      <c r="O29" t="s">
+        <v>194</v>
+      </c>
+      <c r="P29" t="s"/>
+      <c r="Q29" t="s"/>
+      <c r="R29" t="s"/>
+      <c r="S29" t="s"/>
+      <c r="T29" t="s"/>
+      <c r="U29" t="s"/>
+      <c r="V29" t="n">
+        <v>0</v>
+      </c>
+      <c r="W29" t="s"/>
+      <c r="X29" t="s"/>
+      <c r="Y29" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>35297</v>
+      </c>
+      <c r="B30" t="s"/>
+      <c r="C30" t="s"/>
+      <c r="D30" t="n">
         <v>29</v>
       </c>
-      <c r="O1" t="s">
+      <c r="E30" t="s">
+        <v>44</v>
+      </c>
+      <c r="F30" t="s">
+        <v>240</v>
+      </c>
+      <c r="G30" t="s">
+        <v>46</v>
+      </c>
+      <c r="H30" t="s">
+        <v>47</v>
+      </c>
+      <c r="I30" t="s">
+        <v>241</v>
+      </c>
+      <c r="J30" t="s">
+        <v>242</v>
+      </c>
+      <c r="K30" t="s">
+        <v>243</v>
+      </c>
+      <c r="L30" t="s">
+        <v>244</v>
+      </c>
+      <c r="M30" t="n">
+        <v>3</v>
+      </c>
+      <c r="N30" t="s">
+        <v>234</v>
+      </c>
+      <c r="O30" t="s">
+        <v>53</v>
+      </c>
+      <c r="P30" t="s"/>
+      <c r="Q30" t="s"/>
+      <c r="R30" t="s"/>
+      <c r="S30" t="s"/>
+      <c r="T30" t="s"/>
+      <c r="U30" t="s"/>
+      <c r="V30" t="n">
+        <v>0</v>
+      </c>
+      <c r="W30" t="s"/>
+      <c r="X30" t="s"/>
+      <c r="Y30" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>35297</v>
+      </c>
+      <c r="B31" t="s"/>
+      <c r="C31" t="s"/>
+      <c r="D31" t="n">
         <v>30</v>
       </c>
-      <c r="P1" t="s">
+      <c r="E31" t="s">
+        <v>44</v>
+      </c>
+      <c r="F31" t="s">
+        <v>245</v>
+      </c>
+      <c r="G31" t="s">
+        <v>46</v>
+      </c>
+      <c r="H31" t="s">
+        <v>47</v>
+      </c>
+      <c r="I31" t="s">
+        <v>246</v>
+      </c>
+      <c r="J31" t="s">
+        <v>247</v>
+      </c>
+      <c r="K31" t="s">
+        <v>248</v>
+      </c>
+      <c r="L31" t="s">
+        <v>249</v>
+      </c>
+      <c r="M31" t="n">
+        <v>2</v>
+      </c>
+      <c r="N31" t="s">
+        <v>250</v>
+      </c>
+      <c r="O31" t="s">
+        <v>53</v>
+      </c>
+      <c r="P31" t="s"/>
+      <c r="Q31" t="n">
+        <v>4</v>
+      </c>
+      <c r="R31" t="s"/>
+      <c r="S31" t="s"/>
+      <c r="T31" t="s"/>
+      <c r="U31" t="n">
+        <v>2</v>
+      </c>
+      <c r="V31" t="n">
+        <v>0</v>
+      </c>
+      <c r="W31" t="s"/>
+      <c r="X31" t="s"/>
+      <c r="Y31" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>35297</v>
+      </c>
+      <c r="B32" t="s"/>
+      <c r="C32" t="s"/>
+      <c r="D32" t="n">
         <v>31</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="E32" t="s">
+        <v>44</v>
+      </c>
+      <c r="F32" t="s">
+        <v>252</v>
+      </c>
+      <c r="G32" t="s">
+        <v>46</v>
+      </c>
+      <c r="H32" t="s">
+        <v>47</v>
+      </c>
+      <c r="I32" t="s">
+        <v>253</v>
+      </c>
+      <c r="J32" t="s">
+        <v>254</v>
+      </c>
+      <c r="K32" t="s">
+        <v>255</v>
+      </c>
+      <c r="L32" t="s">
+        <v>256</v>
+      </c>
+      <c r="M32" t="n">
+        <v>4</v>
+      </c>
+      <c r="N32" t="s">
+        <v>193</v>
+      </c>
+      <c r="O32" t="s">
+        <v>102</v>
+      </c>
+      <c r="P32" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q32" t="n">
+        <v>4</v>
+      </c>
+      <c r="R32" t="s"/>
+      <c r="S32" t="s"/>
+      <c r="T32" t="s"/>
+      <c r="U32" t="n">
+        <v>4</v>
+      </c>
+      <c r="V32" t="n">
+        <v>0</v>
+      </c>
+      <c r="W32" t="s"/>
+      <c r="X32" t="s"/>
+      <c r="Y32" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>35297</v>
+      </c>
+      <c r="B33" t="s"/>
+      <c r="C33" t="s"/>
+      <c r="D33" t="n">
         <v>32</v>
       </c>
-      <c r="R1" t="s">
+      <c r="E33" t="s">
+        <v>44</v>
+      </c>
+      <c r="F33" t="s">
+        <v>257</v>
+      </c>
+      <c r="G33" t="s">
+        <v>46</v>
+      </c>
+      <c r="H33" t="s">
+        <v>47</v>
+      </c>
+      <c r="I33" t="s">
+        <v>258</v>
+      </c>
+      <c r="J33" t="s">
+        <v>259</v>
+      </c>
+      <c r="K33" t="s">
+        <v>260</v>
+      </c>
+      <c r="L33" t="s">
+        <v>261</v>
+      </c>
+      <c r="M33" t="n">
+        <v>4</v>
+      </c>
+      <c r="N33" t="s">
+        <v>193</v>
+      </c>
+      <c r="O33" t="s">
+        <v>102</v>
+      </c>
+      <c r="P33" t="s"/>
+      <c r="Q33" t="s"/>
+      <c r="R33" t="s"/>
+      <c r="S33" t="n">
+        <v>4</v>
+      </c>
+      <c r="T33" t="s"/>
+      <c r="U33" t="n">
+        <v>4</v>
+      </c>
+      <c r="V33" t="n">
+        <v>0</v>
+      </c>
+      <c r="W33" t="s">
+        <v>262</v>
+      </c>
+      <c r="X33" t="s">
+        <v>263</v>
+      </c>
+      <c r="Y33" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>35297</v>
+      </c>
+      <c r="B34" t="s"/>
+      <c r="C34" t="s"/>
+      <c r="D34" t="n">
         <v>33</v>
       </c>
-      <c r="S1" t="s">
+      <c r="E34" t="s">
+        <v>44</v>
+      </c>
+      <c r="F34" t="s">
+        <v>265</v>
+      </c>
+      <c r="G34" t="s">
+        <v>46</v>
+      </c>
+      <c r="H34" t="s">
+        <v>47</v>
+      </c>
+      <c r="I34" t="s">
+        <v>266</v>
+      </c>
+      <c r="J34" t="s">
+        <v>267</v>
+      </c>
+      <c r="K34" t="s">
+        <v>268</v>
+      </c>
+      <c r="L34" t="s">
+        <v>269</v>
+      </c>
+      <c r="M34" t="n">
+        <v>4</v>
+      </c>
+      <c r="N34" t="s">
+        <v>193</v>
+      </c>
+      <c r="O34" t="s">
+        <v>78</v>
+      </c>
+      <c r="P34" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q34" t="n">
+        <v>5</v>
+      </c>
+      <c r="R34" t="s"/>
+      <c r="S34" t="s"/>
+      <c r="T34" t="s"/>
+      <c r="U34" t="n">
+        <v>5</v>
+      </c>
+      <c r="V34" t="n">
+        <v>0</v>
+      </c>
+      <c r="W34" t="s">
+        <v>270</v>
+      </c>
+      <c r="X34" t="s">
+        <v>263</v>
+      </c>
+      <c r="Y34" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>35297</v>
+      </c>
+      <c r="B35" t="s"/>
+      <c r="C35" t="s"/>
+      <c r="D35" t="n">
         <v>34</v>
       </c>
-      <c r="T1" t="s">
+      <c r="E35" t="s">
+        <v>44</v>
+      </c>
+      <c r="F35" t="s">
+        <v>272</v>
+      </c>
+      <c r="G35" t="s">
+        <v>46</v>
+      </c>
+      <c r="H35" t="s">
+        <v>47</v>
+      </c>
+      <c r="I35" t="s">
+        <v>273</v>
+      </c>
+      <c r="J35" t="s">
+        <v>274</v>
+      </c>
+      <c r="K35" t="s">
+        <v>275</v>
+      </c>
+      <c r="L35" t="s">
+        <v>276</v>
+      </c>
+      <c r="M35" t="n">
+        <v>4</v>
+      </c>
+      <c r="N35" t="s">
+        <v>277</v>
+      </c>
+      <c r="O35" t="s">
+        <v>53</v>
+      </c>
+      <c r="P35" t="s"/>
+      <c r="Q35" t="s"/>
+      <c r="R35" t="s"/>
+      <c r="S35" t="n">
+        <v>5</v>
+      </c>
+      <c r="T35" t="s"/>
+      <c r="U35" t="n">
+        <v>5</v>
+      </c>
+      <c r="V35" t="n">
+        <v>0</v>
+      </c>
+      <c r="W35" t="s"/>
+      <c r="X35" t="s"/>
+      <c r="Y35" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>35297</v>
+      </c>
+      <c r="B36" t="s"/>
+      <c r="C36" t="s"/>
+      <c r="D36" t="n">
         <v>35</v>
       </c>
-      <c r="U1" t="s">
+      <c r="E36" t="s">
+        <v>44</v>
+      </c>
+      <c r="F36" t="s">
+        <v>278</v>
+      </c>
+      <c r="G36" t="s">
+        <v>46</v>
+      </c>
+      <c r="H36" t="s">
+        <v>47</v>
+      </c>
+      <c r="I36" t="s">
+        <v>279</v>
+      </c>
+      <c r="J36" t="s">
+        <v>280</v>
+      </c>
+      <c r="K36" t="s">
+        <v>281</v>
+      </c>
+      <c r="L36" t="s">
+        <v>282</v>
+      </c>
+      <c r="M36" t="n">
+        <v>5</v>
+      </c>
+      <c r="N36" t="s">
+        <v>283</v>
+      </c>
+      <c r="O36" t="s">
+        <v>53</v>
+      </c>
+      <c r="P36" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q36" t="s"/>
+      <c r="R36" t="s"/>
+      <c r="S36" t="n">
+        <v>5</v>
+      </c>
+      <c r="T36" t="s"/>
+      <c r="U36" t="n">
+        <v>5</v>
+      </c>
+      <c r="V36" t="n">
+        <v>0</v>
+      </c>
+      <c r="W36" t="s">
+        <v>284</v>
+      </c>
+      <c r="X36" t="s">
+        <v>285</v>
+      </c>
+      <c r="Y36" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>35297</v>
+      </c>
+      <c r="B37" t="s"/>
+      <c r="C37" t="s"/>
+      <c r="D37" t="n">
         <v>36</v>
       </c>
-      <c r="V1" t="s">
+      <c r="E37" t="s">
+        <v>44</v>
+      </c>
+      <c r="F37" t="s">
+        <v>287</v>
+      </c>
+      <c r="G37" t="s">
+        <v>46</v>
+      </c>
+      <c r="H37" t="s">
+        <v>47</v>
+      </c>
+      <c r="I37" t="s">
+        <v>288</v>
+      </c>
+      <c r="J37" t="s">
+        <v>289</v>
+      </c>
+      <c r="K37" t="s">
+        <v>290</v>
+      </c>
+      <c r="L37" t="s">
+        <v>291</v>
+      </c>
+      <c r="M37" t="n">
+        <v>5</v>
+      </c>
+      <c r="N37" t="s">
+        <v>292</v>
+      </c>
+      <c r="O37" t="s">
+        <v>102</v>
+      </c>
+      <c r="P37" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q37" t="s"/>
+      <c r="R37" t="s"/>
+      <c r="S37" t="n">
+        <v>5</v>
+      </c>
+      <c r="T37" t="s"/>
+      <c r="U37" t="n">
+        <v>5</v>
+      </c>
+      <c r="V37" t="n">
+        <v>0</v>
+      </c>
+      <c r="W37" t="s">
+        <v>293</v>
+      </c>
+      <c r="X37" t="s">
+        <v>294</v>
+      </c>
+      <c r="Y37" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>35297</v>
+      </c>
+      <c r="B38" t="s"/>
+      <c r="C38" t="s"/>
+      <c r="D38" t="n">
         <v>37</v>
       </c>
-      <c r="W1" t="s">
+      <c r="E38" t="s">
+        <v>44</v>
+      </c>
+      <c r="F38" t="s">
+        <v>296</v>
+      </c>
+      <c r="G38" t="s">
+        <v>46</v>
+      </c>
+      <c r="H38" t="s">
+        <v>47</v>
+      </c>
+      <c r="I38" t="s">
+        <v>297</v>
+      </c>
+      <c r="J38" t="s">
+        <v>298</v>
+      </c>
+      <c r="K38" t="s">
+        <v>299</v>
+      </c>
+      <c r="L38" t="s">
+        <v>300</v>
+      </c>
+      <c r="M38" t="n">
+        <v>5</v>
+      </c>
+      <c r="N38" t="s"/>
+      <c r="O38" t="s"/>
+      <c r="P38" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q38" t="n">
+        <v>5</v>
+      </c>
+      <c r="R38" t="n">
+        <v>5</v>
+      </c>
+      <c r="S38" t="n">
+        <v>5</v>
+      </c>
+      <c r="T38" t="s"/>
+      <c r="U38" t="n">
+        <v>5</v>
+      </c>
+      <c r="V38" t="n">
+        <v>0</v>
+      </c>
+      <c r="W38" t="s"/>
+      <c r="X38" t="s"/>
+      <c r="Y38" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>35297</v>
+      </c>
+      <c r="B39" t="s"/>
+      <c r="C39" t="s"/>
+      <c r="D39" t="n">
         <v>38</v>
       </c>
-      <c r="X1" t="s">
+      <c r="E39" t="s">
+        <v>44</v>
+      </c>
+      <c r="F39" t="s">
+        <v>301</v>
+      </c>
+      <c r="G39" t="s">
+        <v>46</v>
+      </c>
+      <c r="H39" t="s">
+        <v>47</v>
+      </c>
+      <c r="I39" t="s">
+        <v>302</v>
+      </c>
+      <c r="J39" t="s">
+        <v>303</v>
+      </c>
+      <c r="K39" t="s">
+        <v>304</v>
+      </c>
+      <c r="L39" t="s">
+        <v>305</v>
+      </c>
+      <c r="M39" t="n">
+        <v>4</v>
+      </c>
+      <c r="N39" t="s"/>
+      <c r="O39" t="s"/>
+      <c r="P39" t="s"/>
+      <c r="Q39" t="s"/>
+      <c r="R39" t="s"/>
+      <c r="S39" t="s"/>
+      <c r="T39" t="s"/>
+      <c r="U39" t="s"/>
+      <c r="V39" t="n">
+        <v>0</v>
+      </c>
+      <c r="W39" t="s">
+        <v>306</v>
+      </c>
+      <c r="X39" t="s">
+        <v>307</v>
+      </c>
+      <c r="Y39" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>35297</v>
+      </c>
+      <c r="B40" t="s"/>
+      <c r="C40" t="s"/>
+      <c r="D40" t="n">
         <v>39</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="E40" t="s">
+        <v>44</v>
+      </c>
+      <c r="F40" t="s">
+        <v>309</v>
+      </c>
+      <c r="G40" t="s">
+        <v>46</v>
+      </c>
+      <c r="H40" t="s">
+        <v>47</v>
+      </c>
+      <c r="I40" t="s">
+        <v>310</v>
+      </c>
+      <c r="J40" t="s">
+        <v>311</v>
+      </c>
+      <c r="K40" t="s">
+        <v>312</v>
+      </c>
+      <c r="L40" t="s">
+        <v>313</v>
+      </c>
+      <c r="M40" t="n">
+        <v>5</v>
+      </c>
+      <c r="N40" t="s">
+        <v>292</v>
+      </c>
+      <c r="O40" t="s">
+        <v>53</v>
+      </c>
+      <c r="P40" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q40" t="n">
+        <v>5</v>
+      </c>
+      <c r="R40" t="n">
+        <v>5</v>
+      </c>
+      <c r="S40" t="n">
+        <v>5</v>
+      </c>
+      <c r="T40" t="s"/>
+      <c r="U40" t="n">
+        <v>5</v>
+      </c>
+      <c r="V40" t="n">
+        <v>0</v>
+      </c>
+      <c r="W40" t="s">
+        <v>314</v>
+      </c>
+      <c r="X40" t="s">
+        <v>315</v>
+      </c>
+      <c r="Y40" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>35297</v>
+      </c>
+      <c r="B41" t="s"/>
+      <c r="C41" t="s"/>
+      <c r="D41" t="n">
         <v>40</v>
+      </c>
+      <c r="E41" t="s">
+        <v>44</v>
+      </c>
+      <c r="F41" t="s">
+        <v>317</v>
+      </c>
+      <c r="G41" t="s">
+        <v>46</v>
+      </c>
+      <c r="H41" t="s">
+        <v>47</v>
+      </c>
+      <c r="I41" t="s">
+        <v>318</v>
+      </c>
+      <c r="J41" t="s">
+        <v>319</v>
+      </c>
+      <c r="K41" t="s">
+        <v>320</v>
+      </c>
+      <c r="L41" t="s">
+        <v>321</v>
+      </c>
+      <c r="M41" t="n">
+        <v>4</v>
+      </c>
+      <c r="N41" t="s">
+        <v>322</v>
+      </c>
+      <c r="O41" t="s">
+        <v>102</v>
+      </c>
+      <c r="P41" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q41" t="n">
+        <v>4</v>
+      </c>
+      <c r="R41" t="n">
+        <v>4</v>
+      </c>
+      <c r="S41" t="n">
+        <v>4</v>
+      </c>
+      <c r="T41" t="s"/>
+      <c r="U41" t="n">
+        <v>4</v>
+      </c>
+      <c r="V41" t="n">
+        <v>0</v>
+      </c>
+      <c r="W41" t="s"/>
+      <c r="X41" t="s"/>
+      <c r="Y41" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>35297</v>
+      </c>
+      <c r="B42" t="s"/>
+      <c r="C42" t="s"/>
+      <c r="D42" t="n">
+        <v>41</v>
+      </c>
+      <c r="E42" t="s">
+        <v>44</v>
+      </c>
+      <c r="F42" t="s">
+        <v>323</v>
+      </c>
+      <c r="G42" t="s">
+        <v>46</v>
+      </c>
+      <c r="H42" t="s">
+        <v>47</v>
+      </c>
+      <c r="I42" t="s">
+        <v>324</v>
+      </c>
+      <c r="J42" t="s">
+        <v>325</v>
+      </c>
+      <c r="K42" t="s">
+        <v>326</v>
+      </c>
+      <c r="L42" t="s">
+        <v>327</v>
+      </c>
+      <c r="M42" t="n">
+        <v>5</v>
+      </c>
+      <c r="N42" t="s">
+        <v>322</v>
+      </c>
+      <c r="O42" t="s">
+        <v>194</v>
+      </c>
+      <c r="P42" t="s"/>
+      <c r="Q42" t="s"/>
+      <c r="R42" t="s"/>
+      <c r="S42" t="s"/>
+      <c r="T42" t="s"/>
+      <c r="U42" t="s"/>
+      <c r="V42" t="n">
+        <v>0</v>
+      </c>
+      <c r="W42" t="s"/>
+      <c r="X42" t="s"/>
+      <c r="Y42" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>35297</v>
+      </c>
+      <c r="B43" t="s"/>
+      <c r="C43" t="s"/>
+      <c r="D43" t="n">
+        <v>42</v>
+      </c>
+      <c r="E43" t="s">
+        <v>44</v>
+      </c>
+      <c r="F43" t="s">
+        <v>329</v>
+      </c>
+      <c r="G43" t="s">
+        <v>46</v>
+      </c>
+      <c r="H43" t="s">
+        <v>47</v>
+      </c>
+      <c r="I43" t="s">
+        <v>330</v>
+      </c>
+      <c r="J43" t="s">
+        <v>331</v>
+      </c>
+      <c r="K43" t="s">
+        <v>332</v>
+      </c>
+      <c r="L43" t="s">
+        <v>333</v>
+      </c>
+      <c r="M43" t="n">
+        <v>3</v>
+      </c>
+      <c r="N43" t="s">
+        <v>322</v>
+      </c>
+      <c r="O43" t="s">
+        <v>78</v>
+      </c>
+      <c r="P43" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q43" t="n">
+        <v>3</v>
+      </c>
+      <c r="R43" t="n">
+        <v>3</v>
+      </c>
+      <c r="S43" t="n">
+        <v>3</v>
+      </c>
+      <c r="T43" t="s"/>
+      <c r="U43" t="n">
+        <v>5</v>
+      </c>
+      <c r="V43" t="n">
+        <v>0</v>
+      </c>
+      <c r="W43" t="s"/>
+      <c r="X43" t="s"/>
+      <c r="Y43" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>35297</v>
+      </c>
+      <c r="B44" t="s"/>
+      <c r="C44" t="s"/>
+      <c r="D44" t="n">
+        <v>43</v>
+      </c>
+      <c r="E44" t="s">
+        <v>44</v>
+      </c>
+      <c r="F44" t="s">
+        <v>334</v>
+      </c>
+      <c r="G44" t="s">
+        <v>46</v>
+      </c>
+      <c r="H44" t="s">
+        <v>47</v>
+      </c>
+      <c r="I44" t="s">
+        <v>335</v>
+      </c>
+      <c r="J44" t="s">
+        <v>336</v>
+      </c>
+      <c r="K44" t="s">
+        <v>337</v>
+      </c>
+      <c r="L44" t="s">
+        <v>338</v>
+      </c>
+      <c r="M44" t="n">
+        <v>4</v>
+      </c>
+      <c r="N44" t="s">
+        <v>339</v>
+      </c>
+      <c r="O44" t="s">
+        <v>53</v>
+      </c>
+      <c r="P44" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q44" t="n">
+        <v>3</v>
+      </c>
+      <c r="R44" t="n">
+        <v>5</v>
+      </c>
+      <c r="S44" t="n">
+        <v>4</v>
+      </c>
+      <c r="T44" t="s"/>
+      <c r="U44" t="n">
+        <v>5</v>
+      </c>
+      <c r="V44" t="n">
+        <v>0</v>
+      </c>
+      <c r="W44" t="s"/>
+      <c r="X44" t="s"/>
+      <c r="Y44" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>35297</v>
+      </c>
+      <c r="B45" t="s"/>
+      <c r="C45" t="s"/>
+      <c r="D45" t="n">
+        <v>44</v>
+      </c>
+      <c r="E45" t="s">
+        <v>44</v>
+      </c>
+      <c r="F45" t="s">
+        <v>341</v>
+      </c>
+      <c r="G45" t="s">
+        <v>46</v>
+      </c>
+      <c r="H45" t="s">
+        <v>47</v>
+      </c>
+      <c r="I45" t="s">
+        <v>342</v>
+      </c>
+      <c r="J45" t="s">
+        <v>343</v>
+      </c>
+      <c r="K45" t="s">
+        <v>344</v>
+      </c>
+      <c r="L45" t="s">
+        <v>345</v>
+      </c>
+      <c r="M45" t="n">
+        <v>4</v>
+      </c>
+      <c r="N45" t="s"/>
+      <c r="O45" t="s"/>
+      <c r="P45" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q45" t="n">
+        <v>5</v>
+      </c>
+      <c r="R45" t="n">
+        <v>4</v>
+      </c>
+      <c r="S45" t="n">
+        <v>5</v>
+      </c>
+      <c r="T45" t="s"/>
+      <c r="U45" t="n">
+        <v>5</v>
+      </c>
+      <c r="V45" t="n">
+        <v>0</v>
+      </c>
+      <c r="W45" t="s"/>
+      <c r="X45" t="s"/>
+      <c r="Y45" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>35297</v>
+      </c>
+      <c r="B46" t="s"/>
+      <c r="C46" t="s"/>
+      <c r="D46" t="n">
+        <v>45</v>
+      </c>
+      <c r="E46" t="s">
+        <v>44</v>
+      </c>
+      <c r="F46" t="s">
+        <v>346</v>
+      </c>
+      <c r="G46" t="s">
+        <v>46</v>
+      </c>
+      <c r="H46" t="s">
+        <v>47</v>
+      </c>
+      <c r="I46" t="s">
+        <v>347</v>
+      </c>
+      <c r="J46" t="s">
+        <v>348</v>
+      </c>
+      <c r="K46" t="s">
+        <v>349</v>
+      </c>
+      <c r="L46" t="s">
+        <v>350</v>
+      </c>
+      <c r="M46" t="n">
+        <v>4</v>
+      </c>
+      <c r="N46" t="s">
+        <v>283</v>
+      </c>
+      <c r="O46" t="s">
+        <v>139</v>
+      </c>
+      <c r="P46" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q46" t="n">
+        <v>5</v>
+      </c>
+      <c r="R46" t="n">
+        <v>4</v>
+      </c>
+      <c r="S46" t="n">
+        <v>4</v>
+      </c>
+      <c r="T46" t="s"/>
+      <c r="U46" t="n">
+        <v>5</v>
+      </c>
+      <c r="V46" t="n">
+        <v>0</v>
+      </c>
+      <c r="W46" t="s"/>
+      <c r="X46" t="s"/>
+      <c r="Y46" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>35297</v>
+      </c>
+      <c r="B47" t="s"/>
+      <c r="C47" t="s"/>
+      <c r="D47" t="n">
+        <v>46</v>
+      </c>
+      <c r="E47" t="s">
+        <v>44</v>
+      </c>
+      <c r="F47" t="s">
+        <v>351</v>
+      </c>
+      <c r="G47" t="s">
+        <v>46</v>
+      </c>
+      <c r="H47" t="s">
+        <v>47</v>
+      </c>
+      <c r="I47" t="s">
+        <v>352</v>
+      </c>
+      <c r="J47" t="s">
+        <v>353</v>
+      </c>
+      <c r="K47" t="s">
+        <v>354</v>
+      </c>
+      <c r="L47" t="s">
+        <v>355</v>
+      </c>
+      <c r="M47" t="n">
+        <v>4</v>
+      </c>
+      <c r="N47" t="s">
+        <v>356</v>
+      </c>
+      <c r="O47" t="s">
+        <v>78</v>
+      </c>
+      <c r="P47" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q47" t="n">
+        <v>3</v>
+      </c>
+      <c r="R47" t="n">
+        <v>3</v>
+      </c>
+      <c r="S47" t="n">
+        <v>4</v>
+      </c>
+      <c r="T47" t="s"/>
+      <c r="U47" t="n">
+        <v>5</v>
+      </c>
+      <c r="V47" t="n">
+        <v>0</v>
+      </c>
+      <c r="W47" t="s"/>
+      <c r="X47" t="s"/>
+      <c r="Y47" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>35297</v>
+      </c>
+      <c r="B48" t="s"/>
+      <c r="C48" t="s"/>
+      <c r="D48" t="n">
+        <v>47</v>
+      </c>
+      <c r="E48" t="s">
+        <v>44</v>
+      </c>
+      <c r="F48" t="s">
+        <v>358</v>
+      </c>
+      <c r="G48" t="s">
+        <v>46</v>
+      </c>
+      <c r="H48" t="s">
+        <v>47</v>
+      </c>
+      <c r="I48" t="s">
+        <v>359</v>
+      </c>
+      <c r="J48" t="s">
+        <v>360</v>
+      </c>
+      <c r="K48" t="s">
+        <v>361</v>
+      </c>
+      <c r="L48" t="s">
+        <v>362</v>
+      </c>
+      <c r="M48" t="n">
+        <v>5</v>
+      </c>
+      <c r="N48" t="s">
+        <v>363</v>
+      </c>
+      <c r="O48" t="s">
+        <v>53</v>
+      </c>
+      <c r="P48" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q48" t="n">
+        <v>5</v>
+      </c>
+      <c r="R48" t="n">
+        <v>5</v>
+      </c>
+      <c r="S48" t="n">
+        <v>5</v>
+      </c>
+      <c r="T48" t="s"/>
+      <c r="U48" t="n">
+        <v>5</v>
+      </c>
+      <c r="V48" t="n">
+        <v>0</v>
+      </c>
+      <c r="W48" t="s">
+        <v>364</v>
+      </c>
+      <c r="X48" t="s">
+        <v>365</v>
+      </c>
+      <c r="Y48" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>35297</v>
+      </c>
+      <c r="B49" t="s"/>
+      <c r="C49" t="s"/>
+      <c r="D49" t="n">
+        <v>48</v>
+      </c>
+      <c r="E49" t="s">
+        <v>44</v>
+      </c>
+      <c r="F49" t="s">
+        <v>367</v>
+      </c>
+      <c r="G49" t="s">
+        <v>46</v>
+      </c>
+      <c r="H49" t="s">
+        <v>47</v>
+      </c>
+      <c r="I49" t="s">
+        <v>368</v>
+      </c>
+      <c r="J49" t="s">
+        <v>369</v>
+      </c>
+      <c r="K49" t="s">
+        <v>370</v>
+      </c>
+      <c r="L49" t="s">
+        <v>371</v>
+      </c>
+      <c r="M49" t="n">
+        <v>4</v>
+      </c>
+      <c r="N49" t="s">
+        <v>356</v>
+      </c>
+      <c r="O49" t="s">
+        <v>139</v>
+      </c>
+      <c r="P49" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q49" t="n">
+        <v>3</v>
+      </c>
+      <c r="R49" t="n">
+        <v>4</v>
+      </c>
+      <c r="S49" t="n">
+        <v>3</v>
+      </c>
+      <c r="T49" t="s"/>
+      <c r="U49" t="n">
+        <v>4</v>
+      </c>
+      <c r="V49" t="n">
+        <v>0</v>
+      </c>
+      <c r="W49" t="s"/>
+      <c r="X49" t="s"/>
+      <c r="Y49" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>35297</v>
+      </c>
+      <c r="B50" t="s"/>
+      <c r="C50" t="s"/>
+      <c r="D50" t="n">
+        <v>49</v>
+      </c>
+      <c r="E50" t="s">
+        <v>44</v>
+      </c>
+      <c r="F50" t="s">
+        <v>373</v>
+      </c>
+      <c r="G50" t="s">
+        <v>46</v>
+      </c>
+      <c r="H50" t="s">
+        <v>47</v>
+      </c>
+      <c r="I50" t="s">
+        <v>374</v>
+      </c>
+      <c r="J50" t="s">
+        <v>375</v>
+      </c>
+      <c r="K50" t="s">
+        <v>376</v>
+      </c>
+      <c r="L50" t="s">
+        <v>377</v>
+      </c>
+      <c r="M50" t="n">
+        <v>5</v>
+      </c>
+      <c r="N50" t="s">
+        <v>378</v>
+      </c>
+      <c r="O50" t="s">
+        <v>53</v>
+      </c>
+      <c r="P50" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q50" t="n">
+        <v>5</v>
+      </c>
+      <c r="R50" t="n">
+        <v>5</v>
+      </c>
+      <c r="S50" t="n">
+        <v>5</v>
+      </c>
+      <c r="T50" t="s"/>
+      <c r="U50" t="n">
+        <v>5</v>
+      </c>
+      <c r="V50" t="n">
+        <v>0</v>
+      </c>
+      <c r="W50" t="s"/>
+      <c r="X50" t="s"/>
+      <c r="Y50" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>35297</v>
+      </c>
+      <c r="B51" t="s"/>
+      <c r="C51" t="s"/>
+      <c r="D51" t="n">
+        <v>50</v>
+      </c>
+      <c r="E51" t="s">
+        <v>44</v>
+      </c>
+      <c r="F51" t="s">
+        <v>379</v>
+      </c>
+      <c r="G51" t="s">
+        <v>46</v>
+      </c>
+      <c r="H51" t="s">
+        <v>47</v>
+      </c>
+      <c r="I51" t="s">
+        <v>380</v>
+      </c>
+      <c r="J51" t="s">
+        <v>381</v>
+      </c>
+      <c r="K51" t="s">
+        <v>382</v>
+      </c>
+      <c r="L51" t="s">
+        <v>383</v>
+      </c>
+      <c r="M51" t="n">
+        <v>5</v>
+      </c>
+      <c r="N51" t="s"/>
+      <c r="O51" t="s"/>
+      <c r="P51" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q51" t="n">
+        <v>5</v>
+      </c>
+      <c r="R51" t="n">
+        <v>3</v>
+      </c>
+      <c r="S51" t="n">
+        <v>5</v>
+      </c>
+      <c r="T51" t="s"/>
+      <c r="U51" t="n">
+        <v>5</v>
+      </c>
+      <c r="V51" t="n">
+        <v>0</v>
+      </c>
+      <c r="W51" t="s"/>
+      <c r="X51" t="s"/>
+      <c r="Y51" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="n">
+        <v>35297</v>
+      </c>
+      <c r="B52" t="s"/>
+      <c r="C52" t="s"/>
+      <c r="D52" t="n">
+        <v>51</v>
+      </c>
+      <c r="E52" t="s">
+        <v>44</v>
+      </c>
+      <c r="F52" t="s">
+        <v>385</v>
+      </c>
+      <c r="G52" t="s">
+        <v>46</v>
+      </c>
+      <c r="H52" t="s">
+        <v>47</v>
+      </c>
+      <c r="I52" t="s">
+        <v>386</v>
+      </c>
+      <c r="J52" t="s">
+        <v>387</v>
+      </c>
+      <c r="K52" t="s">
+        <v>388</v>
+      </c>
+      <c r="L52" t="s">
+        <v>389</v>
+      </c>
+      <c r="M52" t="n">
+        <v>1</v>
+      </c>
+      <c r="N52" t="s">
+        <v>378</v>
+      </c>
+      <c r="O52" t="s">
+        <v>194</v>
+      </c>
+      <c r="P52" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q52" t="n">
+        <v>3</v>
+      </c>
+      <c r="R52" t="n">
+        <v>3</v>
+      </c>
+      <c r="S52" t="n">
+        <v>3</v>
+      </c>
+      <c r="T52" t="s"/>
+      <c r="U52" t="n">
+        <v>1</v>
+      </c>
+      <c r="V52" t="n">
+        <v>0</v>
+      </c>
+      <c r="W52" t="s"/>
+      <c r="X52" t="s"/>
+      <c r="Y52" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="n">
+        <v>35297</v>
+      </c>
+      <c r="B53" t="s"/>
+      <c r="C53" t="s"/>
+      <c r="D53" t="n">
+        <v>52</v>
+      </c>
+      <c r="E53" t="s">
+        <v>44</v>
+      </c>
+      <c r="F53" t="s">
+        <v>390</v>
+      </c>
+      <c r="G53" t="s">
+        <v>46</v>
+      </c>
+      <c r="H53" t="s">
+        <v>47</v>
+      </c>
+      <c r="I53" t="s">
+        <v>391</v>
+      </c>
+      <c r="J53" t="s">
+        <v>392</v>
+      </c>
+      <c r="K53" t="s">
+        <v>393</v>
+      </c>
+      <c r="L53" t="s">
+        <v>394</v>
+      </c>
+      <c r="M53" t="n">
+        <v>5</v>
+      </c>
+      <c r="N53" t="s">
+        <v>395</v>
+      </c>
+      <c r="O53" t="s">
+        <v>78</v>
+      </c>
+      <c r="P53" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q53" t="n">
+        <v>4</v>
+      </c>
+      <c r="R53" t="n">
+        <v>5</v>
+      </c>
+      <c r="S53" t="n">
+        <v>4</v>
+      </c>
+      <c r="T53" t="s"/>
+      <c r="U53" t="n">
+        <v>4</v>
+      </c>
+      <c r="V53" t="n">
+        <v>0</v>
+      </c>
+      <c r="W53" t="s"/>
+      <c r="X53" t="s"/>
+      <c r="Y53" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="n">
+        <v>35297</v>
+      </c>
+      <c r="B54" t="s"/>
+      <c r="C54" t="s"/>
+      <c r="D54" t="n">
+        <v>53</v>
+      </c>
+      <c r="E54" t="s">
+        <v>44</v>
+      </c>
+      <c r="F54" t="s">
+        <v>396</v>
+      </c>
+      <c r="G54" t="s">
+        <v>46</v>
+      </c>
+      <c r="H54" t="s">
+        <v>47</v>
+      </c>
+      <c r="I54" t="s">
+        <v>397</v>
+      </c>
+      <c r="J54" t="s">
+        <v>398</v>
+      </c>
+      <c r="K54" t="s">
+        <v>399</v>
+      </c>
+      <c r="L54" t="s">
+        <v>400</v>
+      </c>
+      <c r="M54" t="n">
+        <v>3</v>
+      </c>
+      <c r="N54" t="s">
+        <v>401</v>
+      </c>
+      <c r="O54" t="s">
+        <v>53</v>
+      </c>
+      <c r="P54" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q54" t="n">
+        <v>3</v>
+      </c>
+      <c r="R54" t="n">
+        <v>4</v>
+      </c>
+      <c r="S54" t="n">
+        <v>3</v>
+      </c>
+      <c r="T54" t="s"/>
+      <c r="U54" t="n">
+        <v>4</v>
+      </c>
+      <c r="V54" t="n">
+        <v>0</v>
+      </c>
+      <c r="W54" t="s"/>
+      <c r="X54" t="s"/>
+      <c r="Y54" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="n">
+        <v>35297</v>
+      </c>
+      <c r="B55" t="s"/>
+      <c r="C55" t="s"/>
+      <c r="D55" t="n">
+        <v>54</v>
+      </c>
+      <c r="E55" t="s">
+        <v>44</v>
+      </c>
+      <c r="F55" t="s">
+        <v>402</v>
+      </c>
+      <c r="G55" t="s">
+        <v>46</v>
+      </c>
+      <c r="H55" t="s">
+        <v>47</v>
+      </c>
+      <c r="I55" t="s">
+        <v>403</v>
+      </c>
+      <c r="J55" t="s">
+        <v>404</v>
+      </c>
+      <c r="K55" t="s">
+        <v>405</v>
+      </c>
+      <c r="L55" t="s">
+        <v>406</v>
+      </c>
+      <c r="M55" t="n">
+        <v>4</v>
+      </c>
+      <c r="N55" t="s">
+        <v>401</v>
+      </c>
+      <c r="O55" t="s">
+        <v>102</v>
+      </c>
+      <c r="P55" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q55" t="n">
+        <v>3</v>
+      </c>
+      <c r="R55" t="n">
+        <v>4</v>
+      </c>
+      <c r="S55" t="n">
+        <v>4</v>
+      </c>
+      <c r="T55" t="s"/>
+      <c r="U55" t="n">
+        <v>5</v>
+      </c>
+      <c r="V55" t="n">
+        <v>0</v>
+      </c>
+      <c r="W55" t="s"/>
+      <c r="X55" t="s"/>
+      <c r="Y55" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="n">
+        <v>35297</v>
+      </c>
+      <c r="B56" t="s"/>
+      <c r="C56" t="s"/>
+      <c r="D56" t="n">
+        <v>55</v>
+      </c>
+      <c r="E56" t="s">
+        <v>44</v>
+      </c>
+      <c r="F56" t="s">
+        <v>408</v>
+      </c>
+      <c r="G56" t="s">
+        <v>46</v>
+      </c>
+      <c r="H56" t="s">
+        <v>47</v>
+      </c>
+      <c r="I56" t="s">
+        <v>409</v>
+      </c>
+      <c r="J56" t="s">
+        <v>410</v>
+      </c>
+      <c r="K56" t="s">
+        <v>411</v>
+      </c>
+      <c r="L56" t="s">
+        <v>412</v>
+      </c>
+      <c r="M56" t="n">
+        <v>4</v>
+      </c>
+      <c r="N56" t="s">
+        <v>413</v>
+      </c>
+      <c r="O56" t="s">
+        <v>78</v>
+      </c>
+      <c r="P56" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q56" t="n">
+        <v>4</v>
+      </c>
+      <c r="R56" t="n">
+        <v>4</v>
+      </c>
+      <c r="S56" t="n">
+        <v>5</v>
+      </c>
+      <c r="T56" t="s"/>
+      <c r="U56" t="n">
+        <v>4</v>
+      </c>
+      <c r="V56" t="n">
+        <v>0</v>
+      </c>
+      <c r="W56" t="s"/>
+      <c r="X56" t="s"/>
+      <c r="Y56" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="n">
+        <v>35297</v>
+      </c>
+      <c r="B57" t="s"/>
+      <c r="C57" t="s"/>
+      <c r="D57" t="n">
+        <v>56</v>
+      </c>
+      <c r="E57" t="s">
+        <v>44</v>
+      </c>
+      <c r="F57" t="s">
+        <v>415</v>
+      </c>
+      <c r="G57" t="s">
+        <v>46</v>
+      </c>
+      <c r="H57" t="s">
+        <v>47</v>
+      </c>
+      <c r="I57" t="s">
+        <v>416</v>
+      </c>
+      <c r="J57" t="s">
+        <v>417</v>
+      </c>
+      <c r="K57" t="s">
+        <v>418</v>
+      </c>
+      <c r="L57" t="s">
+        <v>419</v>
+      </c>
+      <c r="M57" t="n">
+        <v>5</v>
+      </c>
+      <c r="N57" t="s"/>
+      <c r="O57" t="s"/>
+      <c r="P57" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q57" t="n">
+        <v>5</v>
+      </c>
+      <c r="R57" t="n">
+        <v>5</v>
+      </c>
+      <c r="S57" t="n">
+        <v>4</v>
+      </c>
+      <c r="T57" t="s"/>
+      <c r="U57" t="n">
+        <v>5</v>
+      </c>
+      <c r="V57" t="n">
+        <v>0</v>
+      </c>
+      <c r="W57" t="s"/>
+      <c r="X57" t="s"/>
+      <c r="Y57" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="n">
+        <v>35297</v>
+      </c>
+      <c r="B58" t="s"/>
+      <c r="C58" t="s"/>
+      <c r="D58" t="n">
+        <v>57</v>
+      </c>
+      <c r="E58" t="s">
+        <v>44</v>
+      </c>
+      <c r="F58" t="s">
+        <v>420</v>
+      </c>
+      <c r="G58" t="s">
+        <v>46</v>
+      </c>
+      <c r="H58" t="s">
+        <v>47</v>
+      </c>
+      <c r="I58" t="s">
+        <v>421</v>
+      </c>
+      <c r="J58" t="s">
+        <v>422</v>
+      </c>
+      <c r="K58" t="s">
+        <v>423</v>
+      </c>
+      <c r="L58" t="s">
+        <v>424</v>
+      </c>
+      <c r="M58" t="n">
+        <v>5</v>
+      </c>
+      <c r="N58" t="s">
+        <v>425</v>
+      </c>
+      <c r="O58" t="s">
+        <v>194</v>
+      </c>
+      <c r="P58" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q58" t="n">
+        <v>5</v>
+      </c>
+      <c r="R58" t="n">
+        <v>5</v>
+      </c>
+      <c r="S58" t="n">
+        <v>5</v>
+      </c>
+      <c r="T58" t="s"/>
+      <c r="U58" t="n">
+        <v>5</v>
+      </c>
+      <c r="V58" t="n">
+        <v>0</v>
+      </c>
+      <c r="W58" t="s"/>
+      <c r="X58" t="s"/>
+      <c r="Y58" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="n">
+        <v>35297</v>
+      </c>
+      <c r="B59" t="s"/>
+      <c r="C59" t="s"/>
+      <c r="D59" t="n">
+        <v>58</v>
+      </c>
+      <c r="E59" t="s">
+        <v>44</v>
+      </c>
+      <c r="F59" t="s">
+        <v>426</v>
+      </c>
+      <c r="G59" t="s">
+        <v>46</v>
+      </c>
+      <c r="H59" t="s">
+        <v>47</v>
+      </c>
+      <c r="I59" t="s">
+        <v>427</v>
+      </c>
+      <c r="J59" t="s">
+        <v>428</v>
+      </c>
+      <c r="K59" t="s">
+        <v>429</v>
+      </c>
+      <c r="L59" t="s">
+        <v>430</v>
+      </c>
+      <c r="M59" t="n">
+        <v>5</v>
+      </c>
+      <c r="N59" t="s">
+        <v>431</v>
+      </c>
+      <c r="O59" t="s">
+        <v>53</v>
+      </c>
+      <c r="P59" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q59" t="n">
+        <v>4</v>
+      </c>
+      <c r="R59" t="n">
+        <v>5</v>
+      </c>
+      <c r="S59" t="n">
+        <v>5</v>
+      </c>
+      <c r="T59" t="s"/>
+      <c r="U59" t="n">
+        <v>5</v>
+      </c>
+      <c r="V59" t="n">
+        <v>0</v>
+      </c>
+      <c r="W59" t="s">
+        <v>432</v>
+      </c>
+      <c r="X59" t="s">
+        <v>433</v>
+      </c>
+      <c r="Y59" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="n">
+        <v>35297</v>
+      </c>
+      <c r="B60" t="s"/>
+      <c r="C60" t="s"/>
+      <c r="D60" t="n">
+        <v>59</v>
+      </c>
+      <c r="E60" t="s">
+        <v>44</v>
+      </c>
+      <c r="F60" t="s">
+        <v>435</v>
+      </c>
+      <c r="G60" t="s">
+        <v>46</v>
+      </c>
+      <c r="H60" t="s">
+        <v>47</v>
+      </c>
+      <c r="I60" t="s">
+        <v>436</v>
+      </c>
+      <c r="J60" t="s">
+        <v>437</v>
+      </c>
+      <c r="K60" t="s">
+        <v>438</v>
+      </c>
+      <c r="L60" t="s">
+        <v>439</v>
+      </c>
+      <c r="M60" t="n">
+        <v>4</v>
+      </c>
+      <c r="N60" t="s">
+        <v>431</v>
+      </c>
+      <c r="O60" t="s">
+        <v>53</v>
+      </c>
+      <c r="P60" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q60" t="n">
+        <v>4</v>
+      </c>
+      <c r="R60" t="n">
+        <v>4</v>
+      </c>
+      <c r="S60" t="n">
+        <v>5</v>
+      </c>
+      <c r="T60" t="s"/>
+      <c r="U60" t="n">
+        <v>5</v>
+      </c>
+      <c r="V60" t="n">
+        <v>0</v>
+      </c>
+      <c r="W60" t="s">
+        <v>432</v>
+      </c>
+      <c r="X60" t="s">
+        <v>433</v>
+      </c>
+      <c r="Y60" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="n">
+        <v>35297</v>
+      </c>
+      <c r="B61" t="s"/>
+      <c r="C61" t="s"/>
+      <c r="D61" t="n">
+        <v>60</v>
+      </c>
+      <c r="E61" t="s">
+        <v>44</v>
+      </c>
+      <c r="F61" t="s">
+        <v>441</v>
+      </c>
+      <c r="G61" t="s">
+        <v>46</v>
+      </c>
+      <c r="H61" t="s">
+        <v>47</v>
+      </c>
+      <c r="I61" t="s">
+        <v>442</v>
+      </c>
+      <c r="J61" t="s">
+        <v>443</v>
+      </c>
+      <c r="K61" t="s">
+        <v>444</v>
+      </c>
+      <c r="L61" t="s">
+        <v>445</v>
+      </c>
+      <c r="M61" t="n">
+        <v>4</v>
+      </c>
+      <c r="N61" t="s"/>
+      <c r="O61" t="s"/>
+      <c r="P61" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q61" t="n">
+        <v>4</v>
+      </c>
+      <c r="R61" t="n">
+        <v>5</v>
+      </c>
+      <c r="S61" t="n">
+        <v>4</v>
+      </c>
+      <c r="T61" t="s"/>
+      <c r="U61" t="n">
+        <v>5</v>
+      </c>
+      <c r="V61" t="n">
+        <v>0</v>
+      </c>
+      <c r="W61" t="s">
+        <v>446</v>
+      </c>
+      <c r="X61" t="s">
+        <v>447</v>
+      </c>
+      <c r="Y61" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="n">
+        <v>35297</v>
+      </c>
+      <c r="B62" t="s"/>
+      <c r="C62" t="s"/>
+      <c r="D62" t="n">
+        <v>61</v>
+      </c>
+      <c r="E62" t="s">
+        <v>44</v>
+      </c>
+      <c r="F62" t="s">
+        <v>449</v>
+      </c>
+      <c r="G62" t="s">
+        <v>46</v>
+      </c>
+      <c r="H62" t="s">
+        <v>47</v>
+      </c>
+      <c r="I62" t="s">
+        <v>450</v>
+      </c>
+      <c r="J62" t="s">
+        <v>451</v>
+      </c>
+      <c r="K62" t="s">
+        <v>452</v>
+      </c>
+      <c r="L62" t="s">
+        <v>453</v>
+      </c>
+      <c r="M62" t="n">
+        <v>3</v>
+      </c>
+      <c r="N62" t="s">
+        <v>454</v>
+      </c>
+      <c r="O62" t="s">
+        <v>78</v>
+      </c>
+      <c r="P62" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q62" t="n">
+        <v>4</v>
+      </c>
+      <c r="R62" t="n">
+        <v>4</v>
+      </c>
+      <c r="S62" t="n">
+        <v>3</v>
+      </c>
+      <c r="T62" t="s"/>
+      <c r="U62" t="n">
+        <v>4</v>
+      </c>
+      <c r="V62" t="n">
+        <v>0</v>
+      </c>
+      <c r="W62" t="s">
+        <v>446</v>
+      </c>
+      <c r="X62" t="s">
+        <v>447</v>
+      </c>
+      <c r="Y62" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="n">
+        <v>35297</v>
+      </c>
+      <c r="B63" t="s"/>
+      <c r="C63" t="s"/>
+      <c r="D63" t="n">
+        <v>62</v>
+      </c>
+      <c r="E63" t="s">
+        <v>44</v>
+      </c>
+      <c r="F63" t="s">
+        <v>456</v>
+      </c>
+      <c r="G63" t="s">
+        <v>46</v>
+      </c>
+      <c r="H63" t="s">
+        <v>47</v>
+      </c>
+      <c r="I63" t="s">
+        <v>457</v>
+      </c>
+      <c r="J63" t="s">
+        <v>458</v>
+      </c>
+      <c r="K63" t="s">
+        <v>459</v>
+      </c>
+      <c r="L63" t="s">
+        <v>460</v>
+      </c>
+      <c r="M63" t="n">
+        <v>5</v>
+      </c>
+      <c r="N63" t="s"/>
+      <c r="O63" t="s"/>
+      <c r="P63" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q63" t="n">
+        <v>5</v>
+      </c>
+      <c r="R63" t="n">
+        <v>5</v>
+      </c>
+      <c r="S63" t="n">
+        <v>5</v>
+      </c>
+      <c r="T63" t="s"/>
+      <c r="U63" t="n">
+        <v>5</v>
+      </c>
+      <c r="V63" t="n">
+        <v>0</v>
+      </c>
+      <c r="W63" t="s">
+        <v>461</v>
+      </c>
+      <c r="X63" t="s">
+        <v>462</v>
+      </c>
+      <c r="Y63" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="n">
+        <v>35297</v>
+      </c>
+      <c r="B64" t="s"/>
+      <c r="C64" t="s"/>
+      <c r="D64" t="n">
+        <v>63</v>
+      </c>
+      <c r="E64" t="s">
+        <v>44</v>
+      </c>
+      <c r="F64" t="s">
+        <v>464</v>
+      </c>
+      <c r="G64" t="s">
+        <v>46</v>
+      </c>
+      <c r="H64" t="s">
+        <v>47</v>
+      </c>
+      <c r="I64" t="s">
+        <v>465</v>
+      </c>
+      <c r="J64" t="s">
+        <v>466</v>
+      </c>
+      <c r="K64" t="s">
+        <v>467</v>
+      </c>
+      <c r="L64" t="s">
+        <v>468</v>
+      </c>
+      <c r="M64" t="n">
+        <v>1</v>
+      </c>
+      <c r="N64" t="s">
+        <v>469</v>
+      </c>
+      <c r="O64" t="s">
+        <v>78</v>
+      </c>
+      <c r="P64" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q64" t="n">
+        <v>1</v>
+      </c>
+      <c r="R64" t="n">
+        <v>1</v>
+      </c>
+      <c r="S64" t="n">
+        <v>1</v>
+      </c>
+      <c r="T64" t="s"/>
+      <c r="U64" t="n">
+        <v>1</v>
+      </c>
+      <c r="V64" t="n">
+        <v>0</v>
+      </c>
+      <c r="W64" t="s">
+        <v>461</v>
+      </c>
+      <c r="X64" t="s">
+        <v>462</v>
+      </c>
+      <c r="Y64" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="n">
+        <v>35297</v>
+      </c>
+      <c r="B65" t="s"/>
+      <c r="C65" t="s"/>
+      <c r="D65" t="n">
+        <v>64</v>
+      </c>
+      <c r="E65" t="s">
+        <v>44</v>
+      </c>
+      <c r="F65" t="s">
+        <v>471</v>
+      </c>
+      <c r="G65" t="s">
+        <v>46</v>
+      </c>
+      <c r="H65" t="s">
+        <v>47</v>
+      </c>
+      <c r="I65" t="s">
+        <v>472</v>
+      </c>
+      <c r="J65" t="s">
+        <v>473</v>
+      </c>
+      <c r="K65" t="s">
+        <v>474</v>
+      </c>
+      <c r="L65" t="s">
+        <v>475</v>
+      </c>
+      <c r="M65" t="n">
+        <v>5</v>
+      </c>
+      <c r="N65" t="s">
+        <v>476</v>
+      </c>
+      <c r="O65" t="s">
+        <v>102</v>
+      </c>
+      <c r="P65" t="s"/>
+      <c r="Q65" t="s"/>
+      <c r="R65" t="s"/>
+      <c r="S65" t="s"/>
+      <c r="T65" t="s"/>
+      <c r="U65" t="s"/>
+      <c r="V65" t="n">
+        <v>0</v>
+      </c>
+      <c r="W65" t="s">
+        <v>477</v>
+      </c>
+      <c r="X65" t="s">
+        <v>478</v>
+      </c>
+      <c r="Y65" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="n">
+        <v>35297</v>
+      </c>
+      <c r="B66" t="s"/>
+      <c r="C66" t="s"/>
+      <c r="D66" t="n">
+        <v>65</v>
+      </c>
+      <c r="E66" t="s">
+        <v>44</v>
+      </c>
+      <c r="F66" t="s">
+        <v>480</v>
+      </c>
+      <c r="G66" t="s">
+        <v>46</v>
+      </c>
+      <c r="H66" t="s">
+        <v>47</v>
+      </c>
+      <c r="I66" t="s">
+        <v>481</v>
+      </c>
+      <c r="J66" t="s">
+        <v>482</v>
+      </c>
+      <c r="K66" t="s">
+        <v>483</v>
+      </c>
+      <c r="L66" t="s">
+        <v>484</v>
+      </c>
+      <c r="M66" t="n">
+        <v>4</v>
+      </c>
+      <c r="N66" t="s">
+        <v>476</v>
+      </c>
+      <c r="O66" t="s">
+        <v>53</v>
+      </c>
+      <c r="P66" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q66" t="n">
+        <v>4</v>
+      </c>
+      <c r="R66" t="n">
+        <v>4</v>
+      </c>
+      <c r="S66" t="n">
+        <v>4</v>
+      </c>
+      <c r="T66" t="s"/>
+      <c r="U66" t="n">
+        <v>4</v>
+      </c>
+      <c r="V66" t="n">
+        <v>0</v>
+      </c>
+      <c r="W66" t="s">
+        <v>485</v>
+      </c>
+      <c r="X66" t="s">
+        <v>486</v>
+      </c>
+      <c r="Y66" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="n">
+        <v>35297</v>
+      </c>
+      <c r="B67" t="s"/>
+      <c r="C67" t="s"/>
+      <c r="D67" t="n">
+        <v>66</v>
+      </c>
+      <c r="E67" t="s">
+        <v>44</v>
+      </c>
+      <c r="F67" t="s">
+        <v>488</v>
+      </c>
+      <c r="G67" t="s">
+        <v>46</v>
+      </c>
+      <c r="H67" t="s">
+        <v>47</v>
+      </c>
+      <c r="I67" t="s">
+        <v>489</v>
+      </c>
+      <c r="J67" t="s">
+        <v>490</v>
+      </c>
+      <c r="K67" t="s">
+        <v>275</v>
+      </c>
+      <c r="L67" t="s">
+        <v>491</v>
+      </c>
+      <c r="M67" t="n">
+        <v>5</v>
+      </c>
+      <c r="N67" t="s">
+        <v>425</v>
+      </c>
+      <c r="O67" t="s">
+        <v>53</v>
+      </c>
+      <c r="P67" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q67" t="n">
+        <v>5</v>
+      </c>
+      <c r="R67" t="n">
+        <v>5</v>
+      </c>
+      <c r="S67" t="n">
+        <v>5</v>
+      </c>
+      <c r="T67" t="s"/>
+      <c r="U67" t="n">
+        <v>5</v>
+      </c>
+      <c r="V67" t="n">
+        <v>0</v>
+      </c>
+      <c r="W67" t="s">
+        <v>485</v>
+      </c>
+      <c r="X67" t="s">
+        <v>486</v>
+      </c>
+      <c r="Y67" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="n">
+        <v>35297</v>
+      </c>
+      <c r="B68" t="s"/>
+      <c r="C68" t="s"/>
+      <c r="D68" t="n">
+        <v>67</v>
+      </c>
+      <c r="E68" t="s">
+        <v>44</v>
+      </c>
+      <c r="F68" t="s">
+        <v>493</v>
+      </c>
+      <c r="G68" t="s">
+        <v>46</v>
+      </c>
+      <c r="H68" t="s">
+        <v>47</v>
+      </c>
+      <c r="I68" t="s">
+        <v>494</v>
+      </c>
+      <c r="J68" t="s">
+        <v>495</v>
+      </c>
+      <c r="K68" t="s">
+        <v>496</v>
+      </c>
+      <c r="L68" t="s">
+        <v>497</v>
+      </c>
+      <c r="M68" t="n">
+        <v>4</v>
+      </c>
+      <c r="N68" t="s">
+        <v>498</v>
+      </c>
+      <c r="O68" t="s">
+        <v>53</v>
+      </c>
+      <c r="P68" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q68" t="n">
+        <v>5</v>
+      </c>
+      <c r="R68" t="n">
+        <v>4</v>
+      </c>
+      <c r="S68" t="n">
+        <v>5</v>
+      </c>
+      <c r="T68" t="s"/>
+      <c r="U68" t="n">
+        <v>5</v>
+      </c>
+      <c r="V68" t="n">
+        <v>0</v>
+      </c>
+      <c r="W68" t="s">
+        <v>499</v>
+      </c>
+      <c r="X68" t="s">
+        <v>500</v>
+      </c>
+      <c r="Y68" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="n">
+        <v>35297</v>
+      </c>
+      <c r="B69" t="s"/>
+      <c r="C69" t="s"/>
+      <c r="D69" t="n">
+        <v>68</v>
+      </c>
+      <c r="E69" t="s">
+        <v>44</v>
+      </c>
+      <c r="F69" t="s">
+        <v>502</v>
+      </c>
+      <c r="G69" t="s">
+        <v>46</v>
+      </c>
+      <c r="H69" t="s">
+        <v>47</v>
+      </c>
+      <c r="I69" t="s">
+        <v>503</v>
+      </c>
+      <c r="J69" t="s">
+        <v>504</v>
+      </c>
+      <c r="K69" t="s">
+        <v>505</v>
+      </c>
+      <c r="L69" t="s">
+        <v>506</v>
+      </c>
+      <c r="M69" t="n">
+        <v>4</v>
+      </c>
+      <c r="N69" t="s">
+        <v>507</v>
+      </c>
+      <c r="O69" t="s">
+        <v>53</v>
+      </c>
+      <c r="P69" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q69" t="n">
+        <v>4</v>
+      </c>
+      <c r="R69" t="n">
+        <v>5</v>
+      </c>
+      <c r="S69" t="n">
+        <v>5</v>
+      </c>
+      <c r="T69" t="s"/>
+      <c r="U69" t="n">
+        <v>4</v>
+      </c>
+      <c r="V69" t="n">
+        <v>0</v>
+      </c>
+      <c r="W69" t="s">
+        <v>499</v>
+      </c>
+      <c r="X69" t="s">
+        <v>500</v>
+      </c>
+      <c r="Y69" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="n">
+        <v>35297</v>
+      </c>
+      <c r="B70" t="s"/>
+      <c r="C70" t="s"/>
+      <c r="D70" t="n">
+        <v>69</v>
+      </c>
+      <c r="E70" t="s">
+        <v>44</v>
+      </c>
+      <c r="F70" t="s">
+        <v>509</v>
+      </c>
+      <c r="G70" t="s">
+        <v>46</v>
+      </c>
+      <c r="H70" t="s">
+        <v>47</v>
+      </c>
+      <c r="I70" t="s">
+        <v>510</v>
+      </c>
+      <c r="J70" t="s">
+        <v>511</v>
+      </c>
+      <c r="K70" t="s">
+        <v>512</v>
+      </c>
+      <c r="L70" t="s">
+        <v>513</v>
+      </c>
+      <c r="M70" t="n">
+        <v>4</v>
+      </c>
+      <c r="N70" t="s">
+        <v>514</v>
+      </c>
+      <c r="O70" t="s">
+        <v>78</v>
+      </c>
+      <c r="P70" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q70" t="n">
+        <v>5</v>
+      </c>
+      <c r="R70" t="n">
+        <v>4</v>
+      </c>
+      <c r="S70" t="n">
+        <v>5</v>
+      </c>
+      <c r="T70" t="s"/>
+      <c r="U70" t="n">
+        <v>4</v>
+      </c>
+      <c r="V70" t="n">
+        <v>0</v>
+      </c>
+      <c r="W70" t="s">
+        <v>499</v>
+      </c>
+      <c r="X70" t="s">
+        <v>500</v>
+      </c>
+      <c r="Y70" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="n">
+        <v>35297</v>
+      </c>
+      <c r="B71" t="s"/>
+      <c r="C71" t="s"/>
+      <c r="D71" t="n">
+        <v>70</v>
+      </c>
+      <c r="E71" t="s">
+        <v>44</v>
+      </c>
+      <c r="F71" t="s">
+        <v>516</v>
+      </c>
+      <c r="G71" t="s">
+        <v>46</v>
+      </c>
+      <c r="H71" t="s">
+        <v>47</v>
+      </c>
+      <c r="I71" t="s">
+        <v>517</v>
+      </c>
+      <c r="J71" t="s">
+        <v>518</v>
+      </c>
+      <c r="K71" t="s">
+        <v>519</v>
+      </c>
+      <c r="L71" t="s">
+        <v>520</v>
+      </c>
+      <c r="M71" t="n">
+        <v>5</v>
+      </c>
+      <c r="N71" t="s">
+        <v>521</v>
+      </c>
+      <c r="O71" t="s">
+        <v>194</v>
+      </c>
+      <c r="P71" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q71" t="n">
+        <v>5</v>
+      </c>
+      <c r="R71" t="n">
+        <v>5</v>
+      </c>
+      <c r="S71" t="n">
+        <v>5</v>
+      </c>
+      <c r="T71" t="s"/>
+      <c r="U71" t="n">
+        <v>5</v>
+      </c>
+      <c r="V71" t="n">
+        <v>0</v>
+      </c>
+      <c r="W71" t="s">
+        <v>522</v>
+      </c>
+      <c r="X71" t="s">
+        <v>523</v>
+      </c>
+      <c r="Y71" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="n">
+        <v>35297</v>
+      </c>
+      <c r="B72" t="s"/>
+      <c r="C72" t="s"/>
+      <c r="D72" t="n">
+        <v>71</v>
+      </c>
+      <c r="E72" t="s">
+        <v>44</v>
+      </c>
+      <c r="F72" t="s">
+        <v>525</v>
+      </c>
+      <c r="G72" t="s">
+        <v>46</v>
+      </c>
+      <c r="H72" t="s">
+        <v>47</v>
+      </c>
+      <c r="I72" t="s">
+        <v>526</v>
+      </c>
+      <c r="J72" t="s">
+        <v>527</v>
+      </c>
+      <c r="K72" t="s">
+        <v>528</v>
+      </c>
+      <c r="L72" t="s">
+        <v>529</v>
+      </c>
+      <c r="M72" t="n">
+        <v>3</v>
+      </c>
+      <c r="N72" t="s">
+        <v>521</v>
+      </c>
+      <c r="O72" t="s">
+        <v>53</v>
+      </c>
+      <c r="P72" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q72" t="n">
+        <v>3</v>
+      </c>
+      <c r="R72" t="n">
+        <v>3</v>
+      </c>
+      <c r="S72" t="n">
+        <v>3</v>
+      </c>
+      <c r="T72" t="s"/>
+      <c r="U72" t="n">
+        <v>3</v>
+      </c>
+      <c r="V72" t="n">
+        <v>0</v>
+      </c>
+      <c r="W72" t="s"/>
+      <c r="X72" t="s"/>
+      <c r="Y72" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="n">
+        <v>35297</v>
+      </c>
+      <c r="B73" t="s"/>
+      <c r="C73" t="s"/>
+      <c r="D73" t="n">
+        <v>72</v>
+      </c>
+      <c r="E73" t="s">
+        <v>44</v>
+      </c>
+      <c r="F73" t="s">
+        <v>530</v>
+      </c>
+      <c r="G73" t="s">
+        <v>46</v>
+      </c>
+      <c r="H73" t="s">
+        <v>47</v>
+      </c>
+      <c r="I73" t="s">
+        <v>531</v>
+      </c>
+      <c r="J73" t="s">
+        <v>532</v>
+      </c>
+      <c r="K73" t="s">
+        <v>533</v>
+      </c>
+      <c r="L73" t="s">
+        <v>534</v>
+      </c>
+      <c r="M73" t="n">
+        <v>3</v>
+      </c>
+      <c r="N73" t="s">
+        <v>521</v>
+      </c>
+      <c r="O73" t="s">
+        <v>53</v>
+      </c>
+      <c r="P73" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q73" t="n">
+        <v>4</v>
+      </c>
+      <c r="R73" t="n">
+        <v>4</v>
+      </c>
+      <c r="S73" t="s"/>
+      <c r="T73" t="s"/>
+      <c r="U73" t="n">
+        <v>4</v>
+      </c>
+      <c r="V73" t="n">
+        <v>0</v>
+      </c>
+      <c r="W73" t="s"/>
+      <c r="X73" t="s"/>
+      <c r="Y73" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="n">
+        <v>35297</v>
+      </c>
+      <c r="B74" t="s"/>
+      <c r="C74" t="s"/>
+      <c r="D74" t="n">
+        <v>73</v>
+      </c>
+      <c r="E74" t="s">
+        <v>44</v>
+      </c>
+      <c r="F74" t="s">
+        <v>535</v>
+      </c>
+      <c r="G74" t="s">
+        <v>46</v>
+      </c>
+      <c r="H74" t="s">
+        <v>47</v>
+      </c>
+      <c r="I74" t="s">
+        <v>536</v>
+      </c>
+      <c r="J74" t="s">
+        <v>537</v>
+      </c>
+      <c r="K74" t="s">
+        <v>538</v>
+      </c>
+      <c r="L74" t="s">
+        <v>539</v>
+      </c>
+      <c r="M74" t="n">
+        <v>5</v>
+      </c>
+      <c r="N74" t="s">
+        <v>540</v>
+      </c>
+      <c r="O74" t="s">
+        <v>53</v>
+      </c>
+      <c r="P74" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q74" t="s"/>
+      <c r="R74" t="s"/>
+      <c r="S74" t="n">
+        <v>5</v>
+      </c>
+      <c r="T74" t="s"/>
+      <c r="U74" t="n">
+        <v>5</v>
+      </c>
+      <c r="V74" t="n">
+        <v>0</v>
+      </c>
+      <c r="W74" t="s"/>
+      <c r="X74" t="s"/>
+      <c r="Y74" t="s">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="n">
+        <v>35297</v>
+      </c>
+      <c r="B75" t="s"/>
+      <c r="C75" t="s"/>
+      <c r="D75" t="n">
+        <v>74</v>
+      </c>
+      <c r="E75" t="s">
+        <v>44</v>
+      </c>
+      <c r="F75" t="s">
+        <v>541</v>
+      </c>
+      <c r="G75" t="s">
+        <v>46</v>
+      </c>
+      <c r="H75" t="s">
+        <v>47</v>
+      </c>
+      <c r="I75" t="s">
+        <v>542</v>
+      </c>
+      <c r="J75" t="s">
+        <v>543</v>
+      </c>
+      <c r="K75" t="s">
+        <v>544</v>
+      </c>
+      <c r="L75" t="s">
+        <v>545</v>
+      </c>
+      <c r="M75" t="n">
+        <v>4</v>
+      </c>
+      <c r="N75" t="s">
+        <v>540</v>
+      </c>
+      <c r="O75" t="s">
+        <v>78</v>
+      </c>
+      <c r="P75" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q75" t="s"/>
+      <c r="R75" t="s"/>
+      <c r="S75" t="n">
+        <v>4</v>
+      </c>
+      <c r="T75" t="s"/>
+      <c r="U75" t="n">
+        <v>4</v>
+      </c>
+      <c r="V75" t="n">
+        <v>0</v>
+      </c>
+      <c r="W75" t="s"/>
+      <c r="X75" t="s"/>
+      <c r="Y75" t="s">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="n">
+        <v>35297</v>
+      </c>
+      <c r="B76" t="s"/>
+      <c r="C76" t="s"/>
+      <c r="D76" t="n">
+        <v>75</v>
+      </c>
+      <c r="E76" t="s">
+        <v>44</v>
+      </c>
+      <c r="F76" t="s">
+        <v>547</v>
+      </c>
+      <c r="G76" t="s">
+        <v>46</v>
+      </c>
+      <c r="H76" t="s">
+        <v>47</v>
+      </c>
+      <c r="I76" t="s">
+        <v>548</v>
+      </c>
+      <c r="J76" t="s">
+        <v>549</v>
+      </c>
+      <c r="K76" t="s">
+        <v>550</v>
+      </c>
+      <c r="L76" t="s">
+        <v>551</v>
+      </c>
+      <c r="M76" t="n">
+        <v>5</v>
+      </c>
+      <c r="N76" t="s">
+        <v>552</v>
+      </c>
+      <c r="O76" t="s">
+        <v>53</v>
+      </c>
+      <c r="P76" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q76" t="n">
+        <v>5</v>
+      </c>
+      <c r="R76" t="n">
+        <v>5</v>
+      </c>
+      <c r="S76" t="n">
+        <v>5</v>
+      </c>
+      <c r="T76" t="s"/>
+      <c r="U76" t="n">
+        <v>5</v>
+      </c>
+      <c r="V76" t="n">
+        <v>0</v>
+      </c>
+      <c r="W76" t="s"/>
+      <c r="X76" t="s"/>
+      <c r="Y76" t="s">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="n">
+        <v>35297</v>
+      </c>
+      <c r="B77" t="s"/>
+      <c r="C77" t="s"/>
+      <c r="D77" t="n">
+        <v>76</v>
+      </c>
+      <c r="E77" t="s">
+        <v>44</v>
+      </c>
+      <c r="F77" t="s">
+        <v>553</v>
+      </c>
+      <c r="G77" t="s">
+        <v>46</v>
+      </c>
+      <c r="H77" t="s">
+        <v>47</v>
+      </c>
+      <c r="I77" t="s">
+        <v>554</v>
+      </c>
+      <c r="J77" t="s">
+        <v>555</v>
+      </c>
+      <c r="K77" t="s">
+        <v>556</v>
+      </c>
+      <c r="L77" t="s">
+        <v>557</v>
+      </c>
+      <c r="M77" t="n">
+        <v>4</v>
+      </c>
+      <c r="N77" t="s">
+        <v>558</v>
+      </c>
+      <c r="O77" t="s">
+        <v>78</v>
+      </c>
+      <c r="P77" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q77" t="n">
+        <v>3</v>
+      </c>
+      <c r="R77" t="n">
+        <v>4</v>
+      </c>
+      <c r="S77" t="n">
+        <v>4</v>
+      </c>
+      <c r="T77" t="s"/>
+      <c r="U77" t="n">
+        <v>4</v>
+      </c>
+      <c r="V77" t="n">
+        <v>0</v>
+      </c>
+      <c r="W77" t="s">
+        <v>559</v>
+      </c>
+      <c r="X77" t="s">
+        <v>560</v>
+      </c>
+      <c r="Y77" t="s">
+        <v>561</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="n">
+        <v>35297</v>
+      </c>
+      <c r="B78" t="s"/>
+      <c r="C78" t="s"/>
+      <c r="D78" t="n">
+        <v>77</v>
+      </c>
+      <c r="E78" t="s">
+        <v>44</v>
+      </c>
+      <c r="F78" t="s">
+        <v>562</v>
+      </c>
+      <c r="G78" t="s">
+        <v>46</v>
+      </c>
+      <c r="H78" t="s">
+        <v>47</v>
+      </c>
+      <c r="I78" t="s">
+        <v>563</v>
+      </c>
+      <c r="J78" t="s">
+        <v>564</v>
+      </c>
+      <c r="K78" t="s">
+        <v>565</v>
+      </c>
+      <c r="L78" t="s">
+        <v>566</v>
+      </c>
+      <c r="M78" t="n">
+        <v>4</v>
+      </c>
+      <c r="N78" t="s">
+        <v>558</v>
+      </c>
+      <c r="O78" t="s">
+        <v>78</v>
+      </c>
+      <c r="P78" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q78" t="n">
+        <v>5</v>
+      </c>
+      <c r="R78" t="n">
+        <v>4</v>
+      </c>
+      <c r="S78" t="n">
+        <v>5</v>
+      </c>
+      <c r="T78" t="s"/>
+      <c r="U78" t="n">
+        <v>5</v>
+      </c>
+      <c r="V78" t="n">
+        <v>0</v>
+      </c>
+      <c r="W78" t="s">
+        <v>559</v>
+      </c>
+      <c r="X78" t="s">
+        <v>560</v>
+      </c>
+      <c r="Y78" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="n">
+        <v>35297</v>
+      </c>
+      <c r="B79" t="s"/>
+      <c r="C79" t="s"/>
+      <c r="D79" t="n">
+        <v>78</v>
+      </c>
+      <c r="E79" t="s">
+        <v>44</v>
+      </c>
+      <c r="F79" t="s">
+        <v>568</v>
+      </c>
+      <c r="G79" t="s">
+        <v>46</v>
+      </c>
+      <c r="H79" t="s">
+        <v>47</v>
+      </c>
+      <c r="I79" t="s">
+        <v>569</v>
+      </c>
+      <c r="J79" t="s">
+        <v>570</v>
+      </c>
+      <c r="K79" t="s">
+        <v>571</v>
+      </c>
+      <c r="L79" t="s">
+        <v>572</v>
+      </c>
+      <c r="M79" t="n">
+        <v>4</v>
+      </c>
+      <c r="N79" t="s">
+        <v>573</v>
+      </c>
+      <c r="O79" t="s">
+        <v>78</v>
+      </c>
+      <c r="P79" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q79" t="n">
+        <v>4</v>
+      </c>
+      <c r="R79" t="n">
+        <v>4</v>
+      </c>
+      <c r="S79" t="n">
+        <v>5</v>
+      </c>
+      <c r="T79" t="s"/>
+      <c r="U79" t="n">
+        <v>4</v>
+      </c>
+      <c r="V79" t="n">
+        <v>0</v>
+      </c>
+      <c r="W79" t="s"/>
+      <c r="X79" t="s"/>
+      <c r="Y79" t="s">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="n">
+        <v>35297</v>
+      </c>
+      <c r="B80" t="s"/>
+      <c r="C80" t="s"/>
+      <c r="D80" t="n">
+        <v>79</v>
+      </c>
+      <c r="E80" t="s">
+        <v>44</v>
+      </c>
+      <c r="F80" t="s">
+        <v>575</v>
+      </c>
+      <c r="G80" t="s">
+        <v>46</v>
+      </c>
+      <c r="H80" t="s">
+        <v>47</v>
+      </c>
+      <c r="I80" t="s">
+        <v>576</v>
+      </c>
+      <c r="J80" t="s">
+        <v>577</v>
+      </c>
+      <c r="K80" t="s">
+        <v>578</v>
+      </c>
+      <c r="L80" t="s">
+        <v>579</v>
+      </c>
+      <c r="M80" t="n">
+        <v>5</v>
+      </c>
+      <c r="N80" t="s">
+        <v>580</v>
+      </c>
+      <c r="O80" t="s">
+        <v>78</v>
+      </c>
+      <c r="P80" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q80" t="n">
+        <v>5</v>
+      </c>
+      <c r="R80" t="n">
+        <v>5</v>
+      </c>
+      <c r="S80" t="n">
+        <v>5</v>
+      </c>
+      <c r="T80" t="s"/>
+      <c r="U80" t="n">
+        <v>5</v>
+      </c>
+      <c r="V80" t="n">
+        <v>0</v>
+      </c>
+      <c r="W80" t="s"/>
+      <c r="X80" t="s"/>
+      <c r="Y80" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="n">
+        <v>35297</v>
+      </c>
+      <c r="B81" t="s"/>
+      <c r="C81" t="s"/>
+      <c r="D81" t="n">
+        <v>80</v>
+      </c>
+      <c r="E81" t="s">
+        <v>44</v>
+      </c>
+      <c r="F81" t="s">
+        <v>582</v>
+      </c>
+      <c r="G81" t="s">
+        <v>46</v>
+      </c>
+      <c r="H81" t="s">
+        <v>47</v>
+      </c>
+      <c r="I81" t="s">
+        <v>583</v>
+      </c>
+      <c r="J81" t="s">
+        <v>584</v>
+      </c>
+      <c r="K81" t="s">
+        <v>585</v>
+      </c>
+      <c r="L81" t="s">
+        <v>586</v>
+      </c>
+      <c r="M81" t="n">
+        <v>4</v>
+      </c>
+      <c r="N81" t="s">
+        <v>587</v>
+      </c>
+      <c r="O81" t="s">
+        <v>53</v>
+      </c>
+      <c r="P81" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q81" t="n">
+        <v>4</v>
+      </c>
+      <c r="R81" t="s"/>
+      <c r="S81" t="n">
+        <v>4</v>
+      </c>
+      <c r="T81" t="s"/>
+      <c r="U81" t="n">
+        <v>4</v>
+      </c>
+      <c r="V81" t="n">
+        <v>0</v>
+      </c>
+      <c r="W81" t="s"/>
+      <c r="X81" t="s"/>
+      <c r="Y81" t="s">
+        <v>586</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="n">
+        <v>35297</v>
+      </c>
+      <c r="B82" t="s"/>
+      <c r="C82" t="s"/>
+      <c r="D82" t="n">
+        <v>81</v>
+      </c>
+      <c r="E82" t="s">
+        <v>44</v>
+      </c>
+      <c r="F82" t="s">
+        <v>588</v>
+      </c>
+      <c r="G82" t="s">
+        <v>46</v>
+      </c>
+      <c r="H82" t="s">
+        <v>47</v>
+      </c>
+      <c r="I82" t="s">
+        <v>589</v>
+      </c>
+      <c r="J82" t="s">
+        <v>590</v>
+      </c>
+      <c r="K82" t="s">
+        <v>591</v>
+      </c>
+      <c r="L82" t="s">
+        <v>592</v>
+      </c>
+      <c r="M82" t="n">
+        <v>5</v>
+      </c>
+      <c r="N82" t="s">
+        <v>593</v>
+      </c>
+      <c r="O82" t="s">
+        <v>53</v>
+      </c>
+      <c r="P82" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q82" t="n">
+        <v>5</v>
+      </c>
+      <c r="R82" t="n">
+        <v>5</v>
+      </c>
+      <c r="S82" t="n">
+        <v>5</v>
+      </c>
+      <c r="T82" t="s"/>
+      <c r="U82" t="n">
+        <v>5</v>
+      </c>
+      <c r="V82" t="n">
+        <v>0</v>
+      </c>
+      <c r="W82" t="s"/>
+      <c r="X82" t="s"/>
+      <c r="Y82" t="s">
+        <v>592</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="n">
+        <v>35297</v>
+      </c>
+      <c r="B83" t="s"/>
+      <c r="C83" t="s"/>
+      <c r="D83" t="n">
+        <v>82</v>
+      </c>
+      <c r="E83" t="s">
+        <v>44</v>
+      </c>
+      <c r="F83" t="s">
+        <v>594</v>
+      </c>
+      <c r="G83" t="s">
+        <v>46</v>
+      </c>
+      <c r="H83" t="s">
+        <v>47</v>
+      </c>
+      <c r="I83" t="s">
+        <v>595</v>
+      </c>
+      <c r="J83" t="s">
+        <v>596</v>
+      </c>
+      <c r="K83" t="s">
+        <v>597</v>
+      </c>
+      <c r="L83" t="s">
+        <v>598</v>
+      </c>
+      <c r="M83" t="n">
+        <v>5</v>
+      </c>
+      <c r="N83" t="s">
+        <v>599</v>
+      </c>
+      <c r="O83" t="s">
+        <v>78</v>
+      </c>
+      <c r="P83" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q83" t="n">
+        <v>5</v>
+      </c>
+      <c r="R83" t="n">
+        <v>4</v>
+      </c>
+      <c r="S83" t="n">
+        <v>5</v>
+      </c>
+      <c r="T83" t="s"/>
+      <c r="U83" t="s"/>
+      <c r="V83" t="n">
+        <v>0</v>
+      </c>
+      <c r="W83" t="s"/>
+      <c r="X83" t="s"/>
+      <c r="Y83" t="s">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="n">
+        <v>35297</v>
+      </c>
+      <c r="B84" t="s"/>
+      <c r="C84" t="s"/>
+      <c r="D84" t="n">
+        <v>83</v>
+      </c>
+      <c r="E84" t="s">
+        <v>44</v>
+      </c>
+      <c r="F84" t="s">
+        <v>600</v>
+      </c>
+      <c r="G84" t="s">
+        <v>46</v>
+      </c>
+      <c r="H84" t="s">
+        <v>47</v>
+      </c>
+      <c r="I84" t="s">
+        <v>601</v>
+      </c>
+      <c r="J84" t="s">
+        <v>602</v>
+      </c>
+      <c r="K84" t="s">
+        <v>603</v>
+      </c>
+      <c r="L84" t="s">
+        <v>604</v>
+      </c>
+      <c r="M84" t="n">
+        <v>2</v>
+      </c>
+      <c r="N84" t="s">
+        <v>599</v>
+      </c>
+      <c r="O84" t="s">
+        <v>102</v>
+      </c>
+      <c r="P84" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q84" t="n">
+        <v>2</v>
+      </c>
+      <c r="R84" t="n">
+        <v>5</v>
+      </c>
+      <c r="S84" t="n">
+        <v>3</v>
+      </c>
+      <c r="T84" t="s"/>
+      <c r="U84" t="n">
+        <v>4</v>
+      </c>
+      <c r="V84" t="n">
+        <v>0</v>
+      </c>
+      <c r="W84" t="s"/>
+      <c r="X84" t="s"/>
+      <c r="Y84" t="s">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="n">
+        <v>35297</v>
+      </c>
+      <c r="B85" t="s"/>
+      <c r="C85" t="s"/>
+      <c r="D85" t="n">
+        <v>84</v>
+      </c>
+      <c r="E85" t="s">
+        <v>44</v>
+      </c>
+      <c r="F85" t="s">
+        <v>606</v>
+      </c>
+      <c r="G85" t="s">
+        <v>46</v>
+      </c>
+      <c r="H85" t="s">
+        <v>47</v>
+      </c>
+      <c r="I85" t="s">
+        <v>607</v>
+      </c>
+      <c r="J85" t="s">
+        <v>608</v>
+      </c>
+      <c r="K85" t="s">
+        <v>609</v>
+      </c>
+      <c r="L85" t="s">
+        <v>610</v>
+      </c>
+      <c r="M85" t="n">
+        <v>5</v>
+      </c>
+      <c r="N85" t="s"/>
+      <c r="O85" t="s"/>
+      <c r="P85" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q85" t="n">
+        <v>5</v>
+      </c>
+      <c r="R85" t="s"/>
+      <c r="S85" t="n">
+        <v>5</v>
+      </c>
+      <c r="T85" t="s"/>
+      <c r="U85" t="n">
+        <v>5</v>
+      </c>
+      <c r="V85" t="n">
+        <v>0</v>
+      </c>
+      <c r="W85" t="s"/>
+      <c r="X85" t="s"/>
+      <c r="Y85" t="s">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="n">
+        <v>35297</v>
+      </c>
+      <c r="B86" t="s"/>
+      <c r="C86" t="s"/>
+      <c r="D86" t="n">
+        <v>85</v>
+      </c>
+      <c r="E86" t="s">
+        <v>44</v>
+      </c>
+      <c r="F86" t="s">
+        <v>611</v>
+      </c>
+      <c r="G86" t="s">
+        <v>46</v>
+      </c>
+      <c r="H86" t="s">
+        <v>47</v>
+      </c>
+      <c r="I86" t="s">
+        <v>612</v>
+      </c>
+      <c r="J86" t="s">
+        <v>613</v>
+      </c>
+      <c r="K86" t="s">
+        <v>614</v>
+      </c>
+      <c r="L86" t="s">
+        <v>615</v>
+      </c>
+      <c r="M86" t="n">
+        <v>4</v>
+      </c>
+      <c r="N86" t="s"/>
+      <c r="O86" t="s"/>
+      <c r="P86" t="s"/>
+      <c r="Q86" t="s"/>
+      <c r="R86" t="s"/>
+      <c r="S86" t="s"/>
+      <c r="T86" t="s"/>
+      <c r="U86" t="s"/>
+      <c r="V86" t="n">
+        <v>0</v>
+      </c>
+      <c r="W86" t="s"/>
+      <c r="X86" t="s"/>
+      <c r="Y86" t="s">
+        <v>615</v>
       </c>
     </row>
   </sheetData>
